--- a/4_Measurements/Results.xlsx
+++ b/4_Measurements/Results.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18326"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nalo\Desktop\Bachelor\4_Measurements\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Bachelor\Bachelor\4_Measurements\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14685" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14685" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Base" sheetId="2" r:id="rId1"/>
@@ -17,8 +17,7 @@
     <sheet name="Peripheral" sheetId="5" r:id="rId3"/>
     <sheet name="Central" sheetId="6" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1282" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1284" uniqueCount="119">
   <si>
     <t>GPIO Measurements Errors</t>
   </si>
@@ -408,7 +407,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0000"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
@@ -597,6 +596,12 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -605,12 +610,6 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -632,7 +631,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="fr-FR"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -674,7 +673,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1031,7 +1029,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1075,7 +1072,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="nb-NO"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="142745904"/>
@@ -1129,7 +1126,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1173,7 +1169,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="nb-NO"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="142749840"/>
@@ -1183,7 +1179,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1209,7 +1204,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="nb-NO"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1224,7 +1219,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="nb-NO"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1238,7 +1233,7 @@
 <file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="fr-FR"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1275,7 +1270,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1345,7 +1339,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="nb-NO"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -1358,7 +1352,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1476,7 +1469,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="nb-NO"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -1489,7 +1482,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1601,7 +1593,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="nb-NO"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -1614,7 +1606,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1732,7 +1723,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="nb-NO"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -1745,7 +1736,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1873,7 +1863,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="nb-NO"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="314801472"/>
@@ -1916,7 +1906,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1937,7 +1926,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1963,7 +1951,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="nb-NO"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1978,7 +1966,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="nb-NO"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1992,7 +1980,500 @@
 <file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="nb-NO"/>
+              <a:t>Power Consumption, No notification</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Peripheral!$F$29</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Zephyr</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Peripheral!$C$29:$C$31</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Conn.Int. 7.5ms</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Conn.Int. 50ms</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Conn.Int. 400ms</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Peripheral!$D$13,Peripheral!$D$15,Peripheral!$D$17)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2160</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1040</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>686</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-AB62-4264-ACCE-8B629585CA93}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Peripheral!$F$30</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SD + SDK</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="40000"/>
+                <a:lumOff val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="40000"/>
+                  <a:lumOff val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Peripheral!$C$29:$C$31</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Conn.Int. 7.5ms</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Conn.Int. 50ms</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Conn.Int. 400ms</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Peripheral!$C$12,Peripheral!$C$14,Peripheral!$C$16)</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2170</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1010</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>324.10000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-AB62-4264-ACCE-8B629585CA93}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="444"/>
+        <c:overlap val="-90"/>
+        <c:axId val="314802784"/>
+        <c:axId val="314801472"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="314802784"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="314801472"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="314801472"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="nb-NO"/>
+                  <a:t>irms [uA]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="314802784"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2029,7 +2510,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2055,7 +2535,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="nb-NO"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2406,7 +2886,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2432,7 +2911,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="nb-NO"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2470,7 +2949,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="nb-NO"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="142745904"/>
@@ -2524,7 +3003,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2550,7 +3028,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="nb-NO"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2588,7 +3066,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="nb-NO"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="142749840"/>
@@ -2605,7 +3083,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2631,7 +3108,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="nb-NO"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2661,7 +3138,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="nb-NO"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2672,10 +3149,10 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="fr-FR"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2722,7 +3199,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3622,7 +4098,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3666,7 +4141,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="nb-NO"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="142745904"/>
@@ -3720,7 +4195,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3764,7 +4238,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="nb-NO"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="142749840"/>
@@ -3774,7 +4248,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3800,7 +4273,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="nb-NO"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -3815,7 +4288,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="nb-NO"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3826,10 +4299,10 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="fr-FR"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3876,7 +4349,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4506,7 +4978,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4550,7 +5021,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="nb-NO"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="142745904"/>
@@ -4604,7 +5075,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4648,7 +5118,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="nb-NO"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="142749840"/>
@@ -4658,7 +5128,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4684,7 +5153,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="nb-NO"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -4699,7 +5168,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="nb-NO"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4710,10 +5179,10 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="fr-FR"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4760,7 +5229,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5390,7 +5858,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -5434,7 +5901,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="nb-NO"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="142745904"/>
@@ -5488,7 +5955,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -5532,7 +5998,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="nb-NO"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="142749840"/>
@@ -5542,7 +6008,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5568,7 +6033,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="nb-NO"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -5583,7 +6048,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="nb-NO"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -5594,10 +6059,10 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="fr-FR"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -5634,7 +6099,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5704,7 +6168,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="nb-NO"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -5717,7 +6181,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -5841,7 +6304,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="nb-NO"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -5854,7 +6317,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -5972,7 +6434,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="nb-NO"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -5985,7 +6447,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -6109,7 +6570,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="nb-NO"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -6122,7 +6583,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -6240,7 +6700,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="nb-NO"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -6253,7 +6713,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -6377,7 +6836,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="nb-NO"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -6390,7 +6849,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -6524,7 +6982,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="nb-NO"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="314801472"/>
@@ -6567,7 +7025,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -6588,7 +7045,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6614,7 +7070,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="nb-NO"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -6629,7 +7085,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="nb-NO"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -6640,10 +7096,10 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="fr-FR"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -6749,7 +7205,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="nb-NO"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -6879,7 +7335,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="nb-NO"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -7003,7 +7459,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="nb-NO"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -7133,7 +7589,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="nb-NO"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -7257,7 +7713,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="nb-NO"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -7387,7 +7843,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="nb-NO"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -7527,7 +7983,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="nb-NO"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="314801472"/>
@@ -7615,7 +8071,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="nb-NO"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -7630,7 +8086,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="nb-NO"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -7641,10 +8097,10 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="fr-FR"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -7750,7 +8206,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="nb-NO"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -7874,7 +8330,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="nb-NO"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -7992,7 +8448,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="nb-NO"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -8116,7 +8572,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="nb-NO"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -8234,7 +8690,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="nb-NO"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -8358,7 +8814,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="nb-NO"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -8492,7 +8948,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="nb-NO"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="314801472"/>
@@ -8586,7 +9042,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="nb-NO"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -8601,7 +9057,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="nb-NO"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -8612,10 +9068,10 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="fr-FR"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -8721,7 +9177,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="nb-NO"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -8845,7 +9301,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="nb-NO"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -8963,7 +9419,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="nb-NO"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -9087,7 +9543,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="nb-NO"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -9205,7 +9661,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="nb-NO"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -9329,7 +9785,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="nb-NO"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -9463,7 +9919,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="nb-NO"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="314801472"/>
@@ -9557,7 +10013,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="nb-NO"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -9572,7 +10028,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="nb-NO"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -9583,10 +10039,612 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="nb-NO" sz="1800" b="1" i="0" cap="all" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Power Consumption, INterrupt and SOFT-TImer</a:t>
+            </a:r>
+            <a:endParaRPr lang="nb-NO">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ExtBoard!$F$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Zephyr, TIMER ON, ACC /ADC OFF</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>ExtBoard!$G$11:$R$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>ExtBoard!$G$12:$R$12</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>620.54999999999995</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>640</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1330</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2030</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2920</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3760</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3440</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4070</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3450</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4090</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4200</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4950</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000002D-B2F2-45AD-8BDE-D7D527672528}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ExtBoard!$F$45</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SD +SDK, TIMER ON, ACC /ADC OFF</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="40000"/>
+                  <a:lumOff val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="40000"/>
+                  <a:lumOff val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="40000"/>
+                    <a:lumOff val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>ExtBoard!$G$46:$R$46</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>ExtBoard!$G$47:$R$47</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>234</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1460</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2320</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3580</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4750</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4020</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3950</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4330</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4760</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5160</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4770</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000002F-B2F2-45AD-8BDE-D7D527672528}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="142749840"/>
+        <c:axId val="142745904"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="142749840"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="100"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="nb-NO"/>
+                  <a:t>Frequency [kHz]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="142745904"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="142745904"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="nb-NO"/>
+                  <a:t>Irms [uA]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="142749840"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart20.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -9623,7 +10681,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9693,7 +10750,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="nb-NO"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -9706,7 +10763,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -9824,7 +10880,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="nb-NO"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -9837,7 +10893,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -9949,7 +11004,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="nb-NO"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -9962,7 +11017,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -10077,7 +11131,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="nb-NO"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -10090,7 +11144,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -10199,7 +11252,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="nb-NO"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -10212,7 +11265,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -10327,7 +11379,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="nb-NO"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -10340,7 +11392,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -10465,7 +11516,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="nb-NO"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="314801472"/>
@@ -10508,7 +11559,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -10529,7 +11579,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -10555,7 +11604,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="nb-NO"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -10570,613 +11619,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="nb-NO"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="nb-NO" sz="1800" b="1" i="0" cap="all" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t>Power Consumption, INterrupt and SOFT-TImer</a:t>
-            </a:r>
-            <a:endParaRPr lang="nb-NO">
-              <a:effectLst/>
-            </a:endParaRPr>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>ExtBoard!$F$10</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Zephyr, TIMER ON, ACC /ADC OFF</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="square"/>
-            <c:size val="6"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>ExtBoard!$G$11:$R$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>100</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>ExtBoard!$G$12:$R$12</c:f>
-              <c:numCache>
-                <c:formatCode>0</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>620.54999999999995</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>640</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1330</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2030</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2920</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3760</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3440</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4070</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>3450</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>4090</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>4200</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>4950</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000002D-B2F2-45AD-8BDE-D7D527672528}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>ExtBoard!$F$45</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>SD +SDK, TIMER ON, ACC /ADC OFF</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="40000"/>
-                  <a:lumOff val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="square"/>
-            <c:size val="6"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="40000"/>
-                  <a:lumOff val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1">
-                    <a:lumMod val="40000"/>
-                    <a:lumOff val="60000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>ExtBoard!$G$46:$R$46</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>100</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>ExtBoard!$G$47:$R$47</c:f>
-              <c:numCache>
-                <c:formatCode>0</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>234</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1460</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2320</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3580</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4750</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4020</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3950</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>4330</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>4760</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>5160</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>4770</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000002F-B2F2-45AD-8BDE-D7D527672528}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="142749840"/>
-        <c:axId val="142745904"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="142749840"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="100"/>
-          <c:min val="0"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="nb-NO"/>
-                  <a:t>Frequency [kHz]</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="dk1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="nb-NO"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="142745904"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="142745904"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="nb-NO"/>
-                  <a:t>Irms [uA]</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:title>
-        <c:numFmt formatCode="0" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="dk1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="nb-NO"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="142749840"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="nb-NO"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="nb-NO"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -11190,7 +11633,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="fr-FR"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -11232,7 +11675,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -11589,7 +12031,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -11633,7 +12074,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="nb-NO"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="142745904"/>
@@ -11687,7 +12128,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -11731,7 +12171,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="nb-NO"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="142749840"/>
@@ -11741,7 +12181,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -11767,7 +12206,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="nb-NO"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -11782,7 +12221,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="nb-NO"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -11796,7 +12235,7 @@
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="fr-FR"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -11833,7 +12272,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -12736,7 +13174,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -12780,7 +13217,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="nb-NO"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="142745904"/>
@@ -12834,7 +13271,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -12878,7 +13314,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="nb-NO"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="142749840"/>
@@ -12888,7 +13324,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -12914,7 +13349,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="nb-NO"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -12929,7 +13364,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="nb-NO"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -12943,7 +13378,7 @@
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="fr-FR"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -13005,7 +13440,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="nb-NO"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -13069,7 +13504,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="nb-NO"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -13199,7 +13634,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="nb-NO"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -13323,7 +13758,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="nb-NO"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -13436,7 +13871,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="nb-NO"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -13543,7 +13978,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="nb-NO"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -13656,7 +14091,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="nb-NO"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -13779,7 +14214,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="nb-NO"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="314801472"/>
@@ -13847,7 +14282,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="nb-NO"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -13894,7 +14329,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="nb-NO"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -13924,7 +14359,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="nb-NO"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -13938,7 +14373,7 @@
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="fr-FR"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -13975,7 +14410,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -14332,7 +14766,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -14376,7 +14809,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="nb-NO"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="142745904"/>
@@ -14430,7 +14863,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -14474,7 +14906,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="nb-NO"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="142749840"/>
@@ -14484,7 +14916,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -14510,7 +14941,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="nb-NO"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -14525,7 +14956,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="nb-NO"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -14539,7 +14970,7 @@
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="fr-FR"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -14576,7 +15007,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -15479,7 +15909,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -15523,7 +15952,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="nb-NO"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="142745904"/>
@@ -15577,7 +16006,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -15621,7 +16049,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="nb-NO"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="142749840"/>
@@ -15631,7 +16059,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -15657,7 +16084,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="nb-NO"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -15672,7 +16099,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="nb-NO"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -15686,7 +16113,7 @@
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="fr-FR"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -15723,7 +16150,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -15793,7 +16219,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="nb-NO"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -15806,7 +16232,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -15930,7 +16355,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="nb-NO"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -15943,7 +16368,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -16061,7 +16485,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="nb-NO"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -16074,7 +16498,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -16198,7 +16621,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="nb-NO"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -16211,7 +16634,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -16329,7 +16751,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="nb-NO"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -16342,7 +16764,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -16466,7 +16887,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="nb-NO"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -16479,7 +16900,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -16613,7 +17033,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="nb-NO"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="314801472"/>
@@ -16656,7 +17076,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -16677,7 +17096,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -16703,7 +17121,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="nb-NO"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -16718,7 +17136,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="nb-NO"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -16732,7 +17150,7 @@
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="fr-FR"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -16774,7 +17192,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -16844,7 +17261,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="nb-NO"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -16857,7 +17274,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -16975,7 +17391,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="nb-NO"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -16988,7 +17404,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -17100,7 +17515,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="nb-NO"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -17113,7 +17528,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -17231,7 +17645,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="nb-NO"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -17244,7 +17658,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -17356,7 +17769,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="nb-NO"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -17369,7 +17782,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -17487,7 +17899,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="nb-NO"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -17500,7 +17912,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -17628,7 +18039,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="nb-NO"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="314801472"/>
@@ -17671,7 +18082,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -17692,7 +18102,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -17718,7 +18127,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="nb-NO"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -17733,7 +18142,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="nb-NO"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -18885,7 +19294,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -18917,7 +19332,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -18949,7 +19370,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -18981,7 +19408,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -19013,7 +19446,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -19048,7 +19487,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -19080,7 +19525,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -19112,7 +19563,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -19144,7 +19601,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -19176,7 +19639,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -19188,6 +19657,44 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>119064</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>753340</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>4765</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45AE72AD-2072-4407-8FF2-8C5E1861E7CE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -19213,7 +19720,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -19245,7 +19758,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -19277,7 +19796,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -19309,7 +19834,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -19341,7 +19872,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -19373,7 +19910,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="7" name="Chart 6"/>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -19405,7 +19948,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="8" name="Chart 7"/>
+        <xdr:cNvPr id="8" name="Chart 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -19437,7 +19986,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="10" name="Chart 9"/>
+        <xdr:cNvPr id="10" name="Chart 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -19469,7 +20024,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="11" name="Chart 10"/>
+        <xdr:cNvPr id="11" name="Chart 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -19751,23 +20312,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="24.5703125" customWidth="1"/>
+    <col min="1" max="1" width="24.59765625" customWidth="1"/>
     <col min="2" max="3" width="12" customWidth="1"/>
-    <col min="4" max="4" width="3.42578125" customWidth="1"/>
-    <col min="6" max="6" width="20.5703125" customWidth="1"/>
-    <col min="8" max="8" width="2.85546875" customWidth="1"/>
+    <col min="4" max="4" width="3.3984375" customWidth="1"/>
+    <col min="6" max="6" width="20.59765625" customWidth="1"/>
+    <col min="8" max="8" width="2.86328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1" s="50" t="s">
         <v>7</v>
       </c>
@@ -19780,7 +20341,7 @@
       <c r="G1" s="50"/>
       <c r="H1" s="50"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" s="4" t="s">
         <v>8</v>
       </c>
@@ -19801,7 +20362,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -19824,7 +20385,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4" s="4" t="s">
         <v>11</v>
       </c>
@@ -19847,7 +20408,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -19861,7 +20422,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="C6" s="18" t="s">
         <v>57</v>
       </c>
@@ -19877,25 +20438,25 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AB126"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="25.5703125" customWidth="1"/>
-    <col min="2" max="3" width="12.28515625" customWidth="1"/>
-    <col min="4" max="4" width="3.5703125" customWidth="1"/>
-    <col min="6" max="6" width="27.85546875" customWidth="1"/>
-    <col min="7" max="18" width="9.7109375" customWidth="1"/>
-    <col min="19" max="19" width="4.85546875" customWidth="1"/>
-    <col min="20" max="27" width="7.42578125" customWidth="1"/>
+    <col min="1" max="1" width="25.59765625" customWidth="1"/>
+    <col min="2" max="3" width="12.265625" customWidth="1"/>
+    <col min="4" max="4" width="3.59765625" customWidth="1"/>
+    <col min="6" max="6" width="27.86328125" customWidth="1"/>
+    <col min="7" max="18" width="9.73046875" customWidth="1"/>
+    <col min="19" max="19" width="4.86328125" customWidth="1"/>
+    <col min="20" max="27" width="7.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A1" s="50" t="s">
         <v>117</v>
       </c>
@@ -19922,7 +20483,7 @@
       <c r="U1" s="52"/>
       <c r="V1" s="52"/>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A2" s="4" t="s">
         <v>8</v>
       </c>
@@ -19977,7 +20538,7 @@
       <c r="U2" s="22"/>
       <c r="V2" s="22"/>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -20043,7 +20604,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A4" s="4" t="s">
         <v>12</v>
       </c>
@@ -20109,7 +20670,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.45">
       <c r="C5" s="18" t="s">
         <v>57</v>
       </c>
@@ -20141,7 +20702,7 @@
       <c r="U5" s="22"/>
       <c r="V5" s="22"/>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.45">
       <c r="F6" s="4" t="s">
         <v>59</v>
       </c>
@@ -20173,7 +20734,7 @@
       <c r="U6" s="10"/>
       <c r="V6" s="10"/>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A7" s="50" t="s">
         <v>118</v>
       </c>
@@ -20211,7 +20772,7 @@
       <c r="U7" s="8"/>
       <c r="V7" s="8"/>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A8" s="4" t="s">
         <v>8</v>
       </c>
@@ -20253,7 +20814,7 @@
       <c r="U8" s="10"/>
       <c r="V8" s="10"/>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -20280,7 +20841,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="9"/>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A10" s="4" t="s">
         <v>12</v>
       </c>
@@ -20313,7 +20874,7 @@
       <c r="U10" s="52"/>
       <c r="V10" s="52"/>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.45">
       <c r="C11" s="18" t="s">
         <v>57</v>
       </c>
@@ -20361,7 +20922,7 @@
       <c r="U11" s="22"/>
       <c r="V11" s="22"/>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.45">
       <c r="F12" s="4" t="s">
         <v>53</v>
       </c>
@@ -20415,7 +20976,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.45">
       <c r="F13" s="38" t="s">
         <v>52</v>
       </c>
@@ -20469,7 +21030,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.45">
       <c r="F14" s="22" t="s">
         <v>68</v>
       </c>
@@ -20498,7 +21059,7 @@
       <c r="U14" s="22"/>
       <c r="V14" s="22"/>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.45">
       <c r="F15" s="4" t="s">
         <v>59</v>
       </c>
@@ -20530,7 +21091,7 @@
       <c r="U15" s="10"/>
       <c r="V15" s="10"/>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.45">
       <c r="F16" s="33" t="s">
         <v>60</v>
       </c>
@@ -20562,7 +21123,7 @@
       <c r="U16" s="8"/>
       <c r="V16" s="8"/>
     </row>
-    <row r="17" spans="6:22" x14ac:dyDescent="0.25">
+    <row r="17" spans="6:22" x14ac:dyDescent="0.45">
       <c r="F17" s="4" t="s">
         <v>61</v>
       </c>
@@ -20594,7 +21155,7 @@
       <c r="U17" s="10"/>
       <c r="V17" s="10"/>
     </row>
-    <row r="18" spans="6:22" x14ac:dyDescent="0.25">
+    <row r="18" spans="6:22" x14ac:dyDescent="0.45">
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
@@ -20609,7 +21170,7 @@
       <c r="R18" s="2"/>
       <c r="S18" s="9"/>
     </row>
-    <row r="19" spans="6:22" x14ac:dyDescent="0.25">
+    <row r="19" spans="6:22" x14ac:dyDescent="0.45">
       <c r="F19" s="52" t="s">
         <v>44</v>
       </c>
@@ -20630,7 +21191,7 @@
       <c r="U19" s="52"/>
       <c r="V19" s="52"/>
     </row>
-    <row r="20" spans="6:22" x14ac:dyDescent="0.25">
+    <row r="20" spans="6:22" x14ac:dyDescent="0.45">
       <c r="F20" s="22"/>
       <c r="G20" s="22">
         <v>0</v>
@@ -20675,7 +21236,7 @@
       <c r="U20" s="22"/>
       <c r="V20" s="22"/>
     </row>
-    <row r="21" spans="6:22" x14ac:dyDescent="0.25">
+    <row r="21" spans="6:22" x14ac:dyDescent="0.45">
       <c r="F21" s="4" t="s">
         <v>53</v>
       </c>
@@ -20729,7 +21290,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="6:22" x14ac:dyDescent="0.25">
+    <row r="22" spans="6:22" x14ac:dyDescent="0.45">
       <c r="F22" s="38" t="s">
         <v>40</v>
       </c>
@@ -20783,7 +21344,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="23" spans="6:22" x14ac:dyDescent="0.25">
+    <row r="23" spans="6:22" x14ac:dyDescent="0.45">
       <c r="F23" s="22" t="s">
         <v>68</v>
       </c>
@@ -20812,7 +21373,7 @@
       <c r="U23" s="22"/>
       <c r="V23" s="22"/>
     </row>
-    <row r="24" spans="6:22" x14ac:dyDescent="0.25">
+    <row r="24" spans="6:22" x14ac:dyDescent="0.45">
       <c r="F24" s="4" t="s">
         <v>59</v>
       </c>
@@ -20844,7 +21405,7 @@
       <c r="U24" s="10"/>
       <c r="V24" s="10"/>
     </row>
-    <row r="25" spans="6:22" x14ac:dyDescent="0.25">
+    <row r="25" spans="6:22" x14ac:dyDescent="0.45">
       <c r="F25" s="33" t="s">
         <v>60</v>
       </c>
@@ -20876,7 +21437,7 @@
       <c r="U25" s="8"/>
       <c r="V25" s="8"/>
     </row>
-    <row r="26" spans="6:22" x14ac:dyDescent="0.25">
+    <row r="26" spans="6:22" x14ac:dyDescent="0.45">
       <c r="F26" s="4" t="s">
         <v>61</v>
       </c>
@@ -20908,7 +21469,7 @@
       <c r="U26" s="10"/>
       <c r="V26" s="10"/>
     </row>
-    <row r="27" spans="6:22" x14ac:dyDescent="0.25">
+    <row r="27" spans="6:22" x14ac:dyDescent="0.45">
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
@@ -20923,7 +21484,7 @@
       <c r="R27" s="2"/>
       <c r="S27" s="9"/>
     </row>
-    <row r="28" spans="6:22" x14ac:dyDescent="0.25">
+    <row r="28" spans="6:22" x14ac:dyDescent="0.45">
       <c r="F28" s="52" t="s">
         <v>45</v>
       </c>
@@ -20944,7 +21505,7 @@
       <c r="U28" s="52"/>
       <c r="V28" s="52"/>
     </row>
-    <row r="29" spans="6:22" x14ac:dyDescent="0.25">
+    <row r="29" spans="6:22" x14ac:dyDescent="0.45">
       <c r="F29" s="22"/>
       <c r="G29" s="22">
         <v>0</v>
@@ -20989,7 +21550,7 @@
       <c r="U29" s="22"/>
       <c r="V29" s="22"/>
     </row>
-    <row r="30" spans="6:22" x14ac:dyDescent="0.25">
+    <row r="30" spans="6:22" x14ac:dyDescent="0.45">
       <c r="F30" s="4" t="s">
         <v>53</v>
       </c>
@@ -21043,7 +21604,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="6:22" x14ac:dyDescent="0.25">
+    <row r="31" spans="6:22" x14ac:dyDescent="0.45">
       <c r="F31" s="38" t="s">
         <v>52</v>
       </c>
@@ -21097,7 +21658,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="32" spans="6:22" x14ac:dyDescent="0.25">
+    <row r="32" spans="6:22" x14ac:dyDescent="0.45">
       <c r="F32" s="22" t="s">
         <v>68</v>
       </c>
@@ -21126,7 +21687,7 @@
       <c r="U32" s="22"/>
       <c r="V32" s="22"/>
     </row>
-    <row r="33" spans="6:22" x14ac:dyDescent="0.25">
+    <row r="33" spans="6:22" x14ac:dyDescent="0.45">
       <c r="F33" s="4" t="s">
         <v>59</v>
       </c>
@@ -21158,7 +21719,7 @@
       <c r="U33" s="10"/>
       <c r="V33" s="10"/>
     </row>
-    <row r="34" spans="6:22" x14ac:dyDescent="0.25">
+    <row r="34" spans="6:22" x14ac:dyDescent="0.45">
       <c r="F34" s="33" t="s">
         <v>60</v>
       </c>
@@ -21190,7 +21751,7 @@
       <c r="U34" s="8"/>
       <c r="V34" s="8"/>
     </row>
-    <row r="35" spans="6:22" x14ac:dyDescent="0.25">
+    <row r="35" spans="6:22" x14ac:dyDescent="0.45">
       <c r="F35" s="4" t="s">
         <v>61</v>
       </c>
@@ -21222,7 +21783,7 @@
       <c r="U35" s="10"/>
       <c r="V35" s="10"/>
     </row>
-    <row r="36" spans="6:22" x14ac:dyDescent="0.25">
+    <row r="36" spans="6:22" x14ac:dyDescent="0.45">
       <c r="G36" s="2"/>
       <c r="H36" s="2"/>
       <c r="I36" s="2"/>
@@ -21237,7 +21798,7 @@
       <c r="R36" s="2"/>
       <c r="S36" s="9"/>
     </row>
-    <row r="37" spans="6:22" x14ac:dyDescent="0.25">
+    <row r="37" spans="6:22" x14ac:dyDescent="0.45">
       <c r="F37" s="52" t="s">
         <v>46</v>
       </c>
@@ -21258,7 +21819,7 @@
       <c r="U37" s="52"/>
       <c r="V37" s="52"/>
     </row>
-    <row r="38" spans="6:22" x14ac:dyDescent="0.25">
+    <row r="38" spans="6:22" x14ac:dyDescent="0.45">
       <c r="F38" s="22"/>
       <c r="G38" s="22">
         <v>0</v>
@@ -21303,7 +21864,7 @@
       <c r="U38" s="22"/>
       <c r="V38" s="22"/>
     </row>
-    <row r="39" spans="6:22" x14ac:dyDescent="0.25">
+    <row r="39" spans="6:22" x14ac:dyDescent="0.45">
       <c r="F39" s="27" t="s">
         <v>52</v>
       </c>
@@ -21357,7 +21918,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="40" spans="6:22" x14ac:dyDescent="0.25">
+    <row r="40" spans="6:22" x14ac:dyDescent="0.45">
       <c r="F40" s="22" t="s">
         <v>68</v>
       </c>
@@ -21386,7 +21947,7 @@
       <c r="U40" s="22"/>
       <c r="V40" s="22"/>
     </row>
-    <row r="41" spans="6:22" x14ac:dyDescent="0.25">
+    <row r="41" spans="6:22" x14ac:dyDescent="0.45">
       <c r="F41" s="4" t="s">
         <v>59</v>
       </c>
@@ -21418,7 +21979,7 @@
       <c r="U41" s="10"/>
       <c r="V41" s="10"/>
     </row>
-    <row r="42" spans="6:22" x14ac:dyDescent="0.25">
+    <row r="42" spans="6:22" x14ac:dyDescent="0.45">
       <c r="F42" s="33" t="s">
         <v>60</v>
       </c>
@@ -21450,7 +22011,7 @@
       <c r="U42" s="8"/>
       <c r="V42" s="8"/>
     </row>
-    <row r="43" spans="6:22" x14ac:dyDescent="0.25">
+    <row r="43" spans="6:22" x14ac:dyDescent="0.45">
       <c r="F43" s="4" t="s">
         <v>61</v>
       </c>
@@ -21482,7 +22043,7 @@
       <c r="U43" s="10"/>
       <c r="V43" s="10"/>
     </row>
-    <row r="44" spans="6:22" x14ac:dyDescent="0.25">
+    <row r="44" spans="6:22" x14ac:dyDescent="0.45">
       <c r="G44" s="2"/>
       <c r="H44" s="2"/>
       <c r="I44" s="2"/>
@@ -21497,7 +22058,7 @@
       <c r="R44" s="2"/>
       <c r="S44" s="9"/>
     </row>
-    <row r="45" spans="6:22" x14ac:dyDescent="0.25">
+    <row r="45" spans="6:22" x14ac:dyDescent="0.45">
       <c r="F45" s="52" t="s">
         <v>47</v>
       </c>
@@ -21518,7 +22079,7 @@
       <c r="U45" s="52"/>
       <c r="V45" s="52"/>
     </row>
-    <row r="46" spans="6:22" x14ac:dyDescent="0.25">
+    <row r="46" spans="6:22" x14ac:dyDescent="0.45">
       <c r="F46" s="22"/>
       <c r="G46" s="22">
         <v>0</v>
@@ -21563,7 +22124,7 @@
       <c r="U46" s="22"/>
       <c r="V46" s="22"/>
     </row>
-    <row r="47" spans="6:22" x14ac:dyDescent="0.25">
+    <row r="47" spans="6:22" x14ac:dyDescent="0.45">
       <c r="F47" s="27" t="s">
         <v>52</v>
       </c>
@@ -21617,7 +22178,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="48" spans="6:22" x14ac:dyDescent="0.25">
+    <row r="48" spans="6:22" x14ac:dyDescent="0.45">
       <c r="F48" s="22" t="s">
         <v>68</v>
       </c>
@@ -21646,7 +22207,7 @@
       <c r="U48" s="22"/>
       <c r="V48" s="22"/>
     </row>
-    <row r="49" spans="6:22" x14ac:dyDescent="0.25">
+    <row r="49" spans="6:22" x14ac:dyDescent="0.45">
       <c r="F49" s="4" t="s">
         <v>59</v>
       </c>
@@ -21678,7 +22239,7 @@
       <c r="U49" s="10"/>
       <c r="V49" s="10"/>
     </row>
-    <row r="50" spans="6:22" x14ac:dyDescent="0.25">
+    <row r="50" spans="6:22" x14ac:dyDescent="0.45">
       <c r="F50" s="33" t="s">
         <v>60</v>
       </c>
@@ -21710,7 +22271,7 @@
       <c r="U50" s="8"/>
       <c r="V50" s="8"/>
     </row>
-    <row r="51" spans="6:22" x14ac:dyDescent="0.25">
+    <row r="51" spans="6:22" x14ac:dyDescent="0.45">
       <c r="F51" s="4" t="s">
         <v>61</v>
       </c>
@@ -21742,7 +22303,7 @@
       <c r="U51" s="10"/>
       <c r="V51" s="10"/>
     </row>
-    <row r="52" spans="6:22" x14ac:dyDescent="0.25">
+    <row r="52" spans="6:22" x14ac:dyDescent="0.45">
       <c r="G52" s="2"/>
       <c r="H52" s="2"/>
       <c r="I52" s="2"/>
@@ -21757,7 +22318,7 @@
       <c r="R52" s="2"/>
       <c r="S52" s="9"/>
     </row>
-    <row r="53" spans="6:22" x14ac:dyDescent="0.25">
+    <row r="53" spans="6:22" x14ac:dyDescent="0.45">
       <c r="F53" s="52" t="s">
         <v>48</v>
       </c>
@@ -21778,7 +22339,7 @@
       <c r="U53" s="52"/>
       <c r="V53" s="52"/>
     </row>
-    <row r="54" spans="6:22" x14ac:dyDescent="0.25">
+    <row r="54" spans="6:22" x14ac:dyDescent="0.45">
       <c r="F54" s="22"/>
       <c r="G54" s="22">
         <v>0</v>
@@ -21823,7 +22384,7 @@
       <c r="U54" s="22"/>
       <c r="V54" s="22"/>
     </row>
-    <row r="55" spans="6:22" x14ac:dyDescent="0.25">
+    <row r="55" spans="6:22" x14ac:dyDescent="0.45">
       <c r="F55" s="38" t="s">
         <v>52</v>
       </c>
@@ -21877,7 +22438,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="56" spans="6:22" x14ac:dyDescent="0.25">
+    <row r="56" spans="6:22" x14ac:dyDescent="0.45">
       <c r="F56" s="22" t="s">
         <v>68</v>
       </c>
@@ -21906,7 +22467,7 @@
       <c r="U56" s="22"/>
       <c r="V56" s="22"/>
     </row>
-    <row r="57" spans="6:22" x14ac:dyDescent="0.25">
+    <row r="57" spans="6:22" x14ac:dyDescent="0.45">
       <c r="F57" s="4" t="s">
         <v>59</v>
       </c>
@@ -21938,7 +22499,7 @@
       <c r="U57" s="10"/>
       <c r="V57" s="10"/>
     </row>
-    <row r="58" spans="6:22" x14ac:dyDescent="0.25">
+    <row r="58" spans="6:22" x14ac:dyDescent="0.45">
       <c r="F58" s="33" t="s">
         <v>60</v>
       </c>
@@ -21970,7 +22531,7 @@
       <c r="U58" s="8"/>
       <c r="V58" s="8"/>
     </row>
-    <row r="59" spans="6:22" x14ac:dyDescent="0.25">
+    <row r="59" spans="6:22" x14ac:dyDescent="0.45">
       <c r="F59" s="4" t="s">
         <v>61</v>
       </c>
@@ -22002,7 +22563,7 @@
       <c r="U59" s="10"/>
       <c r="V59" s="10"/>
     </row>
-    <row r="60" spans="6:22" x14ac:dyDescent="0.25">
+    <row r="60" spans="6:22" x14ac:dyDescent="0.45">
       <c r="G60" s="2"/>
       <c r="H60" s="2"/>
       <c r="I60" s="2"/>
@@ -22017,7 +22578,7 @@
       <c r="R60" s="2"/>
       <c r="S60" s="9"/>
     </row>
-    <row r="61" spans="6:22" x14ac:dyDescent="0.25">
+    <row r="61" spans="6:22" x14ac:dyDescent="0.45">
       <c r="G61" s="2"/>
       <c r="H61" s="2"/>
       <c r="I61" s="2"/>
@@ -22032,7 +22593,7 @@
       <c r="R61" s="2"/>
       <c r="S61" s="9"/>
     </row>
-    <row r="62" spans="6:22" x14ac:dyDescent="0.25">
+    <row r="62" spans="6:22" x14ac:dyDescent="0.45">
       <c r="F62" s="52" t="s">
         <v>49</v>
       </c>
@@ -22053,7 +22614,7 @@
       <c r="U62" s="52"/>
       <c r="V62" s="52"/>
     </row>
-    <row r="63" spans="6:22" x14ac:dyDescent="0.25">
+    <row r="63" spans="6:22" x14ac:dyDescent="0.45">
       <c r="F63" s="22"/>
       <c r="G63" s="22">
         <v>0</v>
@@ -22098,7 +22659,7 @@
       <c r="U63" s="22"/>
       <c r="V63" s="22"/>
     </row>
-    <row r="64" spans="6:22" x14ac:dyDescent="0.25">
+    <row r="64" spans="6:22" x14ac:dyDescent="0.45">
       <c r="F64" s="27" t="s">
         <v>52</v>
       </c>
@@ -22152,7 +22713,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="65" spans="6:22" x14ac:dyDescent="0.25">
+    <row r="65" spans="6:22" x14ac:dyDescent="0.45">
       <c r="F65" s="22" t="s">
         <v>68</v>
       </c>
@@ -22181,7 +22742,7 @@
       <c r="U65" s="22"/>
       <c r="V65" s="22"/>
     </row>
-    <row r="66" spans="6:22" x14ac:dyDescent="0.25">
+    <row r="66" spans="6:22" x14ac:dyDescent="0.45">
       <c r="F66" s="4" t="s">
         <v>59</v>
       </c>
@@ -22213,7 +22774,7 @@
       <c r="U66" s="10"/>
       <c r="V66" s="10"/>
     </row>
-    <row r="67" spans="6:22" x14ac:dyDescent="0.25">
+    <row r="67" spans="6:22" x14ac:dyDescent="0.45">
       <c r="F67" s="33" t="s">
         <v>60</v>
       </c>
@@ -22245,7 +22806,7 @@
       <c r="U67" s="8"/>
       <c r="V67" s="8"/>
     </row>
-    <row r="68" spans="6:22" x14ac:dyDescent="0.25">
+    <row r="68" spans="6:22" x14ac:dyDescent="0.45">
       <c r="F68" s="4" t="s">
         <v>61</v>
       </c>
@@ -22277,7 +22838,7 @@
       <c r="U68" s="10"/>
       <c r="V68" s="10"/>
     </row>
-    <row r="72" spans="6:22" x14ac:dyDescent="0.25">
+    <row r="72" spans="6:22" x14ac:dyDescent="0.45">
       <c r="M72" t="s">
         <v>81</v>
       </c>
@@ -22285,7 +22846,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="73" spans="6:22" x14ac:dyDescent="0.25">
+    <row r="73" spans="6:22" x14ac:dyDescent="0.45">
       <c r="M73" t="s">
         <v>82</v>
       </c>
@@ -22293,7 +22854,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="74" spans="6:22" x14ac:dyDescent="0.25">
+    <row r="74" spans="6:22" x14ac:dyDescent="0.45">
       <c r="M74" t="s">
         <v>83</v>
       </c>
@@ -22301,50 +22862,44 @@
         <v>85</v>
       </c>
     </row>
-    <row r="76" spans="6:22" x14ac:dyDescent="0.25">
+    <row r="76" spans="6:22" x14ac:dyDescent="0.45">
       <c r="Q76" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="77" spans="6:22" x14ac:dyDescent="0.25">
+    <row r="77" spans="6:22" x14ac:dyDescent="0.45">
       <c r="Q77" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="78" spans="6:22" x14ac:dyDescent="0.25">
+    <row r="78" spans="6:22" x14ac:dyDescent="0.45">
       <c r="Q78" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="114" spans="28:28" x14ac:dyDescent="0.25">
+    <row r="114" spans="28:28" x14ac:dyDescent="0.45">
       <c r="AB114" s="3"/>
     </row>
-    <row r="116" spans="28:28" x14ac:dyDescent="0.25">
+    <row r="116" spans="28:28" x14ac:dyDescent="0.45">
       <c r="AB116" s="3"/>
     </row>
-    <row r="118" spans="28:28" x14ac:dyDescent="0.25">
+    <row r="118" spans="28:28" x14ac:dyDescent="0.45">
       <c r="AB118" s="3"/>
     </row>
-    <row r="120" spans="28:28" x14ac:dyDescent="0.25">
+    <row r="120" spans="28:28" x14ac:dyDescent="0.45">
       <c r="AB120" s="3"/>
     </row>
-    <row r="122" spans="28:28" x14ac:dyDescent="0.25">
+    <row r="122" spans="28:28" x14ac:dyDescent="0.45">
       <c r="AB122" s="3"/>
     </row>
-    <row r="124" spans="28:28" x14ac:dyDescent="0.25">
+    <row r="124" spans="28:28" x14ac:dyDescent="0.45">
       <c r="AB124" s="3"/>
     </row>
-    <row r="126" spans="28:28" x14ac:dyDescent="0.25">
+    <row r="126" spans="28:28" x14ac:dyDescent="0.45">
       <c r="AB126" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="F1:V1"/>
-    <mergeCell ref="J65:K65"/>
-    <mergeCell ref="J56:K56"/>
-    <mergeCell ref="J48:K48"/>
-    <mergeCell ref="J40:K40"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A7:D7"/>
     <mergeCell ref="F19:V19"/>
@@ -22357,6 +22912,12 @@
     <mergeCell ref="J32:K32"/>
     <mergeCell ref="J23:K23"/>
     <mergeCell ref="J14:K14"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="F1:V1"/>
+    <mergeCell ref="J65:K65"/>
+    <mergeCell ref="J56:K56"/>
+    <mergeCell ref="J48:K48"/>
+    <mergeCell ref="J40:K40"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -22365,26 +22926,26 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AM121"/>
   <sheetViews>
-    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView topLeftCell="A43" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="AC39" sqref="AC39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="2" max="2" width="12" customWidth="1"/>
-    <col min="3" max="4" width="12.42578125" customWidth="1"/>
-    <col min="5" max="5" width="3.85546875" customWidth="1"/>
-    <col min="6" max="11" width="12.5703125" customWidth="1"/>
+    <col min="3" max="4" width="12.3984375" customWidth="1"/>
+    <col min="5" max="5" width="3.86328125" customWidth="1"/>
+    <col min="6" max="11" width="12.59765625" customWidth="1"/>
     <col min="12" max="12" width="29" customWidth="1"/>
-    <col min="13" max="24" width="9.28515625" customWidth="1"/>
-    <col min="25" max="25" width="4.85546875" customWidth="1"/>
-    <col min="26" max="33" width="11.28515625" customWidth="1"/>
+    <col min="13" max="24" width="9.265625" customWidth="1"/>
+    <col min="25" max="25" width="4.86328125" customWidth="1"/>
+    <col min="26" max="33" width="11.265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A1" s="50" t="s">
         <v>20</v>
       </c>
@@ -22409,11 +22970,11 @@
       <c r="X1" s="52"/>
       <c r="Y1" s="52"/>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A2" s="56" t="s">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A2" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="56"/>
+      <c r="B2" s="53"/>
       <c r="C2" s="4">
         <v>16760</v>
       </c>
@@ -22462,11 +23023,11 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A3" s="57" t="s">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A3" s="54" t="s">
         <v>54</v>
       </c>
-      <c r="B3" s="57"/>
+      <c r="B3" s="54"/>
       <c r="C3">
         <v>1410</v>
       </c>
@@ -22519,7 +23080,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.45">
       <c r="D4" s="18" t="s">
         <v>57</v>
       </c>
@@ -22567,7 +23128,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.45">
       <c r="E5" s="9"/>
       <c r="L5" s="22" t="s">
         <v>68</v>
@@ -22594,7 +23155,7 @@
       <c r="X5" s="22"/>
       <c r="Y5" s="22"/>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A6" s="50" t="s">
         <v>19</v>
       </c>
@@ -22630,11 +23191,11 @@
       <c r="X6" s="4"/>
       <c r="Y6" s="10"/>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A7" s="56" t="s">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A7" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="56"/>
+      <c r="B7" s="53"/>
       <c r="C7" s="4">
         <v>1950</v>
       </c>
@@ -22663,11 +23224,11 @@
       </c>
       <c r="Y7" s="9"/>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A8" s="57" t="s">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A8" s="54" t="s">
         <v>54</v>
       </c>
-      <c r="B8" s="57"/>
+      <c r="B8" s="54"/>
       <c r="C8">
         <v>2170</v>
       </c>
@@ -22705,7 +23266,7 @@
       <c r="X8" s="4"/>
       <c r="Y8" s="10"/>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.45">
       <c r="D9" s="18" t="s">
         <v>57</v>
       </c>
@@ -22735,7 +23296,7 @@
       <c r="X9" s="22"/>
       <c r="Y9" s="23"/>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.45">
       <c r="E10" s="9"/>
       <c r="L10" s="4" t="s">
         <v>59</v>
@@ -22772,7 +23333,7 @@
       <c r="X10" s="4"/>
       <c r="Y10" s="10"/>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A11" s="50" t="s">
         <v>18</v>
       </c>
@@ -22811,8 +23372,8 @@
       </c>
       <c r="Y11" s="9"/>
     </row>
-    <row r="12" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="53" t="s">
+    <row r="12" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="55" t="s">
         <v>104</v>
       </c>
       <c r="B12" s="4" t="s">
@@ -22860,8 +23421,8 @@
       <c r="X12" s="4"/>
       <c r="Y12" s="10"/>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A13" s="54"/>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A13" s="56"/>
       <c r="B13" s="44" t="s">
         <v>54</v>
       </c>
@@ -22875,8 +23436,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="53" t="s">
+    <row r="14" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A14" s="55" t="s">
         <v>105</v>
       </c>
       <c r="B14" s="4" t="s">
@@ -22906,8 +23467,8 @@
       <c r="X14" s="52"/>
       <c r="Y14" s="52"/>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A15" s="54"/>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A15" s="56"/>
       <c r="B15" s="44" t="s">
         <v>54</v>
       </c>
@@ -22961,8 +23522,8 @@
         <v>51</v>
       </c>
     </row>
-    <row r="16" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="55" t="s">
+    <row r="16" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A16" s="57" t="s">
         <v>106</v>
       </c>
       <c r="B16" s="4" t="s">
@@ -23018,8 +23579,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A17" s="55"/>
+    <row r="17" spans="1:39" x14ac:dyDescent="0.45">
+      <c r="A17" s="57"/>
       <c r="B17" s="7" t="s">
         <v>54</v>
       </c>
@@ -23057,7 +23618,7 @@
       <c r="X17" s="22"/>
       <c r="Y17" s="22"/>
     </row>
-    <row r="18" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:39" x14ac:dyDescent="0.45">
       <c r="D18" t="s">
         <v>57</v>
       </c>
@@ -23090,7 +23651,7 @@
       <c r="X18" s="4"/>
       <c r="Y18" s="10"/>
     </row>
-    <row r="19" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:39" x14ac:dyDescent="0.45">
       <c r="E19" s="9"/>
       <c r="L19" t="s">
         <v>60</v>
@@ -23113,7 +23674,7 @@
       </c>
       <c r="Y19" s="9"/>
     </row>
-    <row r="20" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:39" x14ac:dyDescent="0.45">
       <c r="A20" s="50" t="s">
         <v>14</v>
       </c>
@@ -23149,8 +23710,8 @@
       <c r="X20" s="4"/>
       <c r="Y20" s="10"/>
     </row>
-    <row r="21" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="53" t="s">
+    <row r="21" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A21" s="55" t="s">
         <v>104</v>
       </c>
       <c r="B21" s="4" t="s">
@@ -23188,8 +23749,8 @@
       <c r="X21" s="22"/>
       <c r="Y21" s="23"/>
     </row>
-    <row r="22" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A22" s="54"/>
+    <row r="22" spans="1:39" x14ac:dyDescent="0.45">
+      <c r="A22" s="56"/>
       <c r="B22" s="44" t="s">
         <v>54</v>
       </c>
@@ -23237,8 +23798,8 @@
       <c r="X22" s="4"/>
       <c r="Y22" s="10"/>
     </row>
-    <row r="23" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="53" t="s">
+    <row r="23" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A23" s="55" t="s">
         <v>105</v>
       </c>
       <c r="B23" s="4" t="s">
@@ -23285,8 +23846,8 @@
         <v>94</v>
       </c>
     </row>
-    <row r="24" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A24" s="54"/>
+    <row r="24" spans="1:39" x14ac:dyDescent="0.45">
+      <c r="A24" s="56"/>
       <c r="B24" s="44" t="s">
         <v>54</v>
       </c>
@@ -23337,8 +23898,8 @@
         <v>95</v>
       </c>
     </row>
-    <row r="25" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="55" t="s">
+    <row r="25" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A25" s="57" t="s">
         <v>106</v>
       </c>
       <c r="B25" s="4" t="s">
@@ -23369,8 +23930,8 @@
         <v>96</v>
       </c>
     </row>
-    <row r="26" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A26" s="55"/>
+    <row r="26" spans="1:39" x14ac:dyDescent="0.45">
+      <c r="A26" s="57"/>
       <c r="B26" s="7" t="s">
         <v>54</v>
       </c>
@@ -23400,7 +23961,7 @@
       <c r="X26" s="52"/>
       <c r="Y26" s="52"/>
     </row>
-    <row r="27" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:39" x14ac:dyDescent="0.45">
       <c r="D27" s="18" t="s">
         <v>57</v>
       </c>
@@ -23446,7 +24007,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="28" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:39" x14ac:dyDescent="0.45">
       <c r="L28" s="4" t="s">
         <v>53</v>
       </c>
@@ -23493,13 +24054,16 @@
         <v>97</v>
       </c>
     </row>
-    <row r="29" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:39" x14ac:dyDescent="0.45">
       <c r="A29" s="44" t="s">
         <v>113</v>
       </c>
       <c r="C29" t="s">
         <v>104</v>
       </c>
+      <c r="F29" t="s">
+        <v>56</v>
+      </c>
       <c r="L29" s="19" t="s">
         <v>52</v>
       </c>
@@ -23546,12 +24110,15 @@
         <v>98</v>
       </c>
     </row>
-    <row r="30" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:39" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>116</v>
       </c>
       <c r="C30" t="s">
         <v>105</v>
+      </c>
+      <c r="F30" t="s">
+        <v>8</v>
       </c>
       <c r="L30" s="22" t="s">
         <v>68</v>
@@ -23581,7 +24148,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="31" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:39" x14ac:dyDescent="0.45">
       <c r="A31" s="44" t="s">
         <v>114</v>
       </c>
@@ -23616,7 +24183,7 @@
       <c r="X31" s="4"/>
       <c r="Y31" s="10"/>
     </row>
-    <row r="32" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:39" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
         <v>115</v>
       </c>
@@ -23641,7 +24208,7 @@
       </c>
       <c r="Y32" s="9"/>
     </row>
-    <row r="33" spans="12:25" x14ac:dyDescent="0.25">
+    <row r="33" spans="12:25" x14ac:dyDescent="0.45">
       <c r="L33" s="4" t="s">
         <v>61</v>
       </c>
@@ -23670,7 +24237,7 @@
       <c r="X33" s="4"/>
       <c r="Y33" s="10"/>
     </row>
-    <row r="34" spans="12:25" x14ac:dyDescent="0.25">
+    <row r="34" spans="12:25" x14ac:dyDescent="0.45">
       <c r="L34" s="22" t="s">
         <v>67</v>
       </c>
@@ -23690,7 +24257,7 @@
       <c r="X34" s="22"/>
       <c r="Y34" s="22"/>
     </row>
-    <row r="35" spans="12:25" x14ac:dyDescent="0.25">
+    <row r="35" spans="12:25" x14ac:dyDescent="0.45">
       <c r="L35" s="4" t="s">
         <v>59</v>
       </c>
@@ -23712,7 +24279,7 @@
       <c r="X35" s="4"/>
       <c r="Y35" s="10"/>
     </row>
-    <row r="36" spans="12:25" x14ac:dyDescent="0.25">
+    <row r="36" spans="12:25" x14ac:dyDescent="0.45">
       <c r="L36" t="s">
         <v>60</v>
       </c>
@@ -23724,7 +24291,7 @@
       </c>
       <c r="Y36" s="9"/>
     </row>
-    <row r="37" spans="12:25" x14ac:dyDescent="0.25">
+    <row r="37" spans="12:25" x14ac:dyDescent="0.45">
       <c r="L37" s="4" t="s">
         <v>61</v>
       </c>
@@ -23746,10 +24313,10 @@
       <c r="X37" s="4"/>
       <c r="Y37" s="10"/>
     </row>
-    <row r="38" spans="12:25" x14ac:dyDescent="0.25">
+    <row r="38" spans="12:25" x14ac:dyDescent="0.45">
       <c r="Y38" s="9"/>
     </row>
-    <row r="39" spans="12:25" x14ac:dyDescent="0.25">
+    <row r="39" spans="12:25" x14ac:dyDescent="0.45">
       <c r="L39" s="52" t="s">
         <v>74</v>
       </c>
@@ -23767,7 +24334,7 @@
       <c r="X39" s="52"/>
       <c r="Y39" s="52"/>
     </row>
-    <row r="40" spans="12:25" x14ac:dyDescent="0.25">
+    <row r="40" spans="12:25" x14ac:dyDescent="0.45">
       <c r="L40" s="22"/>
       <c r="M40" s="22">
         <v>0</v>
@@ -23809,7 +24376,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="41" spans="12:25" x14ac:dyDescent="0.25">
+    <row r="41" spans="12:25" x14ac:dyDescent="0.45">
       <c r="L41" s="27" t="s">
         <v>40</v>
       </c>
@@ -23853,7 +24420,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="42" spans="12:25" x14ac:dyDescent="0.25">
+    <row r="42" spans="12:25" x14ac:dyDescent="0.45">
       <c r="L42" s="22" t="s">
         <v>68</v>
       </c>
@@ -23879,7 +24446,7 @@
       <c r="X42" s="22"/>
       <c r="Y42" s="22"/>
     </row>
-    <row r="43" spans="12:25" x14ac:dyDescent="0.25">
+    <row r="43" spans="12:25" x14ac:dyDescent="0.45">
       <c r="L43" s="4" t="s">
         <v>59</v>
       </c>
@@ -23908,7 +24475,7 @@
       <c r="X43" s="4"/>
       <c r="Y43" s="10"/>
     </row>
-    <row r="44" spans="12:25" x14ac:dyDescent="0.25">
+    <row r="44" spans="12:25" x14ac:dyDescent="0.45">
       <c r="L44" t="s">
         <v>60</v>
       </c>
@@ -23930,7 +24497,7 @@
       </c>
       <c r="Y44" s="9"/>
     </row>
-    <row r="45" spans="12:25" x14ac:dyDescent="0.25">
+    <row r="45" spans="12:25" x14ac:dyDescent="0.45">
       <c r="L45" s="4" t="s">
         <v>61</v>
       </c>
@@ -23959,7 +24526,7 @@
       <c r="X45" s="4"/>
       <c r="Y45" s="10"/>
     </row>
-    <row r="46" spans="12:25" x14ac:dyDescent="0.25">
+    <row r="46" spans="12:25" x14ac:dyDescent="0.45">
       <c r="L46" s="22" t="s">
         <v>67</v>
       </c>
@@ -23979,7 +24546,7 @@
       <c r="X46" s="22"/>
       <c r="Y46" s="22"/>
     </row>
-    <row r="47" spans="12:25" x14ac:dyDescent="0.25">
+    <row r="47" spans="12:25" x14ac:dyDescent="0.45">
       <c r="L47" s="4" t="s">
         <v>59</v>
       </c>
@@ -24001,7 +24568,7 @@
       <c r="X47" s="4"/>
       <c r="Y47" s="10"/>
     </row>
-    <row r="48" spans="12:25" x14ac:dyDescent="0.25">
+    <row r="48" spans="12:25" x14ac:dyDescent="0.45">
       <c r="L48" t="s">
         <v>60</v>
       </c>
@@ -24013,7 +24580,7 @@
       </c>
       <c r="Y48" s="9"/>
     </row>
-    <row r="49" spans="12:30" x14ac:dyDescent="0.25">
+    <row r="49" spans="12:30" x14ac:dyDescent="0.45">
       <c r="L49" s="4" t="s">
         <v>61</v>
       </c>
@@ -24035,13 +24602,13 @@
       <c r="X49" s="4"/>
       <c r="Y49" s="10"/>
     </row>
-    <row r="50" spans="12:30" x14ac:dyDescent="0.25">
+    <row r="50" spans="12:30" x14ac:dyDescent="0.45">
       <c r="Y50" s="9"/>
     </row>
-    <row r="51" spans="12:30" x14ac:dyDescent="0.25">
+    <row r="51" spans="12:30" x14ac:dyDescent="0.45">
       <c r="Y51" s="9"/>
     </row>
-    <row r="52" spans="12:30" x14ac:dyDescent="0.25">
+    <row r="52" spans="12:30" x14ac:dyDescent="0.45">
       <c r="L52" s="52" t="s">
         <v>76</v>
       </c>
@@ -24059,7 +24626,7 @@
       <c r="X52" s="52"/>
       <c r="Y52" s="52"/>
     </row>
-    <row r="53" spans="12:30" x14ac:dyDescent="0.25">
+    <row r="53" spans="12:30" x14ac:dyDescent="0.45">
       <c r="L53" s="22"/>
       <c r="M53" s="22">
         <v>0</v>
@@ -24101,7 +24668,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="54" spans="12:30" x14ac:dyDescent="0.25">
+    <row r="54" spans="12:30" x14ac:dyDescent="0.45">
       <c r="L54" s="4" t="s">
         <v>53</v>
       </c>
@@ -24145,7 +24712,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="55" spans="12:30" x14ac:dyDescent="0.25">
+    <row r="55" spans="12:30" x14ac:dyDescent="0.45">
       <c r="L55" s="19" t="s">
         <v>52</v>
       </c>
@@ -24189,7 +24756,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="56" spans="12:30" x14ac:dyDescent="0.25">
+    <row r="56" spans="12:30" x14ac:dyDescent="0.45">
       <c r="L56" s="22" t="s">
         <v>68</v>
       </c>
@@ -24215,7 +24782,7 @@
       <c r="X56" s="22"/>
       <c r="Y56" s="22"/>
     </row>
-    <row r="57" spans="12:30" x14ac:dyDescent="0.25">
+    <row r="57" spans="12:30" x14ac:dyDescent="0.45">
       <c r="L57" s="4" t="s">
         <v>59</v>
       </c>
@@ -24244,7 +24811,7 @@
       <c r="X57" s="4"/>
       <c r="Y57" s="10"/>
     </row>
-    <row r="58" spans="12:30" x14ac:dyDescent="0.25">
+    <row r="58" spans="12:30" x14ac:dyDescent="0.45">
       <c r="L58" t="s">
         <v>60</v>
       </c>
@@ -24266,7 +24833,7 @@
       </c>
       <c r="Y58" s="9"/>
     </row>
-    <row r="59" spans="12:30" x14ac:dyDescent="0.25">
+    <row r="59" spans="12:30" x14ac:dyDescent="0.45">
       <c r="L59" s="4" t="s">
         <v>61</v>
       </c>
@@ -24301,7 +24868,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="60" spans="12:30" x14ac:dyDescent="0.25">
+    <row r="60" spans="12:30" x14ac:dyDescent="0.45">
       <c r="L60" s="22" t="s">
         <v>67</v>
       </c>
@@ -24327,7 +24894,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="61" spans="12:30" x14ac:dyDescent="0.25">
+    <row r="61" spans="12:30" x14ac:dyDescent="0.45">
       <c r="L61" s="4" t="s">
         <v>59</v>
       </c>
@@ -24355,7 +24922,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="62" spans="12:30" x14ac:dyDescent="0.25">
+    <row r="62" spans="12:30" x14ac:dyDescent="0.45">
       <c r="L62" t="s">
         <v>60</v>
       </c>
@@ -24370,7 +24937,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="63" spans="12:30" x14ac:dyDescent="0.25">
+    <row r="63" spans="12:30" x14ac:dyDescent="0.45">
       <c r="L63" s="4" t="s">
         <v>61</v>
       </c>
@@ -24395,13 +24962,13 @@
         <v>87</v>
       </c>
     </row>
-    <row r="64" spans="12:30" x14ac:dyDescent="0.25">
+    <row r="64" spans="12:30" x14ac:dyDescent="0.45">
       <c r="Y64" s="9"/>
       <c r="AD64" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="65" spans="12:30" x14ac:dyDescent="0.25">
+    <row r="65" spans="12:30" x14ac:dyDescent="0.45">
       <c r="L65" s="52" t="s">
         <v>77</v>
       </c>
@@ -24422,7 +24989,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="66" spans="12:30" x14ac:dyDescent="0.25">
+    <row r="66" spans="12:30" x14ac:dyDescent="0.45">
       <c r="L66" s="22"/>
       <c r="M66" s="22">
         <v>0</v>
@@ -24464,7 +25031,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="67" spans="12:30" x14ac:dyDescent="0.25">
+    <row r="67" spans="12:30" x14ac:dyDescent="0.45">
       <c r="L67" s="27" t="s">
         <v>40</v>
       </c>
@@ -24508,7 +25075,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="68" spans="12:30" x14ac:dyDescent="0.25">
+    <row r="68" spans="12:30" x14ac:dyDescent="0.45">
       <c r="L68" s="22" t="s">
         <v>68</v>
       </c>
@@ -24534,7 +25101,7 @@
       <c r="X68" s="22"/>
       <c r="Y68" s="22"/>
     </row>
-    <row r="69" spans="12:30" x14ac:dyDescent="0.25">
+    <row r="69" spans="12:30" x14ac:dyDescent="0.45">
       <c r="L69" s="4" t="s">
         <v>59</v>
       </c>
@@ -24563,7 +25130,7 @@
       <c r="X69" s="4"/>
       <c r="Y69" s="10"/>
     </row>
-    <row r="70" spans="12:30" x14ac:dyDescent="0.25">
+    <row r="70" spans="12:30" x14ac:dyDescent="0.45">
       <c r="L70" t="s">
         <v>60</v>
       </c>
@@ -24585,7 +25152,7 @@
       </c>
       <c r="Y70" s="9"/>
     </row>
-    <row r="71" spans="12:30" x14ac:dyDescent="0.25">
+    <row r="71" spans="12:30" x14ac:dyDescent="0.45">
       <c r="L71" s="4" t="s">
         <v>61</v>
       </c>
@@ -24614,7 +25181,7 @@
       <c r="X71" s="4"/>
       <c r="Y71" s="10"/>
     </row>
-    <row r="72" spans="12:30" x14ac:dyDescent="0.25">
+    <row r="72" spans="12:30" x14ac:dyDescent="0.45">
       <c r="L72" s="22" t="s">
         <v>67</v>
       </c>
@@ -24634,7 +25201,7 @@
       <c r="X72" s="22"/>
       <c r="Y72" s="22"/>
     </row>
-    <row r="73" spans="12:30" x14ac:dyDescent="0.25">
+    <row r="73" spans="12:30" x14ac:dyDescent="0.45">
       <c r="L73" s="4" t="s">
         <v>59</v>
       </c>
@@ -24656,7 +25223,7 @@
       <c r="X73" s="4"/>
       <c r="Y73" s="10"/>
     </row>
-    <row r="74" spans="12:30" x14ac:dyDescent="0.25">
+    <row r="74" spans="12:30" x14ac:dyDescent="0.45">
       <c r="L74" t="s">
         <v>60</v>
       </c>
@@ -24668,7 +25235,7 @@
       </c>
       <c r="Y74" s="9"/>
     </row>
-    <row r="75" spans="12:30" x14ac:dyDescent="0.25">
+    <row r="75" spans="12:30" x14ac:dyDescent="0.45">
       <c r="L75" s="4" t="s">
         <v>61</v>
       </c>
@@ -24690,13 +25257,13 @@
       <c r="X75" s="4"/>
       <c r="Y75" s="10"/>
     </row>
-    <row r="76" spans="12:30" x14ac:dyDescent="0.25">
+    <row r="76" spans="12:30" x14ac:dyDescent="0.45">
       <c r="Y76" s="9"/>
     </row>
-    <row r="77" spans="12:30" x14ac:dyDescent="0.25">
+    <row r="77" spans="12:30" x14ac:dyDescent="0.45">
       <c r="Y77" s="9"/>
     </row>
-    <row r="78" spans="12:30" x14ac:dyDescent="0.25">
+    <row r="78" spans="12:30" x14ac:dyDescent="0.45">
       <c r="L78" s="52" t="s">
         <v>78</v>
       </c>
@@ -24714,7 +25281,7 @@
       <c r="X78" s="52"/>
       <c r="Y78" s="52"/>
     </row>
-    <row r="79" spans="12:30" x14ac:dyDescent="0.25">
+    <row r="79" spans="12:30" x14ac:dyDescent="0.45">
       <c r="L79" s="22"/>
       <c r="M79" s="22">
         <v>0</v>
@@ -24756,7 +25323,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="80" spans="12:30" x14ac:dyDescent="0.25">
+    <row r="80" spans="12:30" x14ac:dyDescent="0.45">
       <c r="L80" s="4" t="s">
         <v>53</v>
       </c>
@@ -24800,7 +25367,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="81" spans="12:25" x14ac:dyDescent="0.25">
+    <row r="81" spans="12:25" x14ac:dyDescent="0.45">
       <c r="L81" s="19" t="s">
         <v>52</v>
       </c>
@@ -24844,7 +25411,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="82" spans="12:25" x14ac:dyDescent="0.25">
+    <row r="82" spans="12:25" x14ac:dyDescent="0.45">
       <c r="L82" s="22" t="s">
         <v>68</v>
       </c>
@@ -24870,7 +25437,7 @@
       <c r="X82" s="22"/>
       <c r="Y82" s="22"/>
     </row>
-    <row r="83" spans="12:25" x14ac:dyDescent="0.25">
+    <row r="83" spans="12:25" x14ac:dyDescent="0.45">
       <c r="L83" s="4" t="s">
         <v>59</v>
       </c>
@@ -24899,7 +25466,7 @@
       <c r="X83" s="4"/>
       <c r="Y83" s="10"/>
     </row>
-    <row r="84" spans="12:25" x14ac:dyDescent="0.25">
+    <row r="84" spans="12:25" x14ac:dyDescent="0.45">
       <c r="L84" t="s">
         <v>60</v>
       </c>
@@ -24921,7 +25488,7 @@
       </c>
       <c r="Y84" s="9"/>
     </row>
-    <row r="85" spans="12:25" x14ac:dyDescent="0.25">
+    <row r="85" spans="12:25" x14ac:dyDescent="0.45">
       <c r="L85" s="4" t="s">
         <v>61</v>
       </c>
@@ -24950,7 +25517,7 @@
       <c r="X85" s="4"/>
       <c r="Y85" s="10"/>
     </row>
-    <row r="86" spans="12:25" x14ac:dyDescent="0.25">
+    <row r="86" spans="12:25" x14ac:dyDescent="0.45">
       <c r="L86" s="22" t="s">
         <v>67</v>
       </c>
@@ -24970,7 +25537,7 @@
       <c r="X86" s="22"/>
       <c r="Y86" s="22"/>
     </row>
-    <row r="87" spans="12:25" x14ac:dyDescent="0.25">
+    <row r="87" spans="12:25" x14ac:dyDescent="0.45">
       <c r="L87" s="4" t="s">
         <v>59</v>
       </c>
@@ -24992,7 +25559,7 @@
       <c r="X87" s="4"/>
       <c r="Y87" s="10"/>
     </row>
-    <row r="88" spans="12:25" x14ac:dyDescent="0.25">
+    <row r="88" spans="12:25" x14ac:dyDescent="0.45">
       <c r="L88" t="s">
         <v>60</v>
       </c>
@@ -25004,7 +25571,7 @@
       </c>
       <c r="Y88" s="9"/>
     </row>
-    <row r="89" spans="12:25" x14ac:dyDescent="0.25">
+    <row r="89" spans="12:25" x14ac:dyDescent="0.45">
       <c r="L89" s="4" t="s">
         <v>61</v>
       </c>
@@ -25026,10 +25593,10 @@
       <c r="X89" s="4"/>
       <c r="Y89" s="10"/>
     </row>
-    <row r="90" spans="12:25" x14ac:dyDescent="0.25">
+    <row r="90" spans="12:25" x14ac:dyDescent="0.45">
       <c r="Y90" s="9"/>
     </row>
-    <row r="91" spans="12:25" x14ac:dyDescent="0.25">
+    <row r="91" spans="12:25" x14ac:dyDescent="0.45">
       <c r="L91" s="52" t="s">
         <v>79</v>
       </c>
@@ -25047,7 +25614,7 @@
       <c r="X91" s="52"/>
       <c r="Y91" s="52"/>
     </row>
-    <row r="92" spans="12:25" x14ac:dyDescent="0.25">
+    <row r="92" spans="12:25" x14ac:dyDescent="0.45">
       <c r="L92" s="22"/>
       <c r="M92" s="22">
         <v>0</v>
@@ -25089,7 +25656,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="93" spans="12:25" x14ac:dyDescent="0.25">
+    <row r="93" spans="12:25" x14ac:dyDescent="0.45">
       <c r="L93" s="27" t="s">
         <v>40</v>
       </c>
@@ -25133,7 +25700,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="94" spans="12:25" x14ac:dyDescent="0.25">
+    <row r="94" spans="12:25" x14ac:dyDescent="0.45">
       <c r="L94" s="22" t="s">
         <v>68</v>
       </c>
@@ -25159,7 +25726,7 @@
       <c r="X94" s="22"/>
       <c r="Y94" s="22"/>
     </row>
-    <row r="95" spans="12:25" x14ac:dyDescent="0.25">
+    <row r="95" spans="12:25" x14ac:dyDescent="0.45">
       <c r="L95" s="4" t="s">
         <v>59</v>
       </c>
@@ -25188,7 +25755,7 @@
       <c r="X95" s="4"/>
       <c r="Y95" s="10"/>
     </row>
-    <row r="96" spans="12:25" x14ac:dyDescent="0.25">
+    <row r="96" spans="12:25" x14ac:dyDescent="0.45">
       <c r="L96" s="33" t="s">
         <v>60</v>
       </c>
@@ -25217,7 +25784,7 @@
       <c r="X96" s="33"/>
       <c r="Y96" s="8"/>
     </row>
-    <row r="97" spans="12:36" x14ac:dyDescent="0.25">
+    <row r="97" spans="12:36" x14ac:dyDescent="0.45">
       <c r="L97" s="4" t="s">
         <v>61</v>
       </c>
@@ -25246,7 +25813,7 @@
       <c r="X97" s="4"/>
       <c r="Y97" s="10"/>
     </row>
-    <row r="98" spans="12:36" x14ac:dyDescent="0.25">
+    <row r="98" spans="12:36" x14ac:dyDescent="0.45">
       <c r="L98" s="22" t="s">
         <v>67</v>
       </c>
@@ -25266,7 +25833,7 @@
       <c r="X98" s="22"/>
       <c r="Y98" s="22"/>
     </row>
-    <row r="99" spans="12:36" x14ac:dyDescent="0.25">
+    <row r="99" spans="12:36" x14ac:dyDescent="0.45">
       <c r="L99" s="4" t="s">
         <v>59</v>
       </c>
@@ -25288,7 +25855,7 @@
       <c r="X99" s="4"/>
       <c r="Y99" s="10"/>
     </row>
-    <row r="100" spans="12:36" x14ac:dyDescent="0.25">
+    <row r="100" spans="12:36" x14ac:dyDescent="0.45">
       <c r="L100" t="s">
         <v>60</v>
       </c>
@@ -25300,7 +25867,7 @@
       </c>
       <c r="Y100" s="9"/>
     </row>
-    <row r="101" spans="12:36" x14ac:dyDescent="0.25">
+    <row r="101" spans="12:36" x14ac:dyDescent="0.45">
       <c r="L101" s="4" t="s">
         <v>61</v>
       </c>
@@ -25322,44 +25889,62 @@
       <c r="X101" s="4"/>
       <c r="Y101" s="10"/>
     </row>
-    <row r="102" spans="12:36" x14ac:dyDescent="0.25">
+    <row r="102" spans="12:36" x14ac:dyDescent="0.45">
       <c r="Y102" s="9"/>
     </row>
-    <row r="109" spans="12:36" x14ac:dyDescent="0.25">
+    <row r="109" spans="12:36" x14ac:dyDescent="0.45">
       <c r="AI109" s="3"/>
       <c r="AJ109" s="3"/>
     </row>
-    <row r="111" spans="12:36" x14ac:dyDescent="0.25">
+    <row r="111" spans="12:36" x14ac:dyDescent="0.45">
       <c r="AI111" s="3"/>
       <c r="AJ111" s="3"/>
     </row>
-    <row r="113" spans="35:36" x14ac:dyDescent="0.25">
+    <row r="113" spans="35:36" x14ac:dyDescent="0.45">
       <c r="AI113" s="3"/>
       <c r="AJ113" s="3"/>
     </row>
-    <row r="115" spans="35:36" x14ac:dyDescent="0.25">
+    <row r="115" spans="35:36" x14ac:dyDescent="0.45">
       <c r="AI115" s="3"/>
       <c r="AJ115" s="3"/>
     </row>
-    <row r="117" spans="35:36" x14ac:dyDescent="0.25">
+    <row r="117" spans="35:36" x14ac:dyDescent="0.45">
       <c r="AI117" s="3"/>
       <c r="AJ117" s="3"/>
     </row>
-    <row r="119" spans="35:36" x14ac:dyDescent="0.25">
+    <row r="119" spans="35:36" x14ac:dyDescent="0.45">
       <c r="AI119" s="3"/>
       <c r="AJ119" s="3"/>
     </row>
-    <row r="121" spans="35:36" x14ac:dyDescent="0.25">
+    <row r="121" spans="35:36" x14ac:dyDescent="0.45">
       <c r="AI121" s="3"/>
       <c r="AJ121" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="M34:N34"/>
+    <mergeCell ref="M21:N21"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="Q9:R9"/>
+    <mergeCell ref="O21:P21"/>
+    <mergeCell ref="Q21:R21"/>
+    <mergeCell ref="P30:Q30"/>
+    <mergeCell ref="P94:Q94"/>
+    <mergeCell ref="M98:N98"/>
+    <mergeCell ref="M86:N86"/>
+    <mergeCell ref="M72:N72"/>
+    <mergeCell ref="M60:N60"/>
+    <mergeCell ref="L91:Y91"/>
+    <mergeCell ref="P42:Q42"/>
+    <mergeCell ref="P56:Q56"/>
+    <mergeCell ref="P68:Q68"/>
+    <mergeCell ref="P82:Q82"/>
+    <mergeCell ref="L39:Y39"/>
+    <mergeCell ref="L52:Y52"/>
+    <mergeCell ref="L65:Y65"/>
+    <mergeCell ref="L78:Y78"/>
+    <mergeCell ref="M46:N46"/>
     <mergeCell ref="A21:A22"/>
     <mergeCell ref="A23:A24"/>
     <mergeCell ref="A25:A26"/>
@@ -25376,29 +25961,11 @@
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A14:A15"/>
     <mergeCell ref="A16:A17"/>
-    <mergeCell ref="P42:Q42"/>
-    <mergeCell ref="P56:Q56"/>
-    <mergeCell ref="P68:Q68"/>
-    <mergeCell ref="P82:Q82"/>
-    <mergeCell ref="L39:Y39"/>
-    <mergeCell ref="L52:Y52"/>
-    <mergeCell ref="L65:Y65"/>
-    <mergeCell ref="L78:Y78"/>
-    <mergeCell ref="M46:N46"/>
-    <mergeCell ref="P94:Q94"/>
-    <mergeCell ref="M98:N98"/>
-    <mergeCell ref="M86:N86"/>
-    <mergeCell ref="M72:N72"/>
-    <mergeCell ref="M60:N60"/>
-    <mergeCell ref="L91:Y91"/>
-    <mergeCell ref="M34:N34"/>
-    <mergeCell ref="M21:N21"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="O9:P9"/>
-    <mergeCell ref="Q9:R9"/>
-    <mergeCell ref="O21:P21"/>
-    <mergeCell ref="Q21:R21"/>
-    <mergeCell ref="P30:Q30"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A6:E6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -25407,35 +25974,35 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AI264"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+    <sheetView tabSelected="1" topLeftCell="M17" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="AH74" sqref="AH74"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" customWidth="1"/>
-    <col min="2" max="2" width="13.85546875" customWidth="1"/>
-    <col min="3" max="4" width="11.85546875" customWidth="1"/>
-    <col min="5" max="5" width="4.28515625" customWidth="1"/>
-    <col min="6" max="11" width="12.5703125" customWidth="1"/>
-    <col min="12" max="12" width="26.28515625" customWidth="1"/>
-    <col min="13" max="24" width="11.7109375" customWidth="1"/>
+    <col min="1" max="1" width="10.86328125" customWidth="1"/>
+    <col min="2" max="2" width="13.86328125" customWidth="1"/>
+    <col min="3" max="4" width="11.86328125" customWidth="1"/>
+    <col min="5" max="5" width="4.265625" customWidth="1"/>
+    <col min="6" max="11" width="12.59765625" customWidth="1"/>
+    <col min="12" max="12" width="26.265625" customWidth="1"/>
+    <col min="13" max="24" width="11.73046875" customWidth="1"/>
     <col min="25" max="25" width="5" customWidth="1"/>
-    <col min="26" max="27" width="11.28515625" customWidth="1"/>
-    <col min="34" max="34" width="54.28515625" customWidth="1"/>
-    <col min="35" max="37" width="11.28515625" customWidth="1"/>
-    <col min="38" max="38" width="14.42578125" customWidth="1"/>
-    <col min="39" max="47" width="11.28515625" customWidth="1"/>
-    <col min="52" max="52" width="54.28515625" customWidth="1"/>
-    <col min="53" max="55" width="11.28515625" customWidth="1"/>
-    <col min="56" max="56" width="14.42578125" customWidth="1"/>
-    <col min="57" max="64" width="11.28515625" customWidth="1"/>
+    <col min="26" max="27" width="11.265625" customWidth="1"/>
+    <col min="34" max="34" width="54.265625" customWidth="1"/>
+    <col min="35" max="37" width="11.265625" customWidth="1"/>
+    <col min="38" max="38" width="14.3984375" customWidth="1"/>
+    <col min="39" max="47" width="11.265625" customWidth="1"/>
+    <col min="52" max="52" width="54.265625" customWidth="1"/>
+    <col min="53" max="55" width="11.265625" customWidth="1"/>
+    <col min="56" max="56" width="14.3984375" customWidth="1"/>
+    <col min="57" max="64" width="11.265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A1" s="50" t="s">
         <v>55</v>
       </c>
@@ -25460,11 +26027,11 @@
       <c r="X1" s="52"/>
       <c r="Y1" s="52"/>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A2" s="56" t="s">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A2" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="56"/>
+      <c r="B2" s="53"/>
       <c r="C2" s="4">
         <v>4940</v>
       </c>
@@ -25513,11 +26080,11 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A3" s="57" t="s">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A3" s="54" t="s">
         <v>56</v>
       </c>
-      <c r="B3" s="57"/>
+      <c r="B3" s="54"/>
       <c r="C3">
         <v>5720</v>
       </c>
@@ -25570,7 +26137,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.45">
       <c r="D4" s="18" t="s">
         <v>57</v>
       </c>
@@ -25617,7 +26184,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.45">
       <c r="L5" s="22" t="s">
         <v>68</v>
       </c>
@@ -25643,7 +26210,7 @@
       <c r="X5" s="22"/>
       <c r="Y5" s="22"/>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A6" s="50" t="s">
         <v>21</v>
       </c>
@@ -25679,8 +26246,8 @@
       <c r="X6" s="4"/>
       <c r="Y6" s="10"/>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A7" s="53" t="s">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A7" s="55" t="s">
         <v>104</v>
       </c>
       <c r="B7" s="4" t="s">
@@ -25714,8 +26281,8 @@
       </c>
       <c r="Y7" s="9"/>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A8" s="54"/>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A8" s="56"/>
       <c r="B8" s="44" t="s">
         <v>56</v>
       </c>
@@ -25756,8 +26323,8 @@
       <c r="X8" s="4"/>
       <c r="Y8" s="10"/>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A9" s="53" t="s">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A9" s="55" t="s">
         <v>105</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -25795,8 +26362,8 @@
       <c r="X9" s="22"/>
       <c r="Y9" s="23"/>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A10" s="54"/>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A10" s="56"/>
       <c r="B10" s="44" t="s">
         <v>56</v>
       </c>
@@ -25844,8 +26411,8 @@
       <c r="X10" s="4"/>
       <c r="Y10" s="10"/>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A11" s="55" t="s">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A11" s="57" t="s">
         <v>106</v>
       </c>
       <c r="B11" s="4" t="s">
@@ -25889,8 +26456,8 @@
       </c>
       <c r="Y11" s="9"/>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A12" s="55"/>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A12" s="57"/>
       <c r="B12" s="7" t="s">
         <v>56</v>
       </c>
@@ -25938,7 +26505,7 @@
       <c r="X12" s="4"/>
       <c r="Y12" s="10"/>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.45">
       <c r="D13" s="18" t="s">
         <v>57</v>
       </c>
@@ -25967,7 +26534,7 @@
       <c r="X13" s="22"/>
       <c r="Y13" s="23"/>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.45">
       <c r="L14" s="4" t="s">
         <v>59</v>
       </c>
@@ -26003,7 +26570,7 @@
       <c r="X14" s="4"/>
       <c r="Y14" s="10"/>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A15" s="50" t="s">
         <v>22</v>
       </c>
@@ -26042,8 +26609,8 @@
       </c>
       <c r="Y15" s="9"/>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A16" s="53" t="s">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A16" s="55" t="s">
         <v>105</v>
       </c>
       <c r="B16" s="4" t="s">
@@ -26091,8 +26658,8 @@
       <c r="X16" s="4"/>
       <c r="Y16" s="10"/>
     </row>
-    <row r="17" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A17" s="54"/>
+    <row r="17" spans="1:35" x14ac:dyDescent="0.45">
+      <c r="A17" s="56"/>
       <c r="B17" s="44" t="s">
         <v>56</v>
       </c>
@@ -26107,8 +26674,8 @@
       </c>
       <c r="Y17" s="9"/>
     </row>
-    <row r="18" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A18" s="55" t="s">
+    <row r="18" spans="1:35" x14ac:dyDescent="0.45">
+      <c r="A18" s="57" t="s">
         <v>106</v>
       </c>
       <c r="B18" s="4" t="s">
@@ -26138,8 +26705,8 @@
       <c r="X18" s="52"/>
       <c r="Y18" s="52"/>
     </row>
-    <row r="19" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A19" s="55"/>
+    <row r="19" spans="1:35" x14ac:dyDescent="0.45">
+      <c r="A19" s="57"/>
       <c r="B19" s="7" t="s">
         <v>56</v>
       </c>
@@ -26193,7 +26760,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="20" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:35" x14ac:dyDescent="0.45">
       <c r="D20" s="18" t="s">
         <v>57</v>
       </c>
@@ -26240,7 +26807,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:35" x14ac:dyDescent="0.45">
       <c r="L21" s="22" t="s">
         <v>68</v>
       </c>
@@ -26266,7 +26833,7 @@
       <c r="X21" s="22"/>
       <c r="Y21" s="22"/>
     </row>
-    <row r="22" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A22" s="50" t="s">
         <v>24</v>
       </c>
@@ -26302,8 +26869,8 @@
       <c r="X22" s="4"/>
       <c r="Y22" s="10"/>
     </row>
-    <row r="23" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A23" s="53" t="s">
+    <row r="23" spans="1:35" x14ac:dyDescent="0.45">
+      <c r="A23" s="55" t="s">
         <v>105</v>
       </c>
       <c r="B23" s="4" t="s">
@@ -26337,8 +26904,8 @@
       </c>
       <c r="Y23" s="9"/>
     </row>
-    <row r="24" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A24" s="54"/>
+    <row r="24" spans="1:35" x14ac:dyDescent="0.45">
+      <c r="A24" s="56"/>
       <c r="B24" s="44" t="s">
         <v>56</v>
       </c>
@@ -26382,8 +26949,8 @@
         <v>94</v>
       </c>
     </row>
-    <row r="25" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A25" s="55" t="s">
+    <row r="25" spans="1:35" x14ac:dyDescent="0.45">
+      <c r="A25" s="57" t="s">
         <v>106</v>
       </c>
       <c r="B25" s="4" t="s">
@@ -26424,8 +26991,8 @@
         <v>95</v>
       </c>
     </row>
-    <row r="26" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A26" s="55"/>
+    <row r="26" spans="1:35" x14ac:dyDescent="0.45">
+      <c r="A26" s="57"/>
       <c r="B26" s="7" t="s">
         <v>56</v>
       </c>
@@ -26476,7 +27043,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="27" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:35" x14ac:dyDescent="0.45">
       <c r="D27" s="18" t="s">
         <v>57</v>
       </c>
@@ -26510,7 +27077,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="28" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>108</v>
       </c>
@@ -26552,7 +27119,7 @@
       <c r="X28" s="4"/>
       <c r="Y28" s="4"/>
     </row>
-    <row r="29" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>107</v>
       </c>
@@ -26587,7 +27154,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="30" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>109</v>
       </c>
@@ -26632,7 +27199,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="31" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
         <v>110</v>
       </c>
@@ -26669,7 +27236,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="32" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
         <v>111</v>
       </c>
@@ -26708,13 +27275,13 @@
       <c r="X32" s="4"/>
       <c r="Y32" s="4"/>
     </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
         <v>112</v>
       </c>
       <c r="Y33" s="9"/>
     </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:25" x14ac:dyDescent="0.45">
       <c r="L34" s="52" t="s">
         <v>23</v>
       </c>
@@ -26732,7 +27299,7 @@
       <c r="X34" s="52"/>
       <c r="Y34" s="52"/>
     </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:25" x14ac:dyDescent="0.45">
       <c r="L35" s="22"/>
       <c r="M35" s="22">
         <v>0</v>
@@ -26774,7 +27341,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:25" x14ac:dyDescent="0.45">
       <c r="L36" s="4" t="s">
         <v>53</v>
       </c>
@@ -26818,7 +27385,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:25" x14ac:dyDescent="0.45">
       <c r="L37" t="s">
         <v>52</v>
       </c>
@@ -26862,7 +27429,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:25" x14ac:dyDescent="0.45">
       <c r="L38" s="22" t="s">
         <v>68</v>
       </c>
@@ -26888,7 +27455,7 @@
       <c r="X38" s="22"/>
       <c r="Y38" s="22"/>
     </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:25" x14ac:dyDescent="0.45">
       <c r="L39" s="4" t="s">
         <v>59</v>
       </c>
@@ -26917,7 +27484,7 @@
       <c r="X39" s="4"/>
       <c r="Y39" s="10"/>
     </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:25" x14ac:dyDescent="0.45">
       <c r="L40" t="s">
         <v>60</v>
       </c>
@@ -26939,7 +27506,7 @@
       </c>
       <c r="Y40" s="9"/>
     </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:25" x14ac:dyDescent="0.45">
       <c r="L41" s="4" t="s">
         <v>61</v>
       </c>
@@ -26968,7 +27535,7 @@
       <c r="X41" s="4"/>
       <c r="Y41" s="10"/>
     </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:25" x14ac:dyDescent="0.45">
       <c r="L42" s="22" t="s">
         <v>71</v>
       </c>
@@ -26994,7 +27561,7 @@
       <c r="X42" s="22"/>
       <c r="Y42" s="23"/>
     </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:25" x14ac:dyDescent="0.45">
       <c r="L43" s="4" t="s">
         <v>59</v>
       </c>
@@ -27030,7 +27597,7 @@
       <c r="X43" s="4"/>
       <c r="Y43" s="4"/>
     </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:25" x14ac:dyDescent="0.45">
       <c r="L44" t="s">
         <v>60</v>
       </c>
@@ -27061,7 +27628,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:25" x14ac:dyDescent="0.45">
       <c r="L45" s="4" t="s">
         <v>61</v>
       </c>
@@ -27097,7 +27664,7 @@
       <c r="X45" s="4"/>
       <c r="Y45" s="4"/>
     </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:25" x14ac:dyDescent="0.45">
       <c r="L46" s="22" t="s">
         <v>72</v>
       </c>
@@ -27117,7 +27684,7 @@
       <c r="X46" s="22"/>
       <c r="Y46" s="22"/>
     </row>
-    <row r="47" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:25" x14ac:dyDescent="0.45">
       <c r="L47" s="4" t="s">
         <v>59</v>
       </c>
@@ -27139,7 +27706,7 @@
       <c r="X47" s="4"/>
       <c r="Y47" s="10"/>
     </row>
-    <row r="48" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:25" x14ac:dyDescent="0.45">
       <c r="L48" t="s">
         <v>60</v>
       </c>
@@ -27151,7 +27718,7 @@
       </c>
       <c r="Y48" s="9"/>
     </row>
-    <row r="49" spans="12:25" x14ac:dyDescent="0.25">
+    <row r="49" spans="12:25" x14ac:dyDescent="0.45">
       <c r="L49" s="4" t="s">
         <v>61</v>
       </c>
@@ -27173,10 +27740,10 @@
       <c r="X49" s="4"/>
       <c r="Y49" s="10"/>
     </row>
-    <row r="50" spans="12:25" x14ac:dyDescent="0.25">
+    <row r="50" spans="12:25" x14ac:dyDescent="0.45">
       <c r="Y50" s="9"/>
     </row>
-    <row r="51" spans="12:25" x14ac:dyDescent="0.25">
+    <row r="51" spans="12:25" x14ac:dyDescent="0.45">
       <c r="L51" s="52" t="s">
         <v>25</v>
       </c>
@@ -27194,7 +27761,7 @@
       <c r="X51" s="52"/>
       <c r="Y51" s="52"/>
     </row>
-    <row r="52" spans="12:25" x14ac:dyDescent="0.25">
+    <row r="52" spans="12:25" x14ac:dyDescent="0.45">
       <c r="L52" s="22"/>
       <c r="M52" s="22">
         <v>0</v>
@@ -27236,7 +27803,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="12:25" x14ac:dyDescent="0.25">
+    <row r="53" spans="12:25" x14ac:dyDescent="0.45">
       <c r="L53" s="4" t="s">
         <v>52</v>
       </c>
@@ -27280,7 +27847,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="54" spans="12:25" x14ac:dyDescent="0.25">
+    <row r="54" spans="12:25" x14ac:dyDescent="0.45">
       <c r="L54" s="22" t="s">
         <v>68</v>
       </c>
@@ -27306,7 +27873,7 @@
       <c r="X54" s="22"/>
       <c r="Y54" s="22"/>
     </row>
-    <row r="55" spans="12:25" x14ac:dyDescent="0.25">
+    <row r="55" spans="12:25" x14ac:dyDescent="0.45">
       <c r="L55" s="4" t="s">
         <v>59</v>
       </c>
@@ -27335,7 +27902,7 @@
       <c r="X55" s="4"/>
       <c r="Y55" s="10"/>
     </row>
-    <row r="56" spans="12:25" x14ac:dyDescent="0.25">
+    <row r="56" spans="12:25" x14ac:dyDescent="0.45">
       <c r="L56" t="s">
         <v>60</v>
       </c>
@@ -27357,7 +27924,7 @@
       </c>
       <c r="Y56" s="9"/>
     </row>
-    <row r="57" spans="12:25" x14ac:dyDescent="0.25">
+    <row r="57" spans="12:25" x14ac:dyDescent="0.45">
       <c r="L57" s="4" t="s">
         <v>61</v>
       </c>
@@ -27386,7 +27953,7 @@
       <c r="X57" s="4"/>
       <c r="Y57" s="10"/>
     </row>
-    <row r="58" spans="12:25" x14ac:dyDescent="0.25">
+    <row r="58" spans="12:25" x14ac:dyDescent="0.45">
       <c r="L58" s="22" t="s">
         <v>71</v>
       </c>
@@ -27412,7 +27979,7 @@
       <c r="X58" s="22"/>
       <c r="Y58" s="23"/>
     </row>
-    <row r="59" spans="12:25" x14ac:dyDescent="0.25">
+    <row r="59" spans="12:25" x14ac:dyDescent="0.45">
       <c r="L59" s="4" t="s">
         <v>59</v>
       </c>
@@ -27448,7 +28015,7 @@
       <c r="X59" s="4"/>
       <c r="Y59" s="4"/>
     </row>
-    <row r="60" spans="12:25" x14ac:dyDescent="0.25">
+    <row r="60" spans="12:25" x14ac:dyDescent="0.45">
       <c r="L60" t="s">
         <v>60</v>
       </c>
@@ -27479,7 +28046,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="61" spans="12:25" x14ac:dyDescent="0.25">
+    <row r="61" spans="12:25" x14ac:dyDescent="0.45">
       <c r="L61" s="4" t="s">
         <v>61</v>
       </c>
@@ -27515,7 +28082,7 @@
       <c r="X61" s="4"/>
       <c r="Y61" s="4"/>
     </row>
-    <row r="62" spans="12:25" x14ac:dyDescent="0.25">
+    <row r="62" spans="12:25" x14ac:dyDescent="0.45">
       <c r="L62" s="22" t="s">
         <v>72</v>
       </c>
@@ -27535,7 +28102,7 @@
       <c r="X62" s="22"/>
       <c r="Y62" s="22"/>
     </row>
-    <row r="63" spans="12:25" x14ac:dyDescent="0.25">
+    <row r="63" spans="12:25" x14ac:dyDescent="0.45">
       <c r="L63" s="4" t="s">
         <v>59</v>
       </c>
@@ -27557,7 +28124,7 @@
       <c r="X63" s="4"/>
       <c r="Y63" s="10"/>
     </row>
-    <row r="64" spans="12:25" x14ac:dyDescent="0.25">
+    <row r="64" spans="12:25" x14ac:dyDescent="0.45">
       <c r="L64" t="s">
         <v>60</v>
       </c>
@@ -27569,7 +28136,7 @@
       </c>
       <c r="Y64" s="9"/>
     </row>
-    <row r="65" spans="12:25" x14ac:dyDescent="0.25">
+    <row r="65" spans="12:25" x14ac:dyDescent="0.45">
       <c r="L65" s="4" t="s">
         <v>61</v>
       </c>
@@ -27591,10 +28158,10 @@
       <c r="X65" s="4"/>
       <c r="Y65" s="10"/>
     </row>
-    <row r="66" spans="12:25" x14ac:dyDescent="0.25">
+    <row r="66" spans="12:25" x14ac:dyDescent="0.45">
       <c r="Y66" s="9"/>
     </row>
-    <row r="67" spans="12:25" x14ac:dyDescent="0.25">
+    <row r="67" spans="12:25" x14ac:dyDescent="0.45">
       <c r="L67" s="52" t="s">
         <v>26</v>
       </c>
@@ -27612,7 +28179,7 @@
       <c r="X67" s="52"/>
       <c r="Y67" s="52"/>
     </row>
-    <row r="68" spans="12:25" x14ac:dyDescent="0.25">
+    <row r="68" spans="12:25" x14ac:dyDescent="0.45">
       <c r="L68" s="22"/>
       <c r="M68" s="22">
         <v>0</v>
@@ -27654,7 +28221,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="69" spans="12:25" x14ac:dyDescent="0.25">
+    <row r="69" spans="12:25" x14ac:dyDescent="0.45">
       <c r="L69" s="4" t="s">
         <v>53</v>
       </c>
@@ -27698,7 +28265,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="70" spans="12:25" x14ac:dyDescent="0.25">
+    <row r="70" spans="12:25" x14ac:dyDescent="0.45">
       <c r="L70" t="s">
         <v>52</v>
       </c>
@@ -27742,7 +28309,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="71" spans="12:25" x14ac:dyDescent="0.25">
+    <row r="71" spans="12:25" x14ac:dyDescent="0.45">
       <c r="L71" s="22" t="s">
         <v>68</v>
       </c>
@@ -27768,7 +28335,7 @@
       <c r="X71" s="22"/>
       <c r="Y71" s="22"/>
     </row>
-    <row r="72" spans="12:25" x14ac:dyDescent="0.25">
+    <row r="72" spans="12:25" x14ac:dyDescent="0.45">
       <c r="L72" s="4" t="s">
         <v>59</v>
       </c>
@@ -27797,7 +28364,7 @@
       <c r="X72" s="4"/>
       <c r="Y72" s="10"/>
     </row>
-    <row r="73" spans="12:25" x14ac:dyDescent="0.25">
+    <row r="73" spans="12:25" x14ac:dyDescent="0.45">
       <c r="L73" t="s">
         <v>60</v>
       </c>
@@ -27819,7 +28386,7 @@
       </c>
       <c r="Y73" s="9"/>
     </row>
-    <row r="74" spans="12:25" x14ac:dyDescent="0.25">
+    <row r="74" spans="12:25" x14ac:dyDescent="0.45">
       <c r="L74" s="4" t="s">
         <v>61</v>
       </c>
@@ -27848,7 +28415,7 @@
       <c r="X74" s="4"/>
       <c r="Y74" s="10"/>
     </row>
-    <row r="75" spans="12:25" x14ac:dyDescent="0.25">
+    <row r="75" spans="12:25" x14ac:dyDescent="0.45">
       <c r="L75" s="22" t="s">
         <v>71</v>
       </c>
@@ -27874,7 +28441,7 @@
       <c r="X75" s="22"/>
       <c r="Y75" s="23"/>
     </row>
-    <row r="76" spans="12:25" x14ac:dyDescent="0.25">
+    <row r="76" spans="12:25" x14ac:dyDescent="0.45">
       <c r="L76" s="4" t="s">
         <v>59</v>
       </c>
@@ -27910,7 +28477,7 @@
       <c r="X76" s="4"/>
       <c r="Y76" s="4"/>
     </row>
-    <row r="77" spans="12:25" x14ac:dyDescent="0.25">
+    <row r="77" spans="12:25" x14ac:dyDescent="0.45">
       <c r="L77" t="s">
         <v>60</v>
       </c>
@@ -27941,7 +28508,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="78" spans="12:25" x14ac:dyDescent="0.25">
+    <row r="78" spans="12:25" x14ac:dyDescent="0.45">
       <c r="L78" s="4" t="s">
         <v>61</v>
       </c>
@@ -27977,7 +28544,7 @@
       <c r="X78" s="4"/>
       <c r="Y78" s="4"/>
     </row>
-    <row r="79" spans="12:25" x14ac:dyDescent="0.25">
+    <row r="79" spans="12:25" x14ac:dyDescent="0.45">
       <c r="L79" s="22" t="s">
         <v>72</v>
       </c>
@@ -27997,7 +28564,7 @@
       <c r="X79" s="22"/>
       <c r="Y79" s="22"/>
     </row>
-    <row r="80" spans="12:25" x14ac:dyDescent="0.25">
+    <row r="80" spans="12:25" x14ac:dyDescent="0.45">
       <c r="L80" s="4" t="s">
         <v>59</v>
       </c>
@@ -28019,7 +28586,7 @@
       <c r="X80" s="4"/>
       <c r="Y80" s="10"/>
     </row>
-    <row r="81" spans="12:25" x14ac:dyDescent="0.25">
+    <row r="81" spans="12:25" x14ac:dyDescent="0.45">
       <c r="L81" t="s">
         <v>60</v>
       </c>
@@ -28031,7 +28598,7 @@
       </c>
       <c r="Y81" s="9"/>
     </row>
-    <row r="82" spans="12:25" x14ac:dyDescent="0.25">
+    <row r="82" spans="12:25" x14ac:dyDescent="0.45">
       <c r="L82" s="4" t="s">
         <v>61</v>
       </c>
@@ -28053,7 +28620,7 @@
       <c r="X82" s="4"/>
       <c r="Y82" s="10"/>
     </row>
-    <row r="85" spans="12:25" x14ac:dyDescent="0.25">
+    <row r="85" spans="12:25" x14ac:dyDescent="0.45">
       <c r="L85" s="52" t="s">
         <v>29</v>
       </c>
@@ -28071,7 +28638,7 @@
       <c r="X85" s="52"/>
       <c r="Y85" s="52"/>
     </row>
-    <row r="86" spans="12:25" x14ac:dyDescent="0.25">
+    <row r="86" spans="12:25" x14ac:dyDescent="0.45">
       <c r="L86" s="22"/>
       <c r="M86" s="22">
         <v>0</v>
@@ -28113,7 +28680,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="87" spans="12:25" x14ac:dyDescent="0.25">
+    <row r="87" spans="12:25" x14ac:dyDescent="0.45">
       <c r="L87" s="4" t="s">
         <v>52</v>
       </c>
@@ -28157,7 +28724,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="88" spans="12:25" x14ac:dyDescent="0.25">
+    <row r="88" spans="12:25" x14ac:dyDescent="0.45">
       <c r="L88" s="22" t="s">
         <v>68</v>
       </c>
@@ -28183,7 +28750,7 @@
       <c r="X88" s="22"/>
       <c r="Y88" s="22"/>
     </row>
-    <row r="89" spans="12:25" x14ac:dyDescent="0.25">
+    <row r="89" spans="12:25" x14ac:dyDescent="0.45">
       <c r="L89" s="4" t="s">
         <v>59</v>
       </c>
@@ -28212,7 +28779,7 @@
       <c r="X89" s="4"/>
       <c r="Y89" s="10"/>
     </row>
-    <row r="90" spans="12:25" x14ac:dyDescent="0.25">
+    <row r="90" spans="12:25" x14ac:dyDescent="0.45">
       <c r="L90" t="s">
         <v>60</v>
       </c>
@@ -28234,7 +28801,7 @@
       </c>
       <c r="Y90" s="9"/>
     </row>
-    <row r="91" spans="12:25" x14ac:dyDescent="0.25">
+    <row r="91" spans="12:25" x14ac:dyDescent="0.45">
       <c r="L91" s="4" t="s">
         <v>61</v>
       </c>
@@ -28263,7 +28830,7 @@
       <c r="X91" s="4"/>
       <c r="Y91" s="10"/>
     </row>
-    <row r="92" spans="12:25" x14ac:dyDescent="0.25">
+    <row r="92" spans="12:25" x14ac:dyDescent="0.45">
       <c r="L92" s="22" t="s">
         <v>71</v>
       </c>
@@ -28289,7 +28856,7 @@
       <c r="X92" s="22"/>
       <c r="Y92" s="23"/>
     </row>
-    <row r="93" spans="12:25" x14ac:dyDescent="0.25">
+    <row r="93" spans="12:25" x14ac:dyDescent="0.45">
       <c r="L93" s="4" t="s">
         <v>59</v>
       </c>
@@ -28325,7 +28892,7 @@
       <c r="X93" s="4"/>
       <c r="Y93" s="4"/>
     </row>
-    <row r="94" spans="12:25" x14ac:dyDescent="0.25">
+    <row r="94" spans="12:25" x14ac:dyDescent="0.45">
       <c r="L94" t="s">
         <v>60</v>
       </c>
@@ -28356,7 +28923,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="95" spans="12:25" x14ac:dyDescent="0.25">
+    <row r="95" spans="12:25" x14ac:dyDescent="0.45">
       <c r="L95" s="4" t="s">
         <v>61</v>
       </c>
@@ -28392,7 +28959,7 @@
       <c r="X95" s="4"/>
       <c r="Y95" s="4"/>
     </row>
-    <row r="96" spans="12:25" x14ac:dyDescent="0.25">
+    <row r="96" spans="12:25" x14ac:dyDescent="0.45">
       <c r="L96" s="22" t="s">
         <v>72</v>
       </c>
@@ -28412,7 +28979,7 @@
       <c r="X96" s="22"/>
       <c r="Y96" s="22"/>
     </row>
-    <row r="97" spans="12:30" x14ac:dyDescent="0.25">
+    <row r="97" spans="12:30" x14ac:dyDescent="0.45">
       <c r="L97" s="4" t="s">
         <v>59</v>
       </c>
@@ -28434,7 +29001,7 @@
       <c r="X97" s="4"/>
       <c r="Y97" s="10"/>
     </row>
-    <row r="98" spans="12:30" x14ac:dyDescent="0.25">
+    <row r="98" spans="12:30" x14ac:dyDescent="0.45">
       <c r="L98" t="s">
         <v>60</v>
       </c>
@@ -28446,7 +29013,7 @@
       </c>
       <c r="Y98" s="9"/>
     </row>
-    <row r="99" spans="12:30" x14ac:dyDescent="0.25">
+    <row r="99" spans="12:30" x14ac:dyDescent="0.45">
       <c r="L99" s="4" t="s">
         <v>61</v>
       </c>
@@ -28468,7 +29035,7 @@
       <c r="X99" s="4"/>
       <c r="Y99" s="10"/>
     </row>
-    <row r="101" spans="12:30" x14ac:dyDescent="0.25">
+    <row r="101" spans="12:30" x14ac:dyDescent="0.45">
       <c r="L101" s="52" t="s">
         <v>32</v>
       </c>
@@ -28486,7 +29053,7 @@
       <c r="X101" s="52"/>
       <c r="Y101" s="52"/>
     </row>
-    <row r="102" spans="12:30" x14ac:dyDescent="0.25">
+    <row r="102" spans="12:30" x14ac:dyDescent="0.45">
       <c r="L102" s="22"/>
       <c r="M102" s="22">
         <v>0</v>
@@ -28531,7 +29098,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="103" spans="12:30" x14ac:dyDescent="0.25">
+    <row r="103" spans="12:30" x14ac:dyDescent="0.45">
       <c r="L103" s="4" t="s">
         <v>53</v>
       </c>
@@ -28581,7 +29148,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="104" spans="12:30" x14ac:dyDescent="0.25">
+    <row r="104" spans="12:30" x14ac:dyDescent="0.45">
       <c r="L104" t="s">
         <v>52</v>
       </c>
@@ -28631,7 +29198,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="105" spans="12:30" x14ac:dyDescent="0.25">
+    <row r="105" spans="12:30" x14ac:dyDescent="0.45">
       <c r="L105" s="22" t="s">
         <v>68</v>
       </c>
@@ -28660,7 +29227,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="106" spans="12:30" x14ac:dyDescent="0.25">
+    <row r="106" spans="12:30" x14ac:dyDescent="0.45">
       <c r="L106" s="4" t="s">
         <v>59</v>
       </c>
@@ -28692,7 +29259,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="107" spans="12:30" x14ac:dyDescent="0.25">
+    <row r="107" spans="12:30" x14ac:dyDescent="0.45">
       <c r="L107" t="s">
         <v>60</v>
       </c>
@@ -28717,7 +29284,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="108" spans="12:30" x14ac:dyDescent="0.25">
+    <row r="108" spans="12:30" x14ac:dyDescent="0.45">
       <c r="L108" s="4" t="s">
         <v>61</v>
       </c>
@@ -28749,7 +29316,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="109" spans="12:30" x14ac:dyDescent="0.25">
+    <row r="109" spans="12:30" x14ac:dyDescent="0.45">
       <c r="L109" s="22" t="s">
         <v>71</v>
       </c>
@@ -28775,7 +29342,7 @@
       <c r="X109" s="22"/>
       <c r="Y109" s="23"/>
     </row>
-    <row r="110" spans="12:30" x14ac:dyDescent="0.25">
+    <row r="110" spans="12:30" x14ac:dyDescent="0.45">
       <c r="L110" s="4" t="s">
         <v>59</v>
       </c>
@@ -28811,7 +29378,7 @@
       <c r="X110" s="4"/>
       <c r="Y110" s="4"/>
     </row>
-    <row r="111" spans="12:30" x14ac:dyDescent="0.25">
+    <row r="111" spans="12:30" x14ac:dyDescent="0.45">
       <c r="L111" t="s">
         <v>60</v>
       </c>
@@ -28842,7 +29409,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="112" spans="12:30" x14ac:dyDescent="0.25">
+    <row r="112" spans="12:30" x14ac:dyDescent="0.45">
       <c r="L112" s="4" t="s">
         <v>61</v>
       </c>
@@ -28878,7 +29445,7 @@
       <c r="X112" s="4"/>
       <c r="Y112" s="4"/>
     </row>
-    <row r="113" spans="12:25" x14ac:dyDescent="0.25">
+    <row r="113" spans="12:25" x14ac:dyDescent="0.45">
       <c r="L113" s="22" t="s">
         <v>72</v>
       </c>
@@ -28898,7 +29465,7 @@
       <c r="X113" s="22"/>
       <c r="Y113" s="22"/>
     </row>
-    <row r="114" spans="12:25" x14ac:dyDescent="0.25">
+    <row r="114" spans="12:25" x14ac:dyDescent="0.45">
       <c r="L114" s="4" t="s">
         <v>59</v>
       </c>
@@ -28920,7 +29487,7 @@
       <c r="X114" s="4"/>
       <c r="Y114" s="10"/>
     </row>
-    <row r="115" spans="12:25" x14ac:dyDescent="0.25">
+    <row r="115" spans="12:25" x14ac:dyDescent="0.45">
       <c r="L115" t="s">
         <v>60</v>
       </c>
@@ -28932,7 +29499,7 @@
       </c>
       <c r="Y115" s="9"/>
     </row>
-    <row r="116" spans="12:25" x14ac:dyDescent="0.25">
+    <row r="116" spans="12:25" x14ac:dyDescent="0.45">
       <c r="L116" s="4" t="s">
         <v>61</v>
       </c>
@@ -28954,7 +29521,7 @@
       <c r="X116" s="4"/>
       <c r="Y116" s="10"/>
     </row>
-    <row r="118" spans="12:25" x14ac:dyDescent="0.25">
+    <row r="118" spans="12:25" x14ac:dyDescent="0.45">
       <c r="L118" s="52" t="s">
         <v>35</v>
       </c>
@@ -28972,7 +29539,7 @@
       <c r="X118" s="52"/>
       <c r="Y118" s="52"/>
     </row>
-    <row r="119" spans="12:25" x14ac:dyDescent="0.25">
+    <row r="119" spans="12:25" x14ac:dyDescent="0.45">
       <c r="L119" s="22"/>
       <c r="M119" s="22">
         <v>0</v>
@@ -29014,7 +29581,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="120" spans="12:25" x14ac:dyDescent="0.25">
+    <row r="120" spans="12:25" x14ac:dyDescent="0.45">
       <c r="L120" s="4" t="s">
         <v>52</v>
       </c>
@@ -29058,7 +29625,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="121" spans="12:25" x14ac:dyDescent="0.25">
+    <row r="121" spans="12:25" x14ac:dyDescent="0.45">
       <c r="L121" s="22" t="s">
         <v>68</v>
       </c>
@@ -29084,7 +29651,7 @@
       <c r="X121" s="22"/>
       <c r="Y121" s="22"/>
     </row>
-    <row r="122" spans="12:25" x14ac:dyDescent="0.25">
+    <row r="122" spans="12:25" x14ac:dyDescent="0.45">
       <c r="L122" s="4" t="s">
         <v>59</v>
       </c>
@@ -29113,7 +29680,7 @@
       <c r="X122" s="4"/>
       <c r="Y122" s="10"/>
     </row>
-    <row r="123" spans="12:25" x14ac:dyDescent="0.25">
+    <row r="123" spans="12:25" x14ac:dyDescent="0.45">
       <c r="L123" t="s">
         <v>60</v>
       </c>
@@ -29135,7 +29702,7 @@
       </c>
       <c r="Y123" s="9"/>
     </row>
-    <row r="124" spans="12:25" x14ac:dyDescent="0.25">
+    <row r="124" spans="12:25" x14ac:dyDescent="0.45">
       <c r="L124" s="4" t="s">
         <v>61</v>
       </c>
@@ -29164,7 +29731,7 @@
       <c r="X124" s="4"/>
       <c r="Y124" s="10"/>
     </row>
-    <row r="125" spans="12:25" x14ac:dyDescent="0.25">
+    <row r="125" spans="12:25" x14ac:dyDescent="0.45">
       <c r="L125" s="22" t="s">
         <v>71</v>
       </c>
@@ -29190,7 +29757,7 @@
       <c r="X125" s="22"/>
       <c r="Y125" s="23"/>
     </row>
-    <row r="126" spans="12:25" x14ac:dyDescent="0.25">
+    <row r="126" spans="12:25" x14ac:dyDescent="0.45">
       <c r="L126" s="4" t="s">
         <v>59</v>
       </c>
@@ -29226,7 +29793,7 @@
       <c r="X126" s="4"/>
       <c r="Y126" s="4"/>
     </row>
-    <row r="127" spans="12:25" x14ac:dyDescent="0.25">
+    <row r="127" spans="12:25" x14ac:dyDescent="0.45">
       <c r="L127" t="s">
         <v>60</v>
       </c>
@@ -29257,7 +29824,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="128" spans="12:25" x14ac:dyDescent="0.25">
+    <row r="128" spans="12:25" x14ac:dyDescent="0.45">
       <c r="L128" s="4" t="s">
         <v>61</v>
       </c>
@@ -29293,7 +29860,7 @@
       <c r="X128" s="4"/>
       <c r="Y128" s="4"/>
     </row>
-    <row r="129" spans="12:25" x14ac:dyDescent="0.25">
+    <row r="129" spans="12:25" x14ac:dyDescent="0.45">
       <c r="L129" s="22" t="s">
         <v>72</v>
       </c>
@@ -29313,7 +29880,7 @@
       <c r="X129" s="22"/>
       <c r="Y129" s="22"/>
     </row>
-    <row r="130" spans="12:25" x14ac:dyDescent="0.25">
+    <row r="130" spans="12:25" x14ac:dyDescent="0.45">
       <c r="L130" s="4" t="s">
         <v>59</v>
       </c>
@@ -29335,7 +29902,7 @@
       <c r="X130" s="4"/>
       <c r="Y130" s="10"/>
     </row>
-    <row r="131" spans="12:25" x14ac:dyDescent="0.25">
+    <row r="131" spans="12:25" x14ac:dyDescent="0.45">
       <c r="L131" t="s">
         <v>60</v>
       </c>
@@ -29347,7 +29914,7 @@
       </c>
       <c r="Y131" s="9"/>
     </row>
-    <row r="132" spans="12:25" x14ac:dyDescent="0.25">
+    <row r="132" spans="12:25" x14ac:dyDescent="0.45">
       <c r="L132" s="4" t="s">
         <v>61</v>
       </c>
@@ -29369,7 +29936,7 @@
       <c r="X132" s="4"/>
       <c r="Y132" s="10"/>
     </row>
-    <row r="134" spans="12:25" x14ac:dyDescent="0.25">
+    <row r="134" spans="12:25" x14ac:dyDescent="0.45">
       <c r="L134" s="52" t="s">
         <v>27</v>
       </c>
@@ -29387,7 +29954,7 @@
       <c r="X134" s="52"/>
       <c r="Y134" s="52"/>
     </row>
-    <row r="135" spans="12:25" x14ac:dyDescent="0.25">
+    <row r="135" spans="12:25" x14ac:dyDescent="0.45">
       <c r="L135" s="22"/>
       <c r="M135" s="22">
         <v>0</v>
@@ -29429,7 +29996,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="136" spans="12:25" x14ac:dyDescent="0.25">
+    <row r="136" spans="12:25" x14ac:dyDescent="0.45">
       <c r="L136" s="4" t="s">
         <v>53</v>
       </c>
@@ -29473,7 +30040,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="137" spans="12:25" x14ac:dyDescent="0.25">
+    <row r="137" spans="12:25" x14ac:dyDescent="0.45">
       <c r="L137" t="s">
         <v>52</v>
       </c>
@@ -29517,7 +30084,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="138" spans="12:25" x14ac:dyDescent="0.25">
+    <row r="138" spans="12:25" x14ac:dyDescent="0.45">
       <c r="L138" s="22" t="s">
         <v>68</v>
       </c>
@@ -29543,7 +30110,7 @@
       <c r="X138" s="22"/>
       <c r="Y138" s="22"/>
     </row>
-    <row r="139" spans="12:25" x14ac:dyDescent="0.25">
+    <row r="139" spans="12:25" x14ac:dyDescent="0.45">
       <c r="L139" s="4" t="s">
         <v>59</v>
       </c>
@@ -29572,7 +30139,7 @@
       <c r="X139" s="4"/>
       <c r="Y139" s="10"/>
     </row>
-    <row r="140" spans="12:25" x14ac:dyDescent="0.25">
+    <row r="140" spans="12:25" x14ac:dyDescent="0.45">
       <c r="L140" t="s">
         <v>60</v>
       </c>
@@ -29594,7 +30161,7 @@
       </c>
       <c r="Y140" s="9"/>
     </row>
-    <row r="141" spans="12:25" x14ac:dyDescent="0.25">
+    <row r="141" spans="12:25" x14ac:dyDescent="0.45">
       <c r="L141" s="4" t="s">
         <v>61</v>
       </c>
@@ -29623,7 +30190,7 @@
       <c r="X141" s="4"/>
       <c r="Y141" s="10"/>
     </row>
-    <row r="142" spans="12:25" x14ac:dyDescent="0.25">
+    <row r="142" spans="12:25" x14ac:dyDescent="0.45">
       <c r="L142" s="22" t="s">
         <v>71</v>
       </c>
@@ -29649,7 +30216,7 @@
       <c r="X142" s="22"/>
       <c r="Y142" s="23"/>
     </row>
-    <row r="143" spans="12:25" x14ac:dyDescent="0.25">
+    <row r="143" spans="12:25" x14ac:dyDescent="0.45">
       <c r="L143" s="4" t="s">
         <v>59</v>
       </c>
@@ -29685,7 +30252,7 @@
       <c r="X143" s="4"/>
       <c r="Y143" s="4"/>
     </row>
-    <row r="144" spans="12:25" x14ac:dyDescent="0.25">
+    <row r="144" spans="12:25" x14ac:dyDescent="0.45">
       <c r="L144" t="s">
         <v>60</v>
       </c>
@@ -29716,7 +30283,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="145" spans="12:25" x14ac:dyDescent="0.25">
+    <row r="145" spans="12:25" x14ac:dyDescent="0.45">
       <c r="L145" s="4" t="s">
         <v>61</v>
       </c>
@@ -29752,7 +30319,7 @@
       <c r="X145" s="4"/>
       <c r="Y145" s="4"/>
     </row>
-    <row r="146" spans="12:25" x14ac:dyDescent="0.25">
+    <row r="146" spans="12:25" x14ac:dyDescent="0.45">
       <c r="L146" s="22" t="s">
         <v>72</v>
       </c>
@@ -29772,7 +30339,7 @@
       <c r="X146" s="22"/>
       <c r="Y146" s="22"/>
     </row>
-    <row r="147" spans="12:25" x14ac:dyDescent="0.25">
+    <row r="147" spans="12:25" x14ac:dyDescent="0.45">
       <c r="L147" s="4" t="s">
         <v>59</v>
       </c>
@@ -29794,7 +30361,7 @@
       <c r="X147" s="4"/>
       <c r="Y147" s="10"/>
     </row>
-    <row r="148" spans="12:25" x14ac:dyDescent="0.25">
+    <row r="148" spans="12:25" x14ac:dyDescent="0.45">
       <c r="L148" t="s">
         <v>60</v>
       </c>
@@ -29806,7 +30373,7 @@
       </c>
       <c r="Y148" s="9"/>
     </row>
-    <row r="149" spans="12:25" x14ac:dyDescent="0.25">
+    <row r="149" spans="12:25" x14ac:dyDescent="0.45">
       <c r="L149" s="4" t="s">
         <v>61</v>
       </c>
@@ -29828,7 +30395,7 @@
       <c r="X149" s="4"/>
       <c r="Y149" s="10"/>
     </row>
-    <row r="151" spans="12:25" x14ac:dyDescent="0.25">
+    <row r="151" spans="12:25" x14ac:dyDescent="0.45">
       <c r="L151" s="52" t="s">
         <v>30</v>
       </c>
@@ -29846,7 +30413,7 @@
       <c r="X151" s="52"/>
       <c r="Y151" s="52"/>
     </row>
-    <row r="152" spans="12:25" x14ac:dyDescent="0.25">
+    <row r="152" spans="12:25" x14ac:dyDescent="0.45">
       <c r="L152" s="22"/>
       <c r="M152" s="22">
         <v>0</v>
@@ -29888,7 +30455,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="153" spans="12:25" x14ac:dyDescent="0.25">
+    <row r="153" spans="12:25" x14ac:dyDescent="0.45">
       <c r="L153" s="4" t="s">
         <v>52</v>
       </c>
@@ -29932,7 +30499,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="154" spans="12:25" x14ac:dyDescent="0.25">
+    <row r="154" spans="12:25" x14ac:dyDescent="0.45">
       <c r="L154" s="22" t="s">
         <v>68</v>
       </c>
@@ -29958,7 +30525,7 @@
       <c r="X154" s="22"/>
       <c r="Y154" s="22"/>
     </row>
-    <row r="155" spans="12:25" x14ac:dyDescent="0.25">
+    <row r="155" spans="12:25" x14ac:dyDescent="0.45">
       <c r="L155" s="4" t="s">
         <v>59</v>
       </c>
@@ -29987,7 +30554,7 @@
       <c r="X155" s="4"/>
       <c r="Y155" s="10"/>
     </row>
-    <row r="156" spans="12:25" x14ac:dyDescent="0.25">
+    <row r="156" spans="12:25" x14ac:dyDescent="0.45">
       <c r="L156" t="s">
         <v>60</v>
       </c>
@@ -30009,7 +30576,7 @@
       </c>
       <c r="Y156" s="9"/>
     </row>
-    <row r="157" spans="12:25" x14ac:dyDescent="0.25">
+    <row r="157" spans="12:25" x14ac:dyDescent="0.45">
       <c r="L157" s="4" t="s">
         <v>61</v>
       </c>
@@ -30038,7 +30605,7 @@
       <c r="X157" s="4"/>
       <c r="Y157" s="10"/>
     </row>
-    <row r="158" spans="12:25" x14ac:dyDescent="0.25">
+    <row r="158" spans="12:25" x14ac:dyDescent="0.45">
       <c r="L158" s="22" t="s">
         <v>71</v>
       </c>
@@ -30064,7 +30631,7 @@
       <c r="X158" s="22"/>
       <c r="Y158" s="23"/>
     </row>
-    <row r="159" spans="12:25" x14ac:dyDescent="0.25">
+    <row r="159" spans="12:25" x14ac:dyDescent="0.45">
       <c r="L159" s="4" t="s">
         <v>59</v>
       </c>
@@ -30100,7 +30667,7 @@
       <c r="X159" s="4"/>
       <c r="Y159" s="4"/>
     </row>
-    <row r="160" spans="12:25" x14ac:dyDescent="0.25">
+    <row r="160" spans="12:25" x14ac:dyDescent="0.45">
       <c r="L160" t="s">
         <v>60</v>
       </c>
@@ -30131,7 +30698,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="161" spans="12:25" x14ac:dyDescent="0.25">
+    <row r="161" spans="12:25" x14ac:dyDescent="0.45">
       <c r="L161" s="4" t="s">
         <v>61</v>
       </c>
@@ -30167,7 +30734,7 @@
       <c r="X161" s="4"/>
       <c r="Y161" s="4"/>
     </row>
-    <row r="162" spans="12:25" x14ac:dyDescent="0.25">
+    <row r="162" spans="12:25" x14ac:dyDescent="0.45">
       <c r="L162" s="22" t="s">
         <v>72</v>
       </c>
@@ -30187,7 +30754,7 @@
       <c r="X162" s="22"/>
       <c r="Y162" s="22"/>
     </row>
-    <row r="163" spans="12:25" x14ac:dyDescent="0.25">
+    <row r="163" spans="12:25" x14ac:dyDescent="0.45">
       <c r="L163" s="4" t="s">
         <v>59</v>
       </c>
@@ -30209,7 +30776,7 @@
       <c r="X163" s="4"/>
       <c r="Y163" s="10"/>
     </row>
-    <row r="164" spans="12:25" x14ac:dyDescent="0.25">
+    <row r="164" spans="12:25" x14ac:dyDescent="0.45">
       <c r="L164" t="s">
         <v>60</v>
       </c>
@@ -30221,7 +30788,7 @@
       </c>
       <c r="Y164" s="9"/>
     </row>
-    <row r="165" spans="12:25" x14ac:dyDescent="0.25">
+    <row r="165" spans="12:25" x14ac:dyDescent="0.45">
       <c r="L165" s="4" t="s">
         <v>61</v>
       </c>
@@ -30243,7 +30810,7 @@
       <c r="X165" s="4"/>
       <c r="Y165" s="10"/>
     </row>
-    <row r="167" spans="12:25" x14ac:dyDescent="0.25">
+    <row r="167" spans="12:25" x14ac:dyDescent="0.45">
       <c r="L167" s="52" t="s">
         <v>33</v>
       </c>
@@ -30261,7 +30828,7 @@
       <c r="X167" s="52"/>
       <c r="Y167" s="52"/>
     </row>
-    <row r="168" spans="12:25" x14ac:dyDescent="0.25">
+    <row r="168" spans="12:25" x14ac:dyDescent="0.45">
       <c r="L168" s="22"/>
       <c r="M168" s="22">
         <v>0</v>
@@ -30303,7 +30870,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="169" spans="12:25" x14ac:dyDescent="0.25">
+    <row r="169" spans="12:25" x14ac:dyDescent="0.45">
       <c r="L169" s="4" t="s">
         <v>53</v>
       </c>
@@ -30347,7 +30914,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="170" spans="12:25" x14ac:dyDescent="0.25">
+    <row r="170" spans="12:25" x14ac:dyDescent="0.45">
       <c r="L170" t="s">
         <v>52</v>
       </c>
@@ -30391,7 +30958,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="171" spans="12:25" x14ac:dyDescent="0.25">
+    <row r="171" spans="12:25" x14ac:dyDescent="0.45">
       <c r="L171" s="22" t="s">
         <v>68</v>
       </c>
@@ -30417,7 +30984,7 @@
       <c r="X171" s="22"/>
       <c r="Y171" s="22"/>
     </row>
-    <row r="172" spans="12:25" x14ac:dyDescent="0.25">
+    <row r="172" spans="12:25" x14ac:dyDescent="0.45">
       <c r="L172" s="4" t="s">
         <v>59</v>
       </c>
@@ -30446,7 +31013,7 @@
       <c r="X172" s="4"/>
       <c r="Y172" s="10"/>
     </row>
-    <row r="173" spans="12:25" x14ac:dyDescent="0.25">
+    <row r="173" spans="12:25" x14ac:dyDescent="0.45">
       <c r="L173" t="s">
         <v>60</v>
       </c>
@@ -30468,7 +31035,7 @@
       </c>
       <c r="Y173" s="9"/>
     </row>
-    <row r="174" spans="12:25" x14ac:dyDescent="0.25">
+    <row r="174" spans="12:25" x14ac:dyDescent="0.45">
       <c r="L174" s="4" t="s">
         <v>61</v>
       </c>
@@ -30497,7 +31064,7 @@
       <c r="X174" s="4"/>
       <c r="Y174" s="10"/>
     </row>
-    <row r="175" spans="12:25" x14ac:dyDescent="0.25">
+    <row r="175" spans="12:25" x14ac:dyDescent="0.45">
       <c r="L175" s="22" t="s">
         <v>71</v>
       </c>
@@ -30523,7 +31090,7 @@
       <c r="X175" s="22"/>
       <c r="Y175" s="23"/>
     </row>
-    <row r="176" spans="12:25" x14ac:dyDescent="0.25">
+    <row r="176" spans="12:25" x14ac:dyDescent="0.45">
       <c r="L176" s="4" t="s">
         <v>59</v>
       </c>
@@ -30559,7 +31126,7 @@
       <c r="X176" s="4"/>
       <c r="Y176" s="4"/>
     </row>
-    <row r="177" spans="12:25" x14ac:dyDescent="0.25">
+    <row r="177" spans="12:25" x14ac:dyDescent="0.45">
       <c r="L177" t="s">
         <v>60</v>
       </c>
@@ -30590,7 +31157,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="178" spans="12:25" x14ac:dyDescent="0.25">
+    <row r="178" spans="12:25" x14ac:dyDescent="0.45">
       <c r="L178" s="4" t="s">
         <v>61</v>
       </c>
@@ -30626,7 +31193,7 @@
       <c r="X178" s="4"/>
       <c r="Y178" s="4"/>
     </row>
-    <row r="179" spans="12:25" x14ac:dyDescent="0.25">
+    <row r="179" spans="12:25" x14ac:dyDescent="0.45">
       <c r="L179" s="22" t="s">
         <v>72</v>
       </c>
@@ -30646,7 +31213,7 @@
       <c r="X179" s="22"/>
       <c r="Y179" s="22"/>
     </row>
-    <row r="180" spans="12:25" x14ac:dyDescent="0.25">
+    <row r="180" spans="12:25" x14ac:dyDescent="0.45">
       <c r="L180" s="4" t="s">
         <v>59</v>
       </c>
@@ -30668,7 +31235,7 @@
       <c r="X180" s="4"/>
       <c r="Y180" s="10"/>
     </row>
-    <row r="181" spans="12:25" x14ac:dyDescent="0.25">
+    <row r="181" spans="12:25" x14ac:dyDescent="0.45">
       <c r="L181" t="s">
         <v>60</v>
       </c>
@@ -30680,7 +31247,7 @@
       </c>
       <c r="Y181" s="9"/>
     </row>
-    <row r="182" spans="12:25" x14ac:dyDescent="0.25">
+    <row r="182" spans="12:25" x14ac:dyDescent="0.45">
       <c r="L182" s="4" t="s">
         <v>61</v>
       </c>
@@ -30702,7 +31269,7 @@
       <c r="X182" s="4"/>
       <c r="Y182" s="10"/>
     </row>
-    <row r="184" spans="12:25" x14ac:dyDescent="0.25">
+    <row r="184" spans="12:25" x14ac:dyDescent="0.45">
       <c r="L184" s="52" t="s">
         <v>36</v>
       </c>
@@ -30720,7 +31287,7 @@
       <c r="X184" s="52"/>
       <c r="Y184" s="52"/>
     </row>
-    <row r="185" spans="12:25" x14ac:dyDescent="0.25">
+    <row r="185" spans="12:25" x14ac:dyDescent="0.45">
       <c r="L185" s="22"/>
       <c r="M185" s="22">
         <v>0</v>
@@ -30762,7 +31329,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="186" spans="12:25" x14ac:dyDescent="0.25">
+    <row r="186" spans="12:25" x14ac:dyDescent="0.45">
       <c r="L186" s="4" t="s">
         <v>52</v>
       </c>
@@ -30806,7 +31373,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="187" spans="12:25" x14ac:dyDescent="0.25">
+    <row r="187" spans="12:25" x14ac:dyDescent="0.45">
       <c r="L187" s="22" t="s">
         <v>68</v>
       </c>
@@ -30832,7 +31399,7 @@
       <c r="X187" s="22"/>
       <c r="Y187" s="22"/>
     </row>
-    <row r="188" spans="12:25" x14ac:dyDescent="0.25">
+    <row r="188" spans="12:25" x14ac:dyDescent="0.45">
       <c r="L188" s="4" t="s">
         <v>59</v>
       </c>
@@ -30861,7 +31428,7 @@
       <c r="X188" s="4"/>
       <c r="Y188" s="10"/>
     </row>
-    <row r="189" spans="12:25" x14ac:dyDescent="0.25">
+    <row r="189" spans="12:25" x14ac:dyDescent="0.45">
       <c r="L189" t="s">
         <v>60</v>
       </c>
@@ -30883,7 +31450,7 @@
       </c>
       <c r="Y189" s="9"/>
     </row>
-    <row r="190" spans="12:25" x14ac:dyDescent="0.25">
+    <row r="190" spans="12:25" x14ac:dyDescent="0.45">
       <c r="L190" s="4" t="s">
         <v>61</v>
       </c>
@@ -30912,7 +31479,7 @@
       <c r="X190" s="4"/>
       <c r="Y190" s="10"/>
     </row>
-    <row r="191" spans="12:25" x14ac:dyDescent="0.25">
+    <row r="191" spans="12:25" x14ac:dyDescent="0.45">
       <c r="L191" s="22" t="s">
         <v>71</v>
       </c>
@@ -30938,7 +31505,7 @@
       <c r="X191" s="22"/>
       <c r="Y191" s="23"/>
     </row>
-    <row r="192" spans="12:25" x14ac:dyDescent="0.25">
+    <row r="192" spans="12:25" x14ac:dyDescent="0.45">
       <c r="L192" s="4" t="s">
         <v>59</v>
       </c>
@@ -30974,7 +31541,7 @@
       <c r="X192" s="4"/>
       <c r="Y192" s="4"/>
     </row>
-    <row r="193" spans="12:25" x14ac:dyDescent="0.25">
+    <row r="193" spans="12:25" x14ac:dyDescent="0.45">
       <c r="L193" t="s">
         <v>60</v>
       </c>
@@ -31005,7 +31572,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="194" spans="12:25" x14ac:dyDescent="0.25">
+    <row r="194" spans="12:25" x14ac:dyDescent="0.45">
       <c r="L194" s="4" t="s">
         <v>61</v>
       </c>
@@ -31041,7 +31608,7 @@
       <c r="X194" s="4"/>
       <c r="Y194" s="4"/>
     </row>
-    <row r="195" spans="12:25" x14ac:dyDescent="0.25">
+    <row r="195" spans="12:25" x14ac:dyDescent="0.45">
       <c r="L195" s="22" t="s">
         <v>72</v>
       </c>
@@ -31061,7 +31628,7 @@
       <c r="X195" s="22"/>
       <c r="Y195" s="22"/>
     </row>
-    <row r="196" spans="12:25" x14ac:dyDescent="0.25">
+    <row r="196" spans="12:25" x14ac:dyDescent="0.45">
       <c r="L196" s="4" t="s">
         <v>59</v>
       </c>
@@ -31083,7 +31650,7 @@
       <c r="X196" s="4"/>
       <c r="Y196" s="10"/>
     </row>
-    <row r="197" spans="12:25" x14ac:dyDescent="0.25">
+    <row r="197" spans="12:25" x14ac:dyDescent="0.45">
       <c r="L197" t="s">
         <v>60</v>
       </c>
@@ -31095,7 +31662,7 @@
       </c>
       <c r="Y197" s="9"/>
     </row>
-    <row r="198" spans="12:25" x14ac:dyDescent="0.25">
+    <row r="198" spans="12:25" x14ac:dyDescent="0.45">
       <c r="L198" s="4" t="s">
         <v>61</v>
       </c>
@@ -31117,7 +31684,7 @@
       <c r="X198" s="4"/>
       <c r="Y198" s="10"/>
     </row>
-    <row r="200" spans="12:25" x14ac:dyDescent="0.25">
+    <row r="200" spans="12:25" x14ac:dyDescent="0.45">
       <c r="L200" s="52" t="s">
         <v>28</v>
       </c>
@@ -31135,7 +31702,7 @@
       <c r="X200" s="52"/>
       <c r="Y200" s="52"/>
     </row>
-    <row r="201" spans="12:25" x14ac:dyDescent="0.25">
+    <row r="201" spans="12:25" x14ac:dyDescent="0.45">
       <c r="L201" s="22"/>
       <c r="M201" s="22">
         <v>0</v>
@@ -31177,7 +31744,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="202" spans="12:25" x14ac:dyDescent="0.25">
+    <row r="202" spans="12:25" x14ac:dyDescent="0.45">
       <c r="L202" s="4" t="s">
         <v>53</v>
       </c>
@@ -31221,7 +31788,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="203" spans="12:25" x14ac:dyDescent="0.25">
+    <row r="203" spans="12:25" x14ac:dyDescent="0.45">
       <c r="L203" t="s">
         <v>52</v>
       </c>
@@ -31265,7 +31832,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="204" spans="12:25" x14ac:dyDescent="0.25">
+    <row r="204" spans="12:25" x14ac:dyDescent="0.45">
       <c r="L204" s="22" t="s">
         <v>68</v>
       </c>
@@ -31291,7 +31858,7 @@
       <c r="X204" s="22"/>
       <c r="Y204" s="22"/>
     </row>
-    <row r="205" spans="12:25" x14ac:dyDescent="0.25">
+    <row r="205" spans="12:25" x14ac:dyDescent="0.45">
       <c r="L205" s="4" t="s">
         <v>59</v>
       </c>
@@ -31320,7 +31887,7 @@
       <c r="X205" s="4"/>
       <c r="Y205" s="10"/>
     </row>
-    <row r="206" spans="12:25" x14ac:dyDescent="0.25">
+    <row r="206" spans="12:25" x14ac:dyDescent="0.45">
       <c r="L206" t="s">
         <v>60</v>
       </c>
@@ -31342,7 +31909,7 @@
       </c>
       <c r="Y206" s="9"/>
     </row>
-    <row r="207" spans="12:25" x14ac:dyDescent="0.25">
+    <row r="207" spans="12:25" x14ac:dyDescent="0.45">
       <c r="L207" s="4" t="s">
         <v>61</v>
       </c>
@@ -31371,7 +31938,7 @@
       <c r="X207" s="4"/>
       <c r="Y207" s="10"/>
     </row>
-    <row r="208" spans="12:25" x14ac:dyDescent="0.25">
+    <row r="208" spans="12:25" x14ac:dyDescent="0.45">
       <c r="L208" s="22" t="s">
         <v>71</v>
       </c>
@@ -31397,7 +31964,7 @@
       <c r="X208" s="22"/>
       <c r="Y208" s="23"/>
     </row>
-    <row r="209" spans="12:25" x14ac:dyDescent="0.25">
+    <row r="209" spans="12:25" x14ac:dyDescent="0.45">
       <c r="L209" s="4" t="s">
         <v>59</v>
       </c>
@@ -31433,7 +32000,7 @@
       <c r="X209" s="4"/>
       <c r="Y209" s="4"/>
     </row>
-    <row r="210" spans="12:25" x14ac:dyDescent="0.25">
+    <row r="210" spans="12:25" x14ac:dyDescent="0.45">
       <c r="L210" t="s">
         <v>60</v>
       </c>
@@ -31464,7 +32031,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="211" spans="12:25" x14ac:dyDescent="0.25">
+    <row r="211" spans="12:25" x14ac:dyDescent="0.45">
       <c r="L211" s="4" t="s">
         <v>61</v>
       </c>
@@ -31500,7 +32067,7 @@
       <c r="X211" s="4"/>
       <c r="Y211" s="4"/>
     </row>
-    <row r="212" spans="12:25" x14ac:dyDescent="0.25">
+    <row r="212" spans="12:25" x14ac:dyDescent="0.45">
       <c r="L212" s="22" t="s">
         <v>72</v>
       </c>
@@ -31520,7 +32087,7 @@
       <c r="X212" s="22"/>
       <c r="Y212" s="22"/>
     </row>
-    <row r="213" spans="12:25" x14ac:dyDescent="0.25">
+    <row r="213" spans="12:25" x14ac:dyDescent="0.45">
       <c r="L213" s="4" t="s">
         <v>59</v>
       </c>
@@ -31542,7 +32109,7 @@
       <c r="X213" s="4"/>
       <c r="Y213" s="10"/>
     </row>
-    <row r="214" spans="12:25" x14ac:dyDescent="0.25">
+    <row r="214" spans="12:25" x14ac:dyDescent="0.45">
       <c r="L214" t="s">
         <v>60</v>
       </c>
@@ -31554,7 +32121,7 @@
       </c>
       <c r="Y214" s="9"/>
     </row>
-    <row r="215" spans="12:25" x14ac:dyDescent="0.25">
+    <row r="215" spans="12:25" x14ac:dyDescent="0.45">
       <c r="L215" s="4" t="s">
         <v>61</v>
       </c>
@@ -31576,7 +32143,7 @@
       <c r="X215" s="4"/>
       <c r="Y215" s="10"/>
     </row>
-    <row r="217" spans="12:25" x14ac:dyDescent="0.25">
+    <row r="217" spans="12:25" x14ac:dyDescent="0.45">
       <c r="L217" s="52" t="s">
         <v>31</v>
       </c>
@@ -31594,7 +32161,7 @@
       <c r="X217" s="52"/>
       <c r="Y217" s="52"/>
     </row>
-    <row r="218" spans="12:25" x14ac:dyDescent="0.25">
+    <row r="218" spans="12:25" x14ac:dyDescent="0.45">
       <c r="L218" s="22"/>
       <c r="M218" s="22">
         <v>0</v>
@@ -31636,7 +32203,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="219" spans="12:25" x14ac:dyDescent="0.25">
+    <row r="219" spans="12:25" x14ac:dyDescent="0.45">
       <c r="L219" s="4" t="s">
         <v>52</v>
       </c>
@@ -31680,7 +32247,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="220" spans="12:25" x14ac:dyDescent="0.25">
+    <row r="220" spans="12:25" x14ac:dyDescent="0.45">
       <c r="L220" s="22" t="s">
         <v>68</v>
       </c>
@@ -31706,7 +32273,7 @@
       <c r="X220" s="22"/>
       <c r="Y220" s="22"/>
     </row>
-    <row r="221" spans="12:25" x14ac:dyDescent="0.25">
+    <row r="221" spans="12:25" x14ac:dyDescent="0.45">
       <c r="L221" s="4" t="s">
         <v>59</v>
       </c>
@@ -31735,7 +32302,7 @@
       <c r="X221" s="4"/>
       <c r="Y221" s="10"/>
     </row>
-    <row r="222" spans="12:25" x14ac:dyDescent="0.25">
+    <row r="222" spans="12:25" x14ac:dyDescent="0.45">
       <c r="L222" t="s">
         <v>60</v>
       </c>
@@ -31757,7 +32324,7 @@
       </c>
       <c r="Y222" s="9"/>
     </row>
-    <row r="223" spans="12:25" x14ac:dyDescent="0.25">
+    <row r="223" spans="12:25" x14ac:dyDescent="0.45">
       <c r="L223" s="4" t="s">
         <v>61</v>
       </c>
@@ -31786,7 +32353,7 @@
       <c r="X223" s="4"/>
       <c r="Y223" s="10"/>
     </row>
-    <row r="224" spans="12:25" x14ac:dyDescent="0.25">
+    <row r="224" spans="12:25" x14ac:dyDescent="0.45">
       <c r="L224" s="22" t="s">
         <v>71</v>
       </c>
@@ -31812,7 +32379,7 @@
       <c r="X224" s="22"/>
       <c r="Y224" s="23"/>
     </row>
-    <row r="225" spans="12:25" x14ac:dyDescent="0.25">
+    <row r="225" spans="12:25" x14ac:dyDescent="0.45">
       <c r="L225" s="4" t="s">
         <v>59</v>
       </c>
@@ -31848,7 +32415,7 @@
       <c r="X225" s="4"/>
       <c r="Y225" s="4"/>
     </row>
-    <row r="226" spans="12:25" x14ac:dyDescent="0.25">
+    <row r="226" spans="12:25" x14ac:dyDescent="0.45">
       <c r="L226" t="s">
         <v>60</v>
       </c>
@@ -31879,7 +32446,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="227" spans="12:25" x14ac:dyDescent="0.25">
+    <row r="227" spans="12:25" x14ac:dyDescent="0.45">
       <c r="L227" s="4" t="s">
         <v>61</v>
       </c>
@@ -31915,7 +32482,7 @@
       <c r="X227" s="4"/>
       <c r="Y227" s="4"/>
     </row>
-    <row r="228" spans="12:25" x14ac:dyDescent="0.25">
+    <row r="228" spans="12:25" x14ac:dyDescent="0.45">
       <c r="L228" s="22" t="s">
         <v>72</v>
       </c>
@@ -31935,7 +32502,7 @@
       <c r="X228" s="22"/>
       <c r="Y228" s="22"/>
     </row>
-    <row r="229" spans="12:25" x14ac:dyDescent="0.25">
+    <row r="229" spans="12:25" x14ac:dyDescent="0.45">
       <c r="L229" s="4" t="s">
         <v>59</v>
       </c>
@@ -31957,7 +32524,7 @@
       <c r="X229" s="4"/>
       <c r="Y229" s="10"/>
     </row>
-    <row r="230" spans="12:25" x14ac:dyDescent="0.25">
+    <row r="230" spans="12:25" x14ac:dyDescent="0.45">
       <c r="L230" t="s">
         <v>60</v>
       </c>
@@ -31969,7 +32536,7 @@
       </c>
       <c r="Y230" s="9"/>
     </row>
-    <row r="231" spans="12:25" x14ac:dyDescent="0.25">
+    <row r="231" spans="12:25" x14ac:dyDescent="0.45">
       <c r="L231" s="4" t="s">
         <v>61</v>
       </c>
@@ -31991,7 +32558,7 @@
       <c r="X231" s="4"/>
       <c r="Y231" s="10"/>
     </row>
-    <row r="233" spans="12:25" x14ac:dyDescent="0.25">
+    <row r="233" spans="12:25" x14ac:dyDescent="0.45">
       <c r="L233" s="52" t="s">
         <v>34</v>
       </c>
@@ -32009,7 +32576,7 @@
       <c r="X233" s="52"/>
       <c r="Y233" s="52"/>
     </row>
-    <row r="234" spans="12:25" x14ac:dyDescent="0.25">
+    <row r="234" spans="12:25" x14ac:dyDescent="0.45">
       <c r="L234" s="22"/>
       <c r="M234" s="22">
         <v>0</v>
@@ -32051,7 +32618,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="235" spans="12:25" x14ac:dyDescent="0.25">
+    <row r="235" spans="12:25" x14ac:dyDescent="0.45">
       <c r="L235" s="4" t="s">
         <v>53</v>
       </c>
@@ -32095,7 +32662,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="236" spans="12:25" x14ac:dyDescent="0.25">
+    <row r="236" spans="12:25" x14ac:dyDescent="0.45">
       <c r="L236" t="s">
         <v>52</v>
       </c>
@@ -32139,7 +32706,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="237" spans="12:25" x14ac:dyDescent="0.25">
+    <row r="237" spans="12:25" x14ac:dyDescent="0.45">
       <c r="L237" s="22" t="s">
         <v>68</v>
       </c>
@@ -32165,7 +32732,7 @@
       <c r="X237" s="22"/>
       <c r="Y237" s="22"/>
     </row>
-    <row r="238" spans="12:25" x14ac:dyDescent="0.25">
+    <row r="238" spans="12:25" x14ac:dyDescent="0.45">
       <c r="L238" s="4" t="s">
         <v>59</v>
       </c>
@@ -32194,7 +32761,7 @@
       <c r="X238" s="4"/>
       <c r="Y238" s="10"/>
     </row>
-    <row r="239" spans="12:25" x14ac:dyDescent="0.25">
+    <row r="239" spans="12:25" x14ac:dyDescent="0.45">
       <c r="L239" t="s">
         <v>60</v>
       </c>
@@ -32216,7 +32783,7 @@
       </c>
       <c r="Y239" s="9"/>
     </row>
-    <row r="240" spans="12:25" x14ac:dyDescent="0.25">
+    <row r="240" spans="12:25" x14ac:dyDescent="0.45">
       <c r="L240" s="4" t="s">
         <v>61</v>
       </c>
@@ -32245,7 +32812,7 @@
       <c r="X240" s="4"/>
       <c r="Y240" s="10"/>
     </row>
-    <row r="241" spans="12:25" x14ac:dyDescent="0.25">
+    <row r="241" spans="12:25" x14ac:dyDescent="0.45">
       <c r="L241" s="22" t="s">
         <v>71</v>
       </c>
@@ -32271,7 +32838,7 @@
       <c r="X241" s="22"/>
       <c r="Y241" s="23"/>
     </row>
-    <row r="242" spans="12:25" x14ac:dyDescent="0.25">
+    <row r="242" spans="12:25" x14ac:dyDescent="0.45">
       <c r="L242" s="4" t="s">
         <v>59</v>
       </c>
@@ -32307,7 +32874,7 @@
       <c r="X242" s="4"/>
       <c r="Y242" s="4"/>
     </row>
-    <row r="243" spans="12:25" x14ac:dyDescent="0.25">
+    <row r="243" spans="12:25" x14ac:dyDescent="0.45">
       <c r="L243" t="s">
         <v>60</v>
       </c>
@@ -32338,7 +32905,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="244" spans="12:25" x14ac:dyDescent="0.25">
+    <row r="244" spans="12:25" x14ac:dyDescent="0.45">
       <c r="L244" s="4" t="s">
         <v>61</v>
       </c>
@@ -32374,7 +32941,7 @@
       <c r="X244" s="4"/>
       <c r="Y244" s="4"/>
     </row>
-    <row r="245" spans="12:25" x14ac:dyDescent="0.25">
+    <row r="245" spans="12:25" x14ac:dyDescent="0.45">
       <c r="L245" s="22" t="s">
         <v>72</v>
       </c>
@@ -32394,7 +32961,7 @@
       <c r="X245" s="22"/>
       <c r="Y245" s="22"/>
     </row>
-    <row r="246" spans="12:25" x14ac:dyDescent="0.25">
+    <row r="246" spans="12:25" x14ac:dyDescent="0.45">
       <c r="L246" s="4" t="s">
         <v>59</v>
       </c>
@@ -32416,7 +32983,7 @@
       <c r="X246" s="4"/>
       <c r="Y246" s="10"/>
     </row>
-    <row r="247" spans="12:25" x14ac:dyDescent="0.25">
+    <row r="247" spans="12:25" x14ac:dyDescent="0.45">
       <c r="L247" t="s">
         <v>60</v>
       </c>
@@ -32428,7 +32995,7 @@
       </c>
       <c r="Y247" s="9"/>
     </row>
-    <row r="248" spans="12:25" x14ac:dyDescent="0.25">
+    <row r="248" spans="12:25" x14ac:dyDescent="0.45">
       <c r="L248" s="4" t="s">
         <v>61</v>
       </c>
@@ -32450,7 +33017,7 @@
       <c r="X248" s="4"/>
       <c r="Y248" s="10"/>
     </row>
-    <row r="250" spans="12:25" x14ac:dyDescent="0.25">
+    <row r="250" spans="12:25" x14ac:dyDescent="0.45">
       <c r="L250" s="52" t="s">
         <v>37</v>
       </c>
@@ -32468,7 +33035,7 @@
       <c r="X250" s="52"/>
       <c r="Y250" s="52"/>
     </row>
-    <row r="251" spans="12:25" x14ac:dyDescent="0.25">
+    <row r="251" spans="12:25" x14ac:dyDescent="0.45">
       <c r="L251" s="22"/>
       <c r="M251" s="22">
         <v>0</v>
@@ -32510,7 +33077,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="252" spans="12:25" x14ac:dyDescent="0.25">
+    <row r="252" spans="12:25" x14ac:dyDescent="0.45">
       <c r="L252" s="4" t="s">
         <v>52</v>
       </c>
@@ -32554,7 +33121,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="253" spans="12:25" x14ac:dyDescent="0.25">
+    <row r="253" spans="12:25" x14ac:dyDescent="0.45">
       <c r="L253" s="22" t="s">
         <v>68</v>
       </c>
@@ -32580,7 +33147,7 @@
       <c r="X253" s="22"/>
       <c r="Y253" s="22"/>
     </row>
-    <row r="254" spans="12:25" x14ac:dyDescent="0.25">
+    <row r="254" spans="12:25" x14ac:dyDescent="0.45">
       <c r="L254" s="4" t="s">
         <v>59</v>
       </c>
@@ -32609,7 +33176,7 @@
       <c r="X254" s="4"/>
       <c r="Y254" s="10"/>
     </row>
-    <row r="255" spans="12:25" x14ac:dyDescent="0.25">
+    <row r="255" spans="12:25" x14ac:dyDescent="0.45">
       <c r="L255" t="s">
         <v>60</v>
       </c>
@@ -32631,7 +33198,7 @@
       </c>
       <c r="Y255" s="9"/>
     </row>
-    <row r="256" spans="12:25" x14ac:dyDescent="0.25">
+    <row r="256" spans="12:25" x14ac:dyDescent="0.45">
       <c r="L256" s="4" t="s">
         <v>61</v>
       </c>
@@ -32660,7 +33227,7 @@
       <c r="X256" s="4"/>
       <c r="Y256" s="10"/>
     </row>
-    <row r="257" spans="12:25" x14ac:dyDescent="0.25">
+    <row r="257" spans="12:25" x14ac:dyDescent="0.45">
       <c r="L257" s="22" t="s">
         <v>71</v>
       </c>
@@ -32686,7 +33253,7 @@
       <c r="X257" s="22"/>
       <c r="Y257" s="23"/>
     </row>
-    <row r="258" spans="12:25" x14ac:dyDescent="0.25">
+    <row r="258" spans="12:25" x14ac:dyDescent="0.45">
       <c r="L258" s="4" t="s">
         <v>59</v>
       </c>
@@ -32722,7 +33289,7 @@
       <c r="X258" s="4"/>
       <c r="Y258" s="4"/>
     </row>
-    <row r="259" spans="12:25" x14ac:dyDescent="0.25">
+    <row r="259" spans="12:25" x14ac:dyDescent="0.45">
       <c r="L259" t="s">
         <v>60</v>
       </c>
@@ -32753,7 +33320,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="260" spans="12:25" x14ac:dyDescent="0.25">
+    <row r="260" spans="12:25" x14ac:dyDescent="0.45">
       <c r="L260" s="4" t="s">
         <v>61</v>
       </c>
@@ -32789,7 +33356,7 @@
       <c r="X260" s="4"/>
       <c r="Y260" s="4"/>
     </row>
-    <row r="261" spans="12:25" x14ac:dyDescent="0.25">
+    <row r="261" spans="12:25" x14ac:dyDescent="0.45">
       <c r="L261" s="22" t="s">
         <v>72</v>
       </c>
@@ -32809,7 +33376,7 @@
       <c r="X261" s="22"/>
       <c r="Y261" s="22"/>
     </row>
-    <row r="262" spans="12:25" x14ac:dyDescent="0.25">
+    <row r="262" spans="12:25" x14ac:dyDescent="0.45">
       <c r="L262" s="4" t="s">
         <v>59</v>
       </c>
@@ -32831,7 +33398,7 @@
       <c r="X262" s="4"/>
       <c r="Y262" s="10"/>
     </row>
-    <row r="263" spans="12:25" x14ac:dyDescent="0.25">
+    <row r="263" spans="12:25" x14ac:dyDescent="0.45">
       <c r="L263" t="s">
         <v>60</v>
       </c>
@@ -32843,7 +33410,7 @@
       </c>
       <c r="Y263" s="9"/>
     </row>
-    <row r="264" spans="12:25" x14ac:dyDescent="0.25">
+    <row r="264" spans="12:25" x14ac:dyDescent="0.45">
       <c r="L264" s="4" t="s">
         <v>61</v>
       </c>
@@ -32867,47 +33434,72 @@
     </row>
   </sheetData>
   <mergeCells count="131">
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="A15:E15"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="O9:P9"/>
-    <mergeCell ref="Q9:R9"/>
-    <mergeCell ref="S9:T9"/>
-    <mergeCell ref="O13:P13"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="S13:T13"/>
-    <mergeCell ref="O25:P25"/>
-    <mergeCell ref="Q25:R25"/>
-    <mergeCell ref="S25:T25"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="A22:E22"/>
-    <mergeCell ref="O257:P257"/>
-    <mergeCell ref="Q257:R257"/>
-    <mergeCell ref="S257:T257"/>
-    <mergeCell ref="O241:P241"/>
-    <mergeCell ref="Q241:R241"/>
-    <mergeCell ref="S241:T241"/>
-    <mergeCell ref="S158:T158"/>
-    <mergeCell ref="O175:P175"/>
-    <mergeCell ref="Q175:R175"/>
-    <mergeCell ref="S175:T175"/>
-    <mergeCell ref="O191:P191"/>
-    <mergeCell ref="Q191:R191"/>
-    <mergeCell ref="S191:T191"/>
-    <mergeCell ref="O158:P158"/>
-    <mergeCell ref="Q158:R158"/>
-    <mergeCell ref="P237:Q237"/>
-    <mergeCell ref="P253:Q253"/>
+    <mergeCell ref="M257:N257"/>
+    <mergeCell ref="M261:N261"/>
+    <mergeCell ref="L1:Y1"/>
+    <mergeCell ref="L18:Y18"/>
+    <mergeCell ref="L34:Y34"/>
+    <mergeCell ref="L51:Y51"/>
+    <mergeCell ref="L67:Y67"/>
+    <mergeCell ref="L85:Y85"/>
+    <mergeCell ref="L101:Y101"/>
+    <mergeCell ref="L134:Y134"/>
+    <mergeCell ref="L151:Y151"/>
+    <mergeCell ref="L167:Y167"/>
+    <mergeCell ref="L184:Y184"/>
+    <mergeCell ref="L200:Y200"/>
+    <mergeCell ref="M125:N125"/>
+    <mergeCell ref="M129:N129"/>
+    <mergeCell ref="M195:N195"/>
+    <mergeCell ref="M191:N191"/>
+    <mergeCell ref="M179:N179"/>
+    <mergeCell ref="L118:Y118"/>
+    <mergeCell ref="M58:N58"/>
+    <mergeCell ref="M46:N46"/>
+    <mergeCell ref="M42:N42"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="M29:N29"/>
+    <mergeCell ref="M75:N75"/>
+    <mergeCell ref="O75:P75"/>
+    <mergeCell ref="Q75:R75"/>
+    <mergeCell ref="S75:T75"/>
+    <mergeCell ref="M62:N62"/>
+    <mergeCell ref="M109:N109"/>
+    <mergeCell ref="M113:N113"/>
+    <mergeCell ref="M96:N96"/>
+    <mergeCell ref="M92:N92"/>
+    <mergeCell ref="M79:N79"/>
+    <mergeCell ref="S109:T109"/>
+    <mergeCell ref="O58:P58"/>
+    <mergeCell ref="Q58:R58"/>
+    <mergeCell ref="S58:T58"/>
+    <mergeCell ref="O29:P29"/>
+    <mergeCell ref="Q29:R29"/>
+    <mergeCell ref="S29:T29"/>
+    <mergeCell ref="O42:P42"/>
+    <mergeCell ref="Q42:R42"/>
+    <mergeCell ref="S42:T42"/>
+    <mergeCell ref="P154:Q154"/>
+    <mergeCell ref="P138:Q138"/>
+    <mergeCell ref="P171:Q171"/>
+    <mergeCell ref="P187:Q187"/>
+    <mergeCell ref="P204:Q204"/>
+    <mergeCell ref="O142:P142"/>
+    <mergeCell ref="Q142:R142"/>
+    <mergeCell ref="L233:Y233"/>
+    <mergeCell ref="L250:Y250"/>
+    <mergeCell ref="M241:N241"/>
+    <mergeCell ref="M245:N245"/>
+    <mergeCell ref="S142:T142"/>
+    <mergeCell ref="O208:P208"/>
+    <mergeCell ref="Q208:R208"/>
+    <mergeCell ref="M208:N208"/>
+    <mergeCell ref="M212:N212"/>
+    <mergeCell ref="M224:N224"/>
+    <mergeCell ref="M228:N228"/>
+    <mergeCell ref="O224:P224"/>
+    <mergeCell ref="Q224:R224"/>
+    <mergeCell ref="S224:T224"/>
     <mergeCell ref="P5:Q5"/>
     <mergeCell ref="P21:Q21"/>
     <mergeCell ref="P38:Q38"/>
@@ -32932,72 +33524,47 @@
     <mergeCell ref="S92:T92"/>
     <mergeCell ref="O109:P109"/>
     <mergeCell ref="Q109:R109"/>
-    <mergeCell ref="P154:Q154"/>
-    <mergeCell ref="P138:Q138"/>
-    <mergeCell ref="P171:Q171"/>
-    <mergeCell ref="P187:Q187"/>
-    <mergeCell ref="P204:Q204"/>
-    <mergeCell ref="O142:P142"/>
-    <mergeCell ref="Q142:R142"/>
-    <mergeCell ref="L233:Y233"/>
-    <mergeCell ref="L250:Y250"/>
-    <mergeCell ref="M241:N241"/>
-    <mergeCell ref="M245:N245"/>
-    <mergeCell ref="S142:T142"/>
-    <mergeCell ref="O208:P208"/>
-    <mergeCell ref="Q208:R208"/>
-    <mergeCell ref="M208:N208"/>
-    <mergeCell ref="M212:N212"/>
-    <mergeCell ref="M224:N224"/>
-    <mergeCell ref="M228:N228"/>
-    <mergeCell ref="O224:P224"/>
-    <mergeCell ref="Q224:R224"/>
-    <mergeCell ref="S224:T224"/>
-    <mergeCell ref="M29:N29"/>
-    <mergeCell ref="M75:N75"/>
-    <mergeCell ref="O75:P75"/>
-    <mergeCell ref="Q75:R75"/>
-    <mergeCell ref="S75:T75"/>
-    <mergeCell ref="M62:N62"/>
-    <mergeCell ref="M109:N109"/>
-    <mergeCell ref="M113:N113"/>
-    <mergeCell ref="M96:N96"/>
-    <mergeCell ref="M92:N92"/>
-    <mergeCell ref="M79:N79"/>
-    <mergeCell ref="S109:T109"/>
-    <mergeCell ref="O58:P58"/>
-    <mergeCell ref="Q58:R58"/>
-    <mergeCell ref="S58:T58"/>
-    <mergeCell ref="O29:P29"/>
-    <mergeCell ref="Q29:R29"/>
-    <mergeCell ref="S29:T29"/>
-    <mergeCell ref="O42:P42"/>
-    <mergeCell ref="Q42:R42"/>
-    <mergeCell ref="S42:T42"/>
-    <mergeCell ref="M257:N257"/>
-    <mergeCell ref="M261:N261"/>
-    <mergeCell ref="L1:Y1"/>
-    <mergeCell ref="L18:Y18"/>
-    <mergeCell ref="L34:Y34"/>
-    <mergeCell ref="L51:Y51"/>
-    <mergeCell ref="L67:Y67"/>
-    <mergeCell ref="L85:Y85"/>
-    <mergeCell ref="L101:Y101"/>
-    <mergeCell ref="L134:Y134"/>
-    <mergeCell ref="L151:Y151"/>
-    <mergeCell ref="L167:Y167"/>
-    <mergeCell ref="L184:Y184"/>
-    <mergeCell ref="L200:Y200"/>
-    <mergeCell ref="M125:N125"/>
-    <mergeCell ref="M129:N129"/>
-    <mergeCell ref="M195:N195"/>
-    <mergeCell ref="M191:N191"/>
-    <mergeCell ref="M179:N179"/>
-    <mergeCell ref="L118:Y118"/>
-    <mergeCell ref="M58:N58"/>
-    <mergeCell ref="M46:N46"/>
-    <mergeCell ref="M42:N42"/>
-    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="O257:P257"/>
+    <mergeCell ref="Q257:R257"/>
+    <mergeCell ref="S257:T257"/>
+    <mergeCell ref="O241:P241"/>
+    <mergeCell ref="Q241:R241"/>
+    <mergeCell ref="S241:T241"/>
+    <mergeCell ref="S158:T158"/>
+    <mergeCell ref="O175:P175"/>
+    <mergeCell ref="Q175:R175"/>
+    <mergeCell ref="S175:T175"/>
+    <mergeCell ref="O191:P191"/>
+    <mergeCell ref="Q191:R191"/>
+    <mergeCell ref="S191:T191"/>
+    <mergeCell ref="O158:P158"/>
+    <mergeCell ref="Q158:R158"/>
+    <mergeCell ref="P237:Q237"/>
+    <mergeCell ref="P253:Q253"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="Q9:R9"/>
+    <mergeCell ref="S9:T9"/>
+    <mergeCell ref="O13:P13"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="S13:T13"/>
+    <mergeCell ref="O25:P25"/>
+    <mergeCell ref="Q25:R25"/>
+    <mergeCell ref="S25:T25"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="A22:E22"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A15:E15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/4_Measurements/Results.xlsx
+++ b/4_Measurements/Results.xlsx
@@ -9,13 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14685" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14685" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Base" sheetId="2" r:id="rId1"/>
     <sheet name="ExtBoard" sheetId="7" r:id="rId2"/>
     <sheet name="Peripheral" sheetId="5" r:id="rId3"/>
     <sheet name="Central" sheetId="6" r:id="rId4"/>
+    <sheet name="Summary" sheetId="8" r:id="rId5"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1284" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1337" uniqueCount="132">
   <si>
     <t>GPIO Measurements Errors</t>
   </si>
@@ -251,9 +252,6 @@
     <t>Meas.</t>
   </si>
   <si>
-    <t>SD+SDK Conn. Int. 7.5ms</t>
-  </si>
-  <si>
     <t>Zephyr Conn. Int. 7.5ms</t>
   </si>
   <si>
@@ -406,6 +404,56 @@
   <si>
     <t>SD+SDK,  TIMER ON, ACC /ADC ON</t>
   </si>
+  <si>
+    <t>Interrupt Latency</t>
+  </si>
+  <si>
+    <t>SD+SDK</t>
+  </si>
+  <si>
+    <t>Advertising Interval</t>
+  </si>
+  <si>
+    <t>Scanning Interval</t>
+  </si>
+  <si>
+    <t>Break frequency</t>
+  </si>
+  <si>
+    <r>
+      <t>15</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>µs</t>
+    </r>
+  </si>
+  <si>
+    <t>7µs</t>
+  </si>
+  <si>
+    <t>Stack Propagation Delay</t>
+  </si>
+  <si>
+    <t>90µs</t>
+  </si>
+  <si>
+    <t>80µs</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>Break</t>
+  </si>
+  <si>
+    <t>82.87 +102 + 83.875 + 91.75</t>
+  </si>
 </sst>
 </file>
 
@@ -478,7 +526,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -519,11 +567,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -610,6 +678,14 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -20990,17 +21066,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="F1" s="52" t="s">
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="F1" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" s="4" t="s">
@@ -21037,7 +21113,7 @@
         <v>40</v>
       </c>
       <c r="F3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>3</v>
@@ -21102,8 +21178,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AB126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="F62" sqref="F62:V62"/>
+    <sheetView topLeftCell="C28" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="L57" sqref="L57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -21118,31 +21194,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="A1" s="52" t="s">
-        <v>110</v>
-      </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="F1" s="54" t="s">
+      <c r="A1" s="56" t="s">
+        <v>109</v>
+      </c>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="F1" s="58" t="s">
         <v>41</v>
       </c>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54"/>
-      <c r="J1" s="54"/>
-      <c r="K1" s="54"/>
-      <c r="L1" s="54"/>
-      <c r="M1" s="54"/>
-      <c r="N1" s="54"/>
-      <c r="O1" s="54"/>
-      <c r="P1" s="54"/>
-      <c r="Q1" s="54"/>
-      <c r="R1" s="54"/>
-      <c r="S1" s="54"/>
-      <c r="T1" s="54"/>
-      <c r="U1" s="54"/>
-      <c r="V1" s="54"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="58"/>
+      <c r="K1" s="58"/>
+      <c r="L1" s="58"/>
+      <c r="M1" s="58"/>
+      <c r="N1" s="58"/>
+      <c r="O1" s="58"/>
+      <c r="P1" s="58"/>
+      <c r="Q1" s="58"/>
+      <c r="R1" s="58"/>
+      <c r="S1" s="58"/>
+      <c r="T1" s="58"/>
+      <c r="U1" s="58"/>
+      <c r="V1" s="58"/>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A2" s="4" t="s">
@@ -21255,7 +21331,7 @@
         <v>8</v>
       </c>
       <c r="T3" s="40" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="U3" s="41">
         <f>R3-G3</f>
@@ -21321,7 +21397,7 @@
         <v>40</v>
       </c>
       <c r="T4" s="42" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="U4" s="43">
         <f>R4-G4</f>
@@ -21347,11 +21423,13 @@
       <c r="I5" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="J5" s="53" t="s">
+      <c r="J5" s="57" t="s">
         <v>57</v>
       </c>
-      <c r="K5" s="53"/>
-      <c r="L5" s="22"/>
+      <c r="K5" s="57"/>
+      <c r="L5" s="22" t="s">
+        <v>130</v>
+      </c>
       <c r="M5" s="22"/>
       <c r="N5" s="22"/>
       <c r="O5" s="22"/>
@@ -21383,7 +21461,9 @@
       <c r="K6" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="L6" s="6"/>
+      <c r="L6" s="6">
+        <v>120</v>
+      </c>
       <c r="M6" s="6"/>
       <c r="N6" s="6"/>
       <c r="O6" s="6"/>
@@ -21396,12 +21476,12 @@
       <c r="V6" s="10"/>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="A7" s="52" t="s">
-        <v>111</v>
-      </c>
-      <c r="B7" s="52"/>
-      <c r="C7" s="52"/>
-      <c r="D7" s="52"/>
+      <c r="A7" s="56" t="s">
+        <v>110</v>
+      </c>
+      <c r="B7" s="56"/>
+      <c r="C7" s="56"/>
+      <c r="D7" s="56"/>
       <c r="F7" s="33" t="s">
         <v>55</v>
       </c>
@@ -21515,25 +21595,25 @@
       <c r="D10" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="F10" s="54" t="s">
+      <c r="F10" s="58" t="s">
         <v>42</v>
       </c>
-      <c r="G10" s="54"/>
-      <c r="H10" s="54"/>
-      <c r="I10" s="54"/>
-      <c r="J10" s="54"/>
-      <c r="K10" s="54"/>
-      <c r="L10" s="54"/>
-      <c r="M10" s="54"/>
-      <c r="N10" s="54"/>
-      <c r="O10" s="54"/>
-      <c r="P10" s="54"/>
-      <c r="Q10" s="54"/>
-      <c r="R10" s="54"/>
-      <c r="S10" s="54"/>
-      <c r="T10" s="54"/>
-      <c r="U10" s="54"/>
-      <c r="V10" s="54"/>
+      <c r="G10" s="58"/>
+      <c r="H10" s="58"/>
+      <c r="I10" s="58"/>
+      <c r="J10" s="58"/>
+      <c r="K10" s="58"/>
+      <c r="L10" s="58"/>
+      <c r="M10" s="58"/>
+      <c r="N10" s="58"/>
+      <c r="O10" s="58"/>
+      <c r="P10" s="58"/>
+      <c r="Q10" s="58"/>
+      <c r="R10" s="58"/>
+      <c r="S10" s="58"/>
+      <c r="T10" s="58"/>
+      <c r="U10" s="58"/>
+      <c r="V10" s="58"/>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.45">
       <c r="C11" s="18" t="s">
@@ -21627,7 +21707,7 @@
         <v>8</v>
       </c>
       <c r="T12" s="40" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="U12" s="41">
         <f>R12-G12</f>
@@ -21681,7 +21761,7 @@
         <v>40</v>
       </c>
       <c r="T13" s="42" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="U13" s="43">
         <f>R13-G13</f>
@@ -21704,11 +21784,13 @@
       <c r="I14" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="J14" s="53" t="s">
+      <c r="J14" s="57" t="s">
         <v>57</v>
       </c>
-      <c r="K14" s="53"/>
-      <c r="L14" s="22"/>
+      <c r="K14" s="57"/>
+      <c r="L14" s="22" t="s">
+        <v>130</v>
+      </c>
       <c r="M14" s="22"/>
       <c r="N14" s="22"/>
       <c r="O14" s="22"/>
@@ -21740,7 +21822,9 @@
       <c r="K15" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="L15" s="6"/>
+      <c r="L15" s="6">
+        <v>130</v>
+      </c>
       <c r="M15" s="6"/>
       <c r="N15" s="6"/>
       <c r="O15" s="6"/>
@@ -21832,25 +21916,25 @@
       <c r="S18" s="9"/>
     </row>
     <row r="19" spans="6:22" x14ac:dyDescent="0.45">
-      <c r="F19" s="54" t="s">
+      <c r="F19" s="58" t="s">
         <v>43</v>
       </c>
-      <c r="G19" s="54"/>
-      <c r="H19" s="54"/>
-      <c r="I19" s="54"/>
-      <c r="J19" s="54"/>
-      <c r="K19" s="54"/>
-      <c r="L19" s="54"/>
-      <c r="M19" s="54"/>
-      <c r="N19" s="54"/>
-      <c r="O19" s="54"/>
-      <c r="P19" s="54"/>
-      <c r="Q19" s="54"/>
-      <c r="R19" s="54"/>
-      <c r="S19" s="54"/>
-      <c r="T19" s="54"/>
-      <c r="U19" s="54"/>
-      <c r="V19" s="54"/>
+      <c r="G19" s="58"/>
+      <c r="H19" s="58"/>
+      <c r="I19" s="58"/>
+      <c r="J19" s="58"/>
+      <c r="K19" s="58"/>
+      <c r="L19" s="58"/>
+      <c r="M19" s="58"/>
+      <c r="N19" s="58"/>
+      <c r="O19" s="58"/>
+      <c r="P19" s="58"/>
+      <c r="Q19" s="58"/>
+      <c r="R19" s="58"/>
+      <c r="S19" s="58"/>
+      <c r="T19" s="58"/>
+      <c r="U19" s="58"/>
+      <c r="V19" s="58"/>
     </row>
     <row r="20" spans="6:22" x14ac:dyDescent="0.45">
       <c r="F20" s="22"/>
@@ -21941,7 +22025,7 @@
         <v>8</v>
       </c>
       <c r="T21" s="40" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="U21" s="41">
         <f>R21-G21</f>
@@ -21995,7 +22079,7 @@
         <v>40</v>
       </c>
       <c r="T22" s="42" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="U22" s="43">
         <f>R22-G22</f>
@@ -22018,11 +22102,13 @@
       <c r="I23" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="J23" s="53" t="s">
+      <c r="J23" s="57" t="s">
         <v>57</v>
       </c>
-      <c r="K23" s="53"/>
-      <c r="L23" s="22"/>
+      <c r="K23" s="57"/>
+      <c r="L23" s="22" t="s">
+        <v>130</v>
+      </c>
       <c r="M23" s="22"/>
       <c r="N23" s="22"/>
       <c r="O23" s="22"/>
@@ -22054,7 +22140,9 @@
       <c r="K24" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="L24" s="6"/>
+      <c r="L24" s="6">
+        <v>120</v>
+      </c>
       <c r="M24" s="6"/>
       <c r="N24" s="6"/>
       <c r="O24" s="6"/>
@@ -22146,25 +22234,25 @@
       <c r="S27" s="9"/>
     </row>
     <row r="28" spans="6:22" x14ac:dyDescent="0.45">
-      <c r="F28" s="54" t="s">
+      <c r="F28" s="58" t="s">
         <v>44</v>
       </c>
-      <c r="G28" s="54"/>
-      <c r="H28" s="54"/>
-      <c r="I28" s="54"/>
-      <c r="J28" s="54"/>
-      <c r="K28" s="54"/>
-      <c r="L28" s="54"/>
-      <c r="M28" s="54"/>
-      <c r="N28" s="54"/>
-      <c r="O28" s="54"/>
-      <c r="P28" s="54"/>
-      <c r="Q28" s="54"/>
-      <c r="R28" s="54"/>
-      <c r="S28" s="54"/>
-      <c r="T28" s="54"/>
-      <c r="U28" s="54"/>
-      <c r="V28" s="54"/>
+      <c r="G28" s="58"/>
+      <c r="H28" s="58"/>
+      <c r="I28" s="58"/>
+      <c r="J28" s="58"/>
+      <c r="K28" s="58"/>
+      <c r="L28" s="58"/>
+      <c r="M28" s="58"/>
+      <c r="N28" s="58"/>
+      <c r="O28" s="58"/>
+      <c r="P28" s="58"/>
+      <c r="Q28" s="58"/>
+      <c r="R28" s="58"/>
+      <c r="S28" s="58"/>
+      <c r="T28" s="58"/>
+      <c r="U28" s="58"/>
+      <c r="V28" s="58"/>
     </row>
     <row r="29" spans="6:22" x14ac:dyDescent="0.45">
       <c r="F29" s="22"/>
@@ -22255,7 +22343,7 @@
         <v>8</v>
       </c>
       <c r="T30" s="40" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="U30" s="41">
         <f>R30-G30</f>
@@ -22309,7 +22397,7 @@
         <v>40</v>
       </c>
       <c r="T31" s="42" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="U31" s="43">
         <f>R31-G31</f>
@@ -22332,11 +22420,13 @@
       <c r="I32" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="J32" s="53" t="s">
+      <c r="J32" s="57" t="s">
         <v>57</v>
       </c>
-      <c r="K32" s="53"/>
-      <c r="L32" s="22"/>
+      <c r="K32" s="57"/>
+      <c r="L32" s="22" t="s">
+        <v>130</v>
+      </c>
       <c r="M32" s="22"/>
       <c r="N32" s="22"/>
       <c r="O32" s="22"/>
@@ -22368,7 +22458,9 @@
       <c r="K33" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="L33" s="6"/>
+      <c r="L33" s="6">
+        <v>140</v>
+      </c>
       <c r="M33" s="6"/>
       <c r="N33" s="6"/>
       <c r="O33" s="6"/>
@@ -22460,25 +22552,25 @@
       <c r="S36" s="9"/>
     </row>
     <row r="37" spans="6:22" x14ac:dyDescent="0.45">
-      <c r="F37" s="54" t="s">
-        <v>118</v>
-      </c>
-      <c r="G37" s="54"/>
-      <c r="H37" s="54"/>
-      <c r="I37" s="54"/>
-      <c r="J37" s="54"/>
-      <c r="K37" s="54"/>
-      <c r="L37" s="54"/>
-      <c r="M37" s="54"/>
-      <c r="N37" s="54"/>
-      <c r="O37" s="54"/>
-      <c r="P37" s="54"/>
-      <c r="Q37" s="54"/>
-      <c r="R37" s="54"/>
-      <c r="S37" s="54"/>
-      <c r="T37" s="54"/>
-      <c r="U37" s="54"/>
-      <c r="V37" s="54"/>
+      <c r="F37" s="58" t="s">
+        <v>117</v>
+      </c>
+      <c r="G37" s="58"/>
+      <c r="H37" s="58"/>
+      <c r="I37" s="58"/>
+      <c r="J37" s="58"/>
+      <c r="K37" s="58"/>
+      <c r="L37" s="58"/>
+      <c r="M37" s="58"/>
+      <c r="N37" s="58"/>
+      <c r="O37" s="58"/>
+      <c r="P37" s="58"/>
+      <c r="Q37" s="58"/>
+      <c r="R37" s="58"/>
+      <c r="S37" s="58"/>
+      <c r="T37" s="58"/>
+      <c r="U37" s="58"/>
+      <c r="V37" s="58"/>
     </row>
     <row r="38" spans="6:22" x14ac:dyDescent="0.45">
       <c r="F38" s="22"/>
@@ -22569,7 +22661,7 @@
         <v>40</v>
       </c>
       <c r="T39" s="40" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="U39" s="41">
         <f>R39-G39</f>
@@ -22592,11 +22684,13 @@
       <c r="I40" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="J40" s="53" t="s">
+      <c r="J40" s="57" t="s">
         <v>57</v>
       </c>
-      <c r="K40" s="53"/>
-      <c r="L40" s="22"/>
+      <c r="K40" s="57"/>
+      <c r="L40" s="22" t="s">
+        <v>130</v>
+      </c>
       <c r="M40" s="22"/>
       <c r="N40" s="22"/>
       <c r="O40" s="22"/>
@@ -22628,7 +22722,9 @@
       <c r="K41" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="L41" s="6"/>
+      <c r="L41" s="6">
+        <v>130</v>
+      </c>
       <c r="M41" s="6"/>
       <c r="N41" s="6"/>
       <c r="O41" s="6"/>
@@ -22720,25 +22816,25 @@
       <c r="S44" s="9"/>
     </row>
     <row r="45" spans="6:22" x14ac:dyDescent="0.45">
-      <c r="F45" s="54" t="s">
-        <v>117</v>
-      </c>
-      <c r="G45" s="54"/>
-      <c r="H45" s="54"/>
-      <c r="I45" s="54"/>
-      <c r="J45" s="54"/>
-      <c r="K45" s="54"/>
-      <c r="L45" s="54"/>
-      <c r="M45" s="54"/>
-      <c r="N45" s="54"/>
-      <c r="O45" s="54"/>
-      <c r="P45" s="54"/>
-      <c r="Q45" s="54"/>
-      <c r="R45" s="54"/>
-      <c r="S45" s="54"/>
-      <c r="T45" s="54"/>
-      <c r="U45" s="54"/>
-      <c r="V45" s="54"/>
+      <c r="F45" s="58" t="s">
+        <v>116</v>
+      </c>
+      <c r="G45" s="58"/>
+      <c r="H45" s="58"/>
+      <c r="I45" s="58"/>
+      <c r="J45" s="58"/>
+      <c r="K45" s="58"/>
+      <c r="L45" s="58"/>
+      <c r="M45" s="58"/>
+      <c r="N45" s="58"/>
+      <c r="O45" s="58"/>
+      <c r="P45" s="58"/>
+      <c r="Q45" s="58"/>
+      <c r="R45" s="58"/>
+      <c r="S45" s="58"/>
+      <c r="T45" s="58"/>
+      <c r="U45" s="58"/>
+      <c r="V45" s="58"/>
     </row>
     <row r="46" spans="6:22" x14ac:dyDescent="0.45">
       <c r="F46" s="22"/>
@@ -22829,7 +22925,7 @@
         <v>40</v>
       </c>
       <c r="T47" s="40" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="U47" s="41">
         <f>R47-G47</f>
@@ -22852,11 +22948,13 @@
       <c r="I48" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="J48" s="53" t="s">
+      <c r="J48" s="57" t="s">
         <v>57</v>
       </c>
-      <c r="K48" s="53"/>
-      <c r="L48" s="22"/>
+      <c r="K48" s="57"/>
+      <c r="L48" s="22" t="s">
+        <v>130</v>
+      </c>
       <c r="M48" s="22"/>
       <c r="N48" s="22"/>
       <c r="O48" s="22"/>
@@ -22888,7 +22986,9 @@
       <c r="K49" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="L49" s="6"/>
+      <c r="L49" s="6">
+        <v>200</v>
+      </c>
       <c r="M49" s="6"/>
       <c r="N49" s="6"/>
       <c r="O49" s="6"/>
@@ -22980,25 +23080,25 @@
       <c r="S52" s="9"/>
     </row>
     <row r="53" spans="6:22" x14ac:dyDescent="0.45">
-      <c r="F53" s="54" t="s">
-        <v>116</v>
-      </c>
-      <c r="G53" s="54"/>
-      <c r="H53" s="54"/>
-      <c r="I53" s="54"/>
-      <c r="J53" s="54"/>
-      <c r="K53" s="54"/>
-      <c r="L53" s="54"/>
-      <c r="M53" s="54"/>
-      <c r="N53" s="54"/>
-      <c r="O53" s="54"/>
-      <c r="P53" s="54"/>
-      <c r="Q53" s="54"/>
-      <c r="R53" s="54"/>
-      <c r="S53" s="54"/>
-      <c r="T53" s="54"/>
-      <c r="U53" s="54"/>
-      <c r="V53" s="54"/>
+      <c r="F53" s="58" t="s">
+        <v>115</v>
+      </c>
+      <c r="G53" s="58"/>
+      <c r="H53" s="58"/>
+      <c r="I53" s="58"/>
+      <c r="J53" s="58"/>
+      <c r="K53" s="58"/>
+      <c r="L53" s="58"/>
+      <c r="M53" s="58"/>
+      <c r="N53" s="58"/>
+      <c r="O53" s="58"/>
+      <c r="P53" s="58"/>
+      <c r="Q53" s="58"/>
+      <c r="R53" s="58"/>
+      <c r="S53" s="58"/>
+      <c r="T53" s="58"/>
+      <c r="U53" s="58"/>
+      <c r="V53" s="58"/>
     </row>
     <row r="54" spans="6:22" x14ac:dyDescent="0.45">
       <c r="F54" s="22"/>
@@ -23089,7 +23189,7 @@
         <v>40</v>
       </c>
       <c r="T55" s="40" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="U55" s="41">
         <f>R55-G55</f>
@@ -23112,11 +23212,13 @@
       <c r="I56" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="J56" s="53" t="s">
+      <c r="J56" s="57" t="s">
         <v>57</v>
       </c>
-      <c r="K56" s="53"/>
-      <c r="L56" s="22"/>
+      <c r="K56" s="57"/>
+      <c r="L56" s="22" t="s">
+        <v>130</v>
+      </c>
       <c r="M56" s="22"/>
       <c r="N56" s="22"/>
       <c r="O56" s="22"/>
@@ -23148,7 +23250,9 @@
       <c r="K57" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="L57" s="6"/>
+      <c r="L57" s="6">
+        <v>130</v>
+      </c>
       <c r="M57" s="6"/>
       <c r="N57" s="6"/>
       <c r="O57" s="6"/>
@@ -23255,25 +23359,25 @@
       <c r="S61" s="9"/>
     </row>
     <row r="62" spans="6:22" x14ac:dyDescent="0.45">
-      <c r="F62" s="54" t="s">
-        <v>119</v>
-      </c>
-      <c r="G62" s="54"/>
-      <c r="H62" s="54"/>
-      <c r="I62" s="54"/>
-      <c r="J62" s="54"/>
-      <c r="K62" s="54"/>
-      <c r="L62" s="54"/>
-      <c r="M62" s="54"/>
-      <c r="N62" s="54"/>
-      <c r="O62" s="54"/>
-      <c r="P62" s="54"/>
-      <c r="Q62" s="54"/>
-      <c r="R62" s="54"/>
-      <c r="S62" s="54"/>
-      <c r="T62" s="54"/>
-      <c r="U62" s="54"/>
-      <c r="V62" s="54"/>
+      <c r="F62" s="58" t="s">
+        <v>118</v>
+      </c>
+      <c r="G62" s="58"/>
+      <c r="H62" s="58"/>
+      <c r="I62" s="58"/>
+      <c r="J62" s="58"/>
+      <c r="K62" s="58"/>
+      <c r="L62" s="58"/>
+      <c r="M62" s="58"/>
+      <c r="N62" s="58"/>
+      <c r="O62" s="58"/>
+      <c r="P62" s="58"/>
+      <c r="Q62" s="58"/>
+      <c r="R62" s="58"/>
+      <c r="S62" s="58"/>
+      <c r="T62" s="58"/>
+      <c r="U62" s="58"/>
+      <c r="V62" s="58"/>
     </row>
     <row r="63" spans="6:22" x14ac:dyDescent="0.45">
       <c r="F63" s="22"/>
@@ -23364,7 +23468,7 @@
         <v>40</v>
       </c>
       <c r="T64" s="40" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="U64" s="41">
         <f>R64-G64</f>
@@ -23387,11 +23491,13 @@
       <c r="I65" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="J65" s="53" t="s">
+      <c r="J65" s="57" t="s">
         <v>57</v>
       </c>
-      <c r="K65" s="53"/>
-      <c r="L65" s="22"/>
+      <c r="K65" s="57"/>
+      <c r="L65" s="22" t="s">
+        <v>130</v>
+      </c>
       <c r="M65" s="22"/>
       <c r="N65" s="22"/>
       <c r="O65" s="22"/>
@@ -23423,7 +23529,9 @@
       <c r="K66" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="L66" s="6"/>
+      <c r="L66" s="6">
+        <v>130</v>
+      </c>
       <c r="M66" s="6"/>
       <c r="N66" s="6"/>
       <c r="O66" s="6"/>
@@ -23501,41 +23609,41 @@
     </row>
     <row r="72" spans="6:22" x14ac:dyDescent="0.45">
       <c r="M72" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="Q72" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="73" spans="6:22" x14ac:dyDescent="0.45">
       <c r="M73" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="Q73" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="74" spans="6:22" x14ac:dyDescent="0.45">
       <c r="M74" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Q74" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="76" spans="6:22" x14ac:dyDescent="0.45">
       <c r="Q76" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="77" spans="6:22" x14ac:dyDescent="0.45">
       <c r="Q77" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="78" spans="6:22" x14ac:dyDescent="0.45">
       <c r="Q78" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="114" spans="28:28" x14ac:dyDescent="0.45">
@@ -23561,6 +23669,12 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="F1:V1"/>
+    <mergeCell ref="J65:K65"/>
+    <mergeCell ref="J56:K56"/>
+    <mergeCell ref="J48:K48"/>
+    <mergeCell ref="J40:K40"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A7:D7"/>
     <mergeCell ref="F19:V19"/>
@@ -23573,12 +23687,6 @@
     <mergeCell ref="J32:K32"/>
     <mergeCell ref="J23:K23"/>
     <mergeCell ref="J14:K14"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="F1:V1"/>
-    <mergeCell ref="J65:K65"/>
-    <mergeCell ref="J56:K56"/>
-    <mergeCell ref="J48:K48"/>
-    <mergeCell ref="J40:K40"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -23590,8 +23698,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AM121"/>
   <sheetViews>
-    <sheetView topLeftCell="AA62" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AN12" sqref="AN12"/>
+    <sheetView tabSelected="1" topLeftCell="J7" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="M38" sqref="M38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -23607,35 +23715,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.45">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="L1" s="54" t="s">
-        <v>93</v>
-      </c>
-      <c r="M1" s="54"/>
-      <c r="N1" s="54"/>
-      <c r="O1" s="54"/>
-      <c r="P1" s="54"/>
-      <c r="Q1" s="54"/>
-      <c r="R1" s="54"/>
-      <c r="S1" s="54"/>
-      <c r="T1" s="54"/>
-      <c r="U1" s="54"/>
-      <c r="V1" s="54"/>
-      <c r="W1" s="54"/>
-      <c r="X1" s="54"/>
-      <c r="Y1" s="54"/>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="L1" s="58" t="s">
+        <v>92</v>
+      </c>
+      <c r="M1" s="58"/>
+      <c r="N1" s="58"/>
+      <c r="O1" s="58"/>
+      <c r="P1" s="58"/>
+      <c r="Q1" s="58"/>
+      <c r="R1" s="58"/>
+      <c r="S1" s="58"/>
+      <c r="T1" s="58"/>
+      <c r="U1" s="58"/>
+      <c r="V1" s="58"/>
+      <c r="W1" s="58"/>
+      <c r="X1" s="58"/>
+      <c r="Y1" s="58"/>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.45">
-      <c r="A2" s="58" t="s">
+      <c r="A2" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="58"/>
+      <c r="B2" s="62"/>
       <c r="C2" s="4">
         <v>16760</v>
       </c>
@@ -23685,10 +23793,10 @@
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.45">
-      <c r="A3" s="59" t="s">
+      <c r="A3" s="63" t="s">
         <v>49</v>
       </c>
-      <c r="B3" s="59"/>
+      <c r="B3" s="63"/>
       <c r="C3">
         <v>1410</v>
       </c>
@@ -23803,11 +23911,13 @@
       <c r="O5" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="P5" s="53" t="s">
+      <c r="P5" s="57" t="s">
         <v>57</v>
       </c>
-      <c r="Q5" s="53"/>
-      <c r="R5" s="22"/>
+      <c r="Q5" s="57"/>
+      <c r="R5" s="22" t="s">
+        <v>130</v>
+      </c>
       <c r="S5" s="22"/>
       <c r="T5" s="22"/>
       <c r="U5" s="22"/>
@@ -23817,13 +23927,13 @@
       <c r="Y5" s="22"/>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.45">
-      <c r="A6" s="52" t="s">
+      <c r="A6" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="52"/>
-      <c r="C6" s="52"/>
-      <c r="D6" s="52"/>
-      <c r="E6" s="52"/>
+      <c r="B6" s="56"/>
+      <c r="C6" s="56"/>
+      <c r="D6" s="56"/>
+      <c r="E6" s="56"/>
       <c r="L6" s="4" t="s">
         <v>54</v>
       </c>
@@ -23843,7 +23953,9 @@
       <c r="Q6" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="R6" s="4"/>
+      <c r="R6" s="4">
+        <v>160</v>
+      </c>
       <c r="S6" s="4"/>
       <c r="T6" s="4"/>
       <c r="U6" s="4"/>
@@ -23853,10 +23965,10 @@
       <c r="Y6" s="10"/>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.45">
-      <c r="A7" s="58" t="s">
+      <c r="A7" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="58"/>
+      <c r="B7" s="62"/>
       <c r="C7" s="4">
         <v>1950</v>
       </c>
@@ -23886,10 +23998,10 @@
       <c r="Y7" s="9"/>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.45">
-      <c r="A8" s="59" t="s">
+      <c r="A8" s="63" t="s">
         <v>49</v>
       </c>
-      <c r="B8" s="59"/>
+      <c r="B8" s="63"/>
       <c r="C8">
         <v>2170</v>
       </c>
@@ -23933,24 +24045,24 @@
       </c>
       <c r="E9" s="9"/>
       <c r="L9" s="22" t="s">
-        <v>113</v>
-      </c>
-      <c r="M9" s="53" t="s">
+        <v>112</v>
+      </c>
+      <c r="M9" s="57" t="s">
         <v>67</v>
       </c>
-      <c r="N9" s="53"/>
-      <c r="O9" s="53" t="s">
+      <c r="N9" s="57"/>
+      <c r="O9" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="P9" s="53"/>
-      <c r="Q9" s="53" t="s">
+      <c r="P9" s="57"/>
+      <c r="Q9" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="R9" s="53"/>
-      <c r="S9" s="53" t="s">
+      <c r="R9" s="57"/>
+      <c r="S9" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="T9" s="53"/>
+      <c r="T9" s="57"/>
       <c r="U9" s="22"/>
       <c r="V9" s="22"/>
       <c r="W9" s="22"/>
@@ -23995,13 +24107,13 @@
       <c r="Y10" s="10"/>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.45">
-      <c r="A11" s="52" t="s">
+      <c r="A11" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="52"/>
-      <c r="C11" s="52"/>
-      <c r="D11" s="52"/>
-      <c r="E11" s="52"/>
+      <c r="B11" s="56"/>
+      <c r="C11" s="56"/>
+      <c r="D11" s="56"/>
+      <c r="E11" s="56"/>
       <c r="L11" t="s">
         <v>55</v>
       </c>
@@ -24034,8 +24146,8 @@
       <c r="Y11" s="9"/>
     </row>
     <row r="12" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="55" t="s">
-        <v>97</v>
+      <c r="A12" s="59" t="s">
+        <v>96</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>7</v>
@@ -24083,7 +24195,7 @@
       <c r="Y12" s="10"/>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.45">
-      <c r="A13" s="56"/>
+      <c r="A13" s="60"/>
       <c r="B13" s="44" t="s">
         <v>49</v>
       </c>
@@ -24098,8 +24210,8 @@
       </c>
     </row>
     <row r="14" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="55" t="s">
-        <v>98</v>
+      <c r="A14" s="59" t="s">
+        <v>97</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>7</v>
@@ -24111,25 +24223,25 @@
       <c r="E14" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="L14" s="54" t="s">
-        <v>94</v>
-      </c>
-      <c r="M14" s="54"/>
-      <c r="N14" s="54"/>
-      <c r="O14" s="54"/>
-      <c r="P14" s="54"/>
-      <c r="Q14" s="54"/>
-      <c r="R14" s="54"/>
-      <c r="S14" s="54"/>
-      <c r="T14" s="54"/>
-      <c r="U14" s="54"/>
-      <c r="V14" s="54"/>
-      <c r="W14" s="54"/>
-      <c r="X14" s="54"/>
-      <c r="Y14" s="54"/>
+      <c r="L14" s="58" t="s">
+        <v>93</v>
+      </c>
+      <c r="M14" s="58"/>
+      <c r="N14" s="58"/>
+      <c r="O14" s="58"/>
+      <c r="P14" s="58"/>
+      <c r="Q14" s="58"/>
+      <c r="R14" s="58"/>
+      <c r="S14" s="58"/>
+      <c r="T14" s="58"/>
+      <c r="U14" s="58"/>
+      <c r="V14" s="58"/>
+      <c r="W14" s="58"/>
+      <c r="X14" s="58"/>
+      <c r="Y14" s="58"/>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.45">
-      <c r="A15" s="56"/>
+      <c r="A15" s="60"/>
       <c r="B15" s="44" t="s">
         <v>49</v>
       </c>
@@ -24184,8 +24296,8 @@
       </c>
     </row>
     <row r="16" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="57" t="s">
-        <v>99</v>
+      <c r="A16" s="61" t="s">
+        <v>98</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>7</v>
@@ -24241,7 +24353,7 @@
       </c>
     </row>
     <row r="17" spans="1:39" x14ac:dyDescent="0.45">
-      <c r="A17" s="57"/>
+      <c r="A17" s="61"/>
       <c r="B17" s="7" t="s">
         <v>49</v>
       </c>
@@ -24266,11 +24378,13 @@
       <c r="O17" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="P17" s="53" t="s">
+      <c r="P17" s="57" t="s">
         <v>57</v>
       </c>
-      <c r="Q17" s="53"/>
-      <c r="R17" s="22"/>
+      <c r="Q17" s="57"/>
+      <c r="R17" s="22" t="s">
+        <v>130</v>
+      </c>
       <c r="S17" s="22"/>
       <c r="T17" s="22"/>
       <c r="U17" s="22"/>
@@ -24303,7 +24417,9 @@
       <c r="Q18" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="R18" s="4"/>
+      <c r="R18" s="4">
+        <v>130</v>
+      </c>
       <c r="S18" s="4"/>
       <c r="T18" s="4"/>
       <c r="U18" s="4"/>
@@ -24336,13 +24452,13 @@
       <c r="Y19" s="9"/>
     </row>
     <row r="20" spans="1:39" x14ac:dyDescent="0.45">
-      <c r="A20" s="52" t="s">
+      <c r="A20" s="56" t="s">
         <v>13</v>
       </c>
-      <c r="B20" s="52"/>
-      <c r="C20" s="52"/>
-      <c r="D20" s="52"/>
-      <c r="E20" s="52"/>
+      <c r="B20" s="56"/>
+      <c r="C20" s="56"/>
+      <c r="D20" s="56"/>
+      <c r="E20" s="56"/>
       <c r="L20" s="4" t="s">
         <v>56</v>
       </c>
@@ -24372,8 +24488,8 @@
       <c r="Y20" s="10"/>
     </row>
     <row r="21" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A21" s="55" t="s">
-        <v>97</v>
+      <c r="A21" s="59" t="s">
+        <v>96</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>7</v>
@@ -24386,24 +24502,24 @@
         <v>8</v>
       </c>
       <c r="L21" s="22" t="s">
-        <v>114</v>
-      </c>
-      <c r="M21" s="53" t="s">
+        <v>113</v>
+      </c>
+      <c r="M21" s="57" t="s">
         <v>67</v>
       </c>
-      <c r="N21" s="53"/>
-      <c r="O21" s="53" t="s">
+      <c r="N21" s="57"/>
+      <c r="O21" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="P21" s="53"/>
-      <c r="Q21" s="53" t="s">
+      <c r="P21" s="57"/>
+      <c r="Q21" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="R21" s="53"/>
-      <c r="S21" s="53" t="s">
+      <c r="R21" s="57"/>
+      <c r="S21" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="T21" s="53"/>
+      <c r="T21" s="57"/>
       <c r="U21" s="22"/>
       <c r="V21" s="22"/>
       <c r="W21" s="22"/>
@@ -24411,7 +24527,7 @@
       <c r="Y21" s="23"/>
     </row>
     <row r="22" spans="1:39" x14ac:dyDescent="0.45">
-      <c r="A22" s="56"/>
+      <c r="A22" s="60"/>
       <c r="B22" s="44" t="s">
         <v>49</v>
       </c>
@@ -24460,8 +24576,8 @@
       <c r="Y22" s="10"/>
     </row>
     <row r="23" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A23" s="55" t="s">
-        <v>98</v>
+      <c r="A23" s="59" t="s">
+        <v>97</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>7</v>
@@ -24504,11 +24620,11 @@
       </c>
       <c r="Y23" s="9"/>
       <c r="AM23" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="24" spans="1:39" x14ac:dyDescent="0.45">
-      <c r="A24" s="56"/>
+      <c r="A24" s="60"/>
       <c r="B24" s="44" t="s">
         <v>49</v>
       </c>
@@ -24556,12 +24672,12 @@
       <c r="X24" s="4"/>
       <c r="Y24" s="10"/>
       <c r="AM24" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="25" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A25" s="57" t="s">
-        <v>99</v>
+      <c r="A25" s="61" t="s">
+        <v>98</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>7</v>
@@ -24588,11 +24704,11 @@
       <c r="X25" s="32"/>
       <c r="Y25" s="32"/>
       <c r="AM25" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="26" spans="1:39" x14ac:dyDescent="0.45">
-      <c r="A26" s="57"/>
+      <c r="A26" s="61"/>
       <c r="B26" s="7" t="s">
         <v>49</v>
       </c>
@@ -24605,22 +24721,22 @@
       <c r="E26" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="L26" s="54" t="s">
-        <v>69</v>
-      </c>
-      <c r="M26" s="54"/>
-      <c r="N26" s="54"/>
-      <c r="O26" s="54"/>
-      <c r="P26" s="54"/>
-      <c r="Q26" s="54"/>
-      <c r="R26" s="54"/>
-      <c r="S26" s="54"/>
-      <c r="T26" s="54"/>
-      <c r="U26" s="54"/>
-      <c r="V26" s="54"/>
-      <c r="W26" s="54"/>
-      <c r="X26" s="54"/>
-      <c r="Y26" s="54"/>
+      <c r="L26" s="58" t="s">
+        <v>68</v>
+      </c>
+      <c r="M26" s="58"/>
+      <c r="N26" s="58"/>
+      <c r="O26" s="58"/>
+      <c r="P26" s="58"/>
+      <c r="Q26" s="58"/>
+      <c r="R26" s="58"/>
+      <c r="S26" s="58"/>
+      <c r="T26" s="58"/>
+      <c r="U26" s="58"/>
+      <c r="V26" s="58"/>
+      <c r="W26" s="58"/>
+      <c r="X26" s="58"/>
+      <c r="Y26" s="58"/>
     </row>
     <row r="27" spans="1:39" x14ac:dyDescent="0.45">
       <c r="D27" s="18" t="s">
@@ -24712,15 +24828,15 @@
         <v>8</v>
       </c>
       <c r="AM28" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="29" spans="1:39" x14ac:dyDescent="0.45">
       <c r="A29" s="44" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C29" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F29" t="s">
         <v>51</v>
@@ -24768,15 +24884,15 @@
         <v>8</v>
       </c>
       <c r="AM29" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="30" spans="1:39" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C30" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F30" t="s">
         <v>7</v>
@@ -24793,11 +24909,13 @@
       <c r="O30" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="P30" s="53" t="s">
+      <c r="P30" s="57" t="s">
         <v>57</v>
       </c>
-      <c r="Q30" s="53"/>
-      <c r="R30" s="22"/>
+      <c r="Q30" s="57"/>
+      <c r="R30" s="22" t="s">
+        <v>130</v>
+      </c>
       <c r="S30" s="22"/>
       <c r="T30" s="22"/>
       <c r="U30" s="22"/>
@@ -24806,15 +24924,15 @@
       <c r="X30" s="22"/>
       <c r="Y30" s="22"/>
       <c r="AM30" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="31" spans="1:39" x14ac:dyDescent="0.45">
       <c r="A31" s="44" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C31" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="L31" s="4" t="s">
         <v>54</v>
@@ -24835,7 +24953,9 @@
       <c r="Q31" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="R31" s="4"/>
+      <c r="R31" s="4">
+        <v>150</v>
+      </c>
       <c r="S31" s="4"/>
       <c r="T31" s="4"/>
       <c r="U31" s="4"/>
@@ -24846,7 +24966,7 @@
     </row>
     <row r="32" spans="1:39" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="L32" t="s">
         <v>55</v>
@@ -24902,10 +25022,10 @@
       <c r="L34" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="M34" s="53" t="s">
+      <c r="M34" s="57" t="s">
         <v>67</v>
       </c>
-      <c r="N34" s="53"/>
+      <c r="N34" s="57"/>
       <c r="O34" s="22"/>
       <c r="P34" s="22"/>
       <c r="Q34" s="22"/>
@@ -24975,25 +25095,28 @@
       <c r="Y37" s="10"/>
     </row>
     <row r="38" spans="12:25" x14ac:dyDescent="0.45">
+      <c r="M38" s="6" t="s">
+        <v>131</v>
+      </c>
       <c r="Y38" s="9"/>
     </row>
     <row r="39" spans="12:25" x14ac:dyDescent="0.45">
-      <c r="L39" s="54" t="s">
-        <v>68</v>
-      </c>
-      <c r="M39" s="54"/>
-      <c r="N39" s="54"/>
-      <c r="O39" s="54"/>
-      <c r="P39" s="54"/>
-      <c r="Q39" s="54"/>
-      <c r="R39" s="54"/>
-      <c r="S39" s="54"/>
-      <c r="T39" s="54"/>
-      <c r="U39" s="54"/>
-      <c r="V39" s="54"/>
-      <c r="W39" s="54"/>
-      <c r="X39" s="54"/>
-      <c r="Y39" s="54"/>
+      <c r="L39" s="58">
+        <v>102</v>
+      </c>
+      <c r="M39" s="58"/>
+      <c r="N39" s="58"/>
+      <c r="O39" s="58"/>
+      <c r="P39" s="58"/>
+      <c r="Q39" s="58"/>
+      <c r="R39" s="58"/>
+      <c r="S39" s="58"/>
+      <c r="T39" s="58"/>
+      <c r="U39" s="58"/>
+      <c r="V39" s="58"/>
+      <c r="W39" s="58"/>
+      <c r="X39" s="58"/>
+      <c r="Y39" s="58"/>
     </row>
     <row r="40" spans="12:25" x14ac:dyDescent="0.45">
       <c r="L40" s="22"/>
@@ -25094,11 +25217,13 @@
       <c r="O42" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="P42" s="53" t="s">
+      <c r="P42" s="57" t="s">
         <v>57</v>
       </c>
-      <c r="Q42" s="53"/>
-      <c r="R42" s="22"/>
+      <c r="Q42" s="57"/>
+      <c r="R42" s="22" t="s">
+        <v>130</v>
+      </c>
       <c r="S42" s="22"/>
       <c r="T42" s="22"/>
       <c r="U42" s="22"/>
@@ -25127,7 +25252,9 @@
       <c r="Q43" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="R43" s="4"/>
+      <c r="R43" s="4">
+        <v>130</v>
+      </c>
       <c r="S43" s="4"/>
       <c r="T43" s="4"/>
       <c r="U43" s="4"/>
@@ -25191,10 +25318,10 @@
       <c r="L46" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="M46" s="53" t="s">
+      <c r="M46" s="57" t="s">
         <v>67</v>
       </c>
-      <c r="N46" s="53"/>
+      <c r="N46" s="57"/>
       <c r="O46" s="22"/>
       <c r="P46" s="22"/>
       <c r="Q46" s="22"/>
@@ -25270,22 +25397,22 @@
       <c r="Y51" s="9"/>
     </row>
     <row r="52" spans="12:30" x14ac:dyDescent="0.45">
-      <c r="L52" s="54" t="s">
-        <v>70</v>
-      </c>
-      <c r="M52" s="54"/>
-      <c r="N52" s="54"/>
-      <c r="O52" s="54"/>
-      <c r="P52" s="54"/>
-      <c r="Q52" s="54"/>
-      <c r="R52" s="54"/>
-      <c r="S52" s="54"/>
-      <c r="T52" s="54"/>
-      <c r="U52" s="54"/>
-      <c r="V52" s="54"/>
-      <c r="W52" s="54"/>
-      <c r="X52" s="54"/>
-      <c r="Y52" s="54"/>
+      <c r="L52" s="58" t="s">
+        <v>69</v>
+      </c>
+      <c r="M52" s="58"/>
+      <c r="N52" s="58"/>
+      <c r="O52" s="58"/>
+      <c r="P52" s="58"/>
+      <c r="Q52" s="58"/>
+      <c r="R52" s="58"/>
+      <c r="S52" s="58"/>
+      <c r="T52" s="58"/>
+      <c r="U52" s="58"/>
+      <c r="V52" s="58"/>
+      <c r="W52" s="58"/>
+      <c r="X52" s="58"/>
+      <c r="Y52" s="58"/>
     </row>
     <row r="53" spans="12:30" x14ac:dyDescent="0.45">
       <c r="L53" s="22"/>
@@ -25430,11 +25557,13 @@
       <c r="O56" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="P56" s="53" t="s">
+      <c r="P56" s="57" t="s">
         <v>57</v>
       </c>
-      <c r="Q56" s="53"/>
-      <c r="R56" s="22"/>
+      <c r="Q56" s="57"/>
+      <c r="R56" s="22" t="s">
+        <v>130</v>
+      </c>
       <c r="S56" s="22"/>
       <c r="T56" s="22"/>
       <c r="U56" s="22"/>
@@ -25463,7 +25592,9 @@
       <c r="Q57" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="R57" s="4"/>
+      <c r="R57" s="4">
+        <v>130</v>
+      </c>
       <c r="S57" s="4"/>
       <c r="T57" s="4"/>
       <c r="U57" s="4"/>
@@ -25523,20 +25654,20 @@
       <c r="X59" s="4"/>
       <c r="Y59" s="10"/>
       <c r="AB59" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AD59" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="60" spans="12:30" x14ac:dyDescent="0.45">
       <c r="L60" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="M60" s="53" t="s">
+      <c r="M60" s="57" t="s">
         <v>67</v>
       </c>
-      <c r="N60" s="53"/>
+      <c r="N60" s="57"/>
       <c r="O60" s="26"/>
       <c r="P60" s="25"/>
       <c r="Q60" s="22"/>
@@ -25549,10 +25680,10 @@
       <c r="X60" s="22"/>
       <c r="Y60" s="23"/>
       <c r="AB60" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AD60" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="61" spans="12:30" x14ac:dyDescent="0.45">
@@ -25577,10 +25708,10 @@
       <c r="X61" s="4"/>
       <c r="Y61" s="10"/>
       <c r="AB61" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AD61" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="62" spans="12:30" x14ac:dyDescent="0.45">
@@ -25595,7 +25726,7 @@
       </c>
       <c r="Y62" s="9"/>
       <c r="AB62" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="63" spans="12:30" x14ac:dyDescent="0.45">
@@ -25620,34 +25751,34 @@
       <c r="X63" s="4"/>
       <c r="Y63" s="10"/>
       <c r="AD63" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="64" spans="12:30" x14ac:dyDescent="0.45">
       <c r="Y64" s="9"/>
       <c r="AD64" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="65" spans="12:30" x14ac:dyDescent="0.45">
+      <c r="L65" s="58" t="s">
+        <v>70</v>
+      </c>
+      <c r="M65" s="58"/>
+      <c r="N65" s="58"/>
+      <c r="O65" s="58"/>
+      <c r="P65" s="58"/>
+      <c r="Q65" s="58"/>
+      <c r="R65" s="58"/>
+      <c r="S65" s="58"/>
+      <c r="T65" s="58"/>
+      <c r="U65" s="58"/>
+      <c r="V65" s="58"/>
+      <c r="W65" s="58"/>
+      <c r="X65" s="58"/>
+      <c r="Y65" s="58"/>
+      <c r="AD65" t="s">
         <v>81</v>
-      </c>
-    </row>
-    <row r="65" spans="12:30" x14ac:dyDescent="0.45">
-      <c r="L65" s="54" t="s">
-        <v>71</v>
-      </c>
-      <c r="M65" s="54"/>
-      <c r="N65" s="54"/>
-      <c r="O65" s="54"/>
-      <c r="P65" s="54"/>
-      <c r="Q65" s="54"/>
-      <c r="R65" s="54"/>
-      <c r="S65" s="54"/>
-      <c r="T65" s="54"/>
-      <c r="U65" s="54"/>
-      <c r="V65" s="54"/>
-      <c r="W65" s="54"/>
-      <c r="X65" s="54"/>
-      <c r="Y65" s="54"/>
-      <c r="AD65" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="66" spans="12:30" x14ac:dyDescent="0.45">
@@ -25749,11 +25880,13 @@
       <c r="O68" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="P68" s="53" t="s">
+      <c r="P68" s="57" t="s">
         <v>57</v>
       </c>
-      <c r="Q68" s="53"/>
-      <c r="R68" s="22"/>
+      <c r="Q68" s="57"/>
+      <c r="R68" s="22" t="s">
+        <v>130</v>
+      </c>
       <c r="S68" s="22"/>
       <c r="T68" s="22"/>
       <c r="U68" s="22"/>
@@ -25782,7 +25915,9 @@
       <c r="Q69" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="R69" s="4"/>
+      <c r="R69" s="4">
+        <v>130</v>
+      </c>
       <c r="S69" s="4"/>
       <c r="T69" s="4"/>
       <c r="U69" s="4"/>
@@ -25846,10 +25981,10 @@
       <c r="L72" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="M72" s="53" t="s">
+      <c r="M72" s="57" t="s">
         <v>67</v>
       </c>
-      <c r="N72" s="53"/>
+      <c r="N72" s="57"/>
       <c r="O72" s="22"/>
       <c r="P72" s="22"/>
       <c r="Q72" s="22"/>
@@ -25925,22 +26060,22 @@
       <c r="Y77" s="9"/>
     </row>
     <row r="78" spans="12:30" x14ac:dyDescent="0.45">
-      <c r="L78" s="54" t="s">
-        <v>72</v>
-      </c>
-      <c r="M78" s="54"/>
-      <c r="N78" s="54"/>
-      <c r="O78" s="54"/>
-      <c r="P78" s="54"/>
-      <c r="Q78" s="54"/>
-      <c r="R78" s="54"/>
-      <c r="S78" s="54"/>
-      <c r="T78" s="54"/>
-      <c r="U78" s="54"/>
-      <c r="V78" s="54"/>
-      <c r="W78" s="54"/>
-      <c r="X78" s="54"/>
-      <c r="Y78" s="54"/>
+      <c r="L78" s="58" t="s">
+        <v>71</v>
+      </c>
+      <c r="M78" s="58"/>
+      <c r="N78" s="58"/>
+      <c r="O78" s="58"/>
+      <c r="P78" s="58"/>
+      <c r="Q78" s="58"/>
+      <c r="R78" s="58"/>
+      <c r="S78" s="58"/>
+      <c r="T78" s="58"/>
+      <c r="U78" s="58"/>
+      <c r="V78" s="58"/>
+      <c r="W78" s="58"/>
+      <c r="X78" s="58"/>
+      <c r="Y78" s="58"/>
     </row>
     <row r="79" spans="12:30" x14ac:dyDescent="0.45">
       <c r="L79" s="22"/>
@@ -26085,11 +26220,13 @@
       <c r="O82" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="P82" s="53" t="s">
+      <c r="P82" s="57" t="s">
         <v>57</v>
       </c>
-      <c r="Q82" s="53"/>
-      <c r="R82" s="22"/>
+      <c r="Q82" s="57"/>
+      <c r="R82" s="22" t="s">
+        <v>130</v>
+      </c>
       <c r="S82" s="22"/>
       <c r="T82" s="22"/>
       <c r="U82" s="22"/>
@@ -26118,7 +26255,9 @@
       <c r="Q83" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="R83" s="4"/>
+      <c r="R83" s="4">
+        <v>150</v>
+      </c>
       <c r="S83" s="4"/>
       <c r="T83" s="4"/>
       <c r="U83" s="4"/>
@@ -26182,10 +26321,10 @@
       <c r="L86" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="M86" s="53" t="s">
+      <c r="M86" s="57" t="s">
         <v>67</v>
       </c>
-      <c r="N86" s="53"/>
+      <c r="N86" s="57"/>
       <c r="O86" s="22"/>
       <c r="P86" s="22"/>
       <c r="Q86" s="22"/>
@@ -26258,22 +26397,22 @@
       <c r="Y90" s="9"/>
     </row>
     <row r="91" spans="12:25" x14ac:dyDescent="0.45">
-      <c r="L91" s="54" t="s">
-        <v>73</v>
-      </c>
-      <c r="M91" s="54"/>
-      <c r="N91" s="54"/>
-      <c r="O91" s="54"/>
-      <c r="P91" s="54"/>
-      <c r="Q91" s="54"/>
-      <c r="R91" s="54"/>
-      <c r="S91" s="54"/>
-      <c r="T91" s="54"/>
-      <c r="U91" s="54"/>
-      <c r="V91" s="54"/>
-      <c r="W91" s="54"/>
-      <c r="X91" s="54"/>
-      <c r="Y91" s="54"/>
+      <c r="L91" s="58" t="s">
+        <v>72</v>
+      </c>
+      <c r="M91" s="58"/>
+      <c r="N91" s="58"/>
+      <c r="O91" s="58"/>
+      <c r="P91" s="58"/>
+      <c r="Q91" s="58"/>
+      <c r="R91" s="58"/>
+      <c r="S91" s="58"/>
+      <c r="T91" s="58"/>
+      <c r="U91" s="58"/>
+      <c r="V91" s="58"/>
+      <c r="W91" s="58"/>
+      <c r="X91" s="58"/>
+      <c r="Y91" s="58"/>
     </row>
     <row r="92" spans="12:25" x14ac:dyDescent="0.45">
       <c r="L92" s="22"/>
@@ -26374,11 +26513,13 @@
       <c r="O94" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="P94" s="53" t="s">
+      <c r="P94" s="57" t="s">
         <v>57</v>
       </c>
-      <c r="Q94" s="53"/>
-      <c r="R94" s="22"/>
+      <c r="Q94" s="57"/>
+      <c r="R94" s="22" t="s">
+        <v>130</v>
+      </c>
       <c r="S94" s="22"/>
       <c r="T94" s="22"/>
       <c r="U94" s="22"/>
@@ -26407,7 +26548,9 @@
       <c r="Q95" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="R95" s="4"/>
+      <c r="R95" s="4">
+        <v>130</v>
+      </c>
       <c r="S95" s="4"/>
       <c r="T95" s="4"/>
       <c r="U95" s="4"/>
@@ -26478,10 +26621,10 @@
       <c r="L98" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="M98" s="53" t="s">
+      <c r="M98" s="57" t="s">
         <v>67</v>
       </c>
-      <c r="N98" s="53"/>
+      <c r="N98" s="57"/>
       <c r="O98" s="22"/>
       <c r="P98" s="22"/>
       <c r="Q98" s="22"/>
@@ -26638,8 +26781,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AI264"/>
   <sheetViews>
-    <sheetView topLeftCell="AA131" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AT147" sqref="AS147:AT147"/>
+    <sheetView topLeftCell="I154" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="AB236" sqref="AB236"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -26664,35 +26807,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.45">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="56" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="L1" s="54" t="s">
-        <v>95</v>
-      </c>
-      <c r="M1" s="54"/>
-      <c r="N1" s="54"/>
-      <c r="O1" s="54"/>
-      <c r="P1" s="54"/>
-      <c r="Q1" s="54"/>
-      <c r="R1" s="54"/>
-      <c r="S1" s="54"/>
-      <c r="T1" s="54"/>
-      <c r="U1" s="54"/>
-      <c r="V1" s="54"/>
-      <c r="W1" s="54"/>
-      <c r="X1" s="54"/>
-      <c r="Y1" s="54"/>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="L1" s="58" t="s">
+        <v>94</v>
+      </c>
+      <c r="M1" s="58"/>
+      <c r="N1" s="58"/>
+      <c r="O1" s="58"/>
+      <c r="P1" s="58"/>
+      <c r="Q1" s="58"/>
+      <c r="R1" s="58"/>
+      <c r="S1" s="58"/>
+      <c r="T1" s="58"/>
+      <c r="U1" s="58"/>
+      <c r="V1" s="58"/>
+      <c r="W1" s="58"/>
+      <c r="X1" s="58"/>
+      <c r="Y1" s="58"/>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.45">
-      <c r="A2" s="58" t="s">
+      <c r="A2" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="58"/>
+      <c r="B2" s="62"/>
       <c r="C2" s="4">
         <v>4940</v>
       </c>
@@ -26742,10 +26885,10 @@
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.45">
-      <c r="A3" s="59" t="s">
+      <c r="A3" s="63" t="s">
         <v>51</v>
       </c>
-      <c r="B3" s="59"/>
+      <c r="B3" s="63"/>
       <c r="C3">
         <v>5720</v>
       </c>
@@ -26858,11 +27001,13 @@
       <c r="O5" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="P5" s="53" t="s">
+      <c r="P5" s="57" t="s">
         <v>57</v>
       </c>
-      <c r="Q5" s="53"/>
-      <c r="R5" s="22"/>
+      <c r="Q5" s="57"/>
+      <c r="R5" s="22" t="s">
+        <v>130</v>
+      </c>
       <c r="S5" s="22"/>
       <c r="T5" s="22"/>
       <c r="U5" s="22"/>
@@ -26872,13 +27017,13 @@
       <c r="Y5" s="22"/>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.45">
-      <c r="A6" s="52" t="s">
+      <c r="A6" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="52"/>
-      <c r="C6" s="52"/>
-      <c r="D6" s="52"/>
-      <c r="E6" s="52"/>
+      <c r="B6" s="56"/>
+      <c r="C6" s="56"/>
+      <c r="D6" s="56"/>
+      <c r="E6" s="56"/>
       <c r="L6" s="4" t="s">
         <v>54</v>
       </c>
@@ -26898,7 +27043,9 @@
       <c r="Q6" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="R6" s="4"/>
+      <c r="R6" s="4">
+        <v>160</v>
+      </c>
       <c r="S6" s="4"/>
       <c r="T6" s="4"/>
       <c r="U6" s="4"/>
@@ -26908,8 +27055,8 @@
       <c r="Y6" s="10"/>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.45">
-      <c r="A7" s="55" t="s">
-        <v>97</v>
+      <c r="A7" s="59" t="s">
+        <v>96</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>7</v>
@@ -26943,7 +27090,7 @@
       <c r="Y7" s="9"/>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.45">
-      <c r="A8" s="56"/>
+      <c r="A8" s="60"/>
       <c r="B8" s="44" t="s">
         <v>51</v>
       </c>
@@ -26985,8 +27132,8 @@
       <c r="Y8" s="10"/>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.45">
-      <c r="A9" s="55" t="s">
-        <v>98</v>
+      <c r="A9" s="59" t="s">
+        <v>97</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>7</v>
@@ -27001,22 +27148,22 @@
       <c r="L9" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="M9" s="53" t="s">
+      <c r="M9" s="57" t="s">
         <v>67</v>
       </c>
-      <c r="N9" s="53"/>
-      <c r="O9" s="53" t="s">
+      <c r="N9" s="57"/>
+      <c r="O9" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="P9" s="53"/>
-      <c r="Q9" s="53" t="s">
+      <c r="P9" s="57"/>
+      <c r="Q9" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="R9" s="53"/>
-      <c r="S9" s="53" t="s">
+      <c r="R9" s="57"/>
+      <c r="S9" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="T9" s="53"/>
+      <c r="T9" s="57"/>
       <c r="U9" s="22"/>
       <c r="V9" s="22"/>
       <c r="W9" s="22"/>
@@ -27024,7 +27171,7 @@
       <c r="Y9" s="23"/>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.45">
-      <c r="A10" s="56"/>
+      <c r="A10" s="60"/>
       <c r="B10" s="44" t="s">
         <v>51</v>
       </c>
@@ -27073,8 +27220,8 @@
       <c r="Y10" s="10"/>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.45">
-      <c r="A11" s="57" t="s">
-        <v>99</v>
+      <c r="A11" s="61" t="s">
+        <v>98</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>7</v>
@@ -27118,7 +27265,7 @@
       <c r="Y11" s="9"/>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.45">
-      <c r="A12" s="57"/>
+      <c r="A12" s="61"/>
       <c r="B12" s="7" t="s">
         <v>51</v>
       </c>
@@ -27173,22 +27320,22 @@
       <c r="L13" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="M13" s="53" t="s">
+      <c r="M13" s="57" t="s">
         <v>67</v>
       </c>
-      <c r="N13" s="53"/>
-      <c r="O13" s="53" t="s">
+      <c r="N13" s="57"/>
+      <c r="O13" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="P13" s="53"/>
-      <c r="Q13" s="53" t="s">
+      <c r="P13" s="57"/>
+      <c r="Q13" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="R13" s="53"/>
-      <c r="S13" s="53" t="s">
+      <c r="R13" s="57"/>
+      <c r="S13" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="T13" s="53"/>
+      <c r="T13" s="57"/>
       <c r="U13" s="22"/>
       <c r="V13" s="22"/>
       <c r="W13" s="22"/>
@@ -27232,13 +27379,13 @@
       <c r="Y14" s="10"/>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.45">
-      <c r="A15" s="52" t="s">
+      <c r="A15" s="56" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="52"/>
-      <c r="C15" s="52"/>
-      <c r="D15" s="52"/>
-      <c r="E15" s="52"/>
+      <c r="B15" s="56"/>
+      <c r="C15" s="56"/>
+      <c r="D15" s="56"/>
+      <c r="E15" s="56"/>
       <c r="L15" t="s">
         <v>55</v>
       </c>
@@ -27271,8 +27418,8 @@
       <c r="Y15" s="9"/>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.45">
-      <c r="A16" s="55" t="s">
-        <v>98</v>
+      <c r="A16" s="59" t="s">
+        <v>97</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>7</v>
@@ -27320,7 +27467,7 @@
       <c r="Y16" s="10"/>
     </row>
     <row r="17" spans="1:35" x14ac:dyDescent="0.45">
-      <c r="A17" s="56"/>
+      <c r="A17" s="60"/>
       <c r="B17" s="44" t="s">
         <v>51</v>
       </c>
@@ -27336,8 +27483,8 @@
       <c r="Y17" s="9"/>
     </row>
     <row r="18" spans="1:35" x14ac:dyDescent="0.45">
-      <c r="A18" s="57" t="s">
-        <v>99</v>
+      <c r="A18" s="61" t="s">
+        <v>98</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>7</v>
@@ -27349,25 +27496,25 @@
       <c r="E18" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="L18" s="54" t="s">
-        <v>96</v>
-      </c>
-      <c r="M18" s="54"/>
-      <c r="N18" s="54"/>
-      <c r="O18" s="54"/>
-      <c r="P18" s="54"/>
-      <c r="Q18" s="54"/>
-      <c r="R18" s="54"/>
-      <c r="S18" s="54"/>
-      <c r="T18" s="54"/>
-      <c r="U18" s="54"/>
-      <c r="V18" s="54"/>
-      <c r="W18" s="54"/>
-      <c r="X18" s="54"/>
-      <c r="Y18" s="54"/>
+      <c r="L18" s="58" t="s">
+        <v>95</v>
+      </c>
+      <c r="M18" s="58"/>
+      <c r="N18" s="58"/>
+      <c r="O18" s="58"/>
+      <c r="P18" s="58"/>
+      <c r="Q18" s="58"/>
+      <c r="R18" s="58"/>
+      <c r="S18" s="58"/>
+      <c r="T18" s="58"/>
+      <c r="U18" s="58"/>
+      <c r="V18" s="58"/>
+      <c r="W18" s="58"/>
+      <c r="X18" s="58"/>
+      <c r="Y18" s="58"/>
     </row>
     <row r="19" spans="1:35" x14ac:dyDescent="0.45">
-      <c r="A19" s="57"/>
+      <c r="A19" s="61"/>
       <c r="B19" s="7" t="s">
         <v>51</v>
       </c>
@@ -27481,11 +27628,13 @@
       <c r="O21" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="P21" s="53" t="s">
+      <c r="P21" s="57" t="s">
         <v>57</v>
       </c>
-      <c r="Q21" s="53"/>
-      <c r="R21" s="22"/>
+      <c r="Q21" s="57"/>
+      <c r="R21" s="22" t="s">
+        <v>130</v>
+      </c>
       <c r="S21" s="22"/>
       <c r="T21" s="22"/>
       <c r="U21" s="22"/>
@@ -27495,13 +27644,13 @@
       <c r="Y21" s="22"/>
     </row>
     <row r="22" spans="1:35" x14ac:dyDescent="0.45">
-      <c r="A22" s="52" t="s">
+      <c r="A22" s="56" t="s">
         <v>23</v>
       </c>
-      <c r="B22" s="52"/>
-      <c r="C22" s="52"/>
-      <c r="D22" s="52"/>
-      <c r="E22" s="52"/>
+      <c r="B22" s="56"/>
+      <c r="C22" s="56"/>
+      <c r="D22" s="56"/>
+      <c r="E22" s="56"/>
       <c r="L22" s="4" t="s">
         <v>54</v>
       </c>
@@ -27521,7 +27670,9 @@
       <c r="Q22" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="R22" s="4"/>
+      <c r="R22" s="4">
+        <v>200</v>
+      </c>
       <c r="S22" s="4"/>
       <c r="T22" s="4"/>
       <c r="U22" s="4"/>
@@ -27531,8 +27682,8 @@
       <c r="Y22" s="10"/>
     </row>
     <row r="23" spans="1:35" x14ac:dyDescent="0.45">
-      <c r="A23" s="55" t="s">
-        <v>98</v>
+      <c r="A23" s="59" t="s">
+        <v>97</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>7</v>
@@ -27566,7 +27717,7 @@
       <c r="Y23" s="9"/>
     </row>
     <row r="24" spans="1:35" x14ac:dyDescent="0.45">
-      <c r="A24" s="56"/>
+      <c r="A24" s="60"/>
       <c r="B24" s="44" t="s">
         <v>51</v>
       </c>
@@ -27607,12 +27758,12 @@
       <c r="X24" s="4"/>
       <c r="Y24" s="10"/>
       <c r="AI24" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="25" spans="1:35" x14ac:dyDescent="0.45">
-      <c r="A25" s="57" t="s">
-        <v>99</v>
+      <c r="A25" s="61" t="s">
+        <v>98</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>7</v>
@@ -27627,33 +27778,33 @@
       <c r="L25" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="M25" s="53" t="s">
+      <c r="M25" s="57" t="s">
         <v>67</v>
       </c>
-      <c r="N25" s="53"/>
-      <c r="O25" s="53" t="s">
+      <c r="N25" s="57"/>
+      <c r="O25" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="P25" s="53"/>
-      <c r="Q25" s="53" t="s">
+      <c r="P25" s="57"/>
+      <c r="Q25" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="R25" s="53"/>
-      <c r="S25" s="53" t="s">
+      <c r="R25" s="57"/>
+      <c r="S25" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="T25" s="53"/>
+      <c r="T25" s="57"/>
       <c r="U25" s="22"/>
       <c r="V25" s="22"/>
       <c r="W25" s="22"/>
       <c r="X25" s="22"/>
       <c r="Y25" s="23"/>
       <c r="AI25" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="26" spans="1:35" x14ac:dyDescent="0.45">
-      <c r="A26" s="57"/>
+      <c r="A26" s="61"/>
       <c r="B26" s="7" t="s">
         <v>51</v>
       </c>
@@ -27701,7 +27852,7 @@
       <c r="X26" s="4"/>
       <c r="Y26" s="4"/>
       <c r="AI26" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="27" spans="1:35" x14ac:dyDescent="0.45">
@@ -27740,10 +27891,10 @@
     </row>
     <row r="28" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B28" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="L28" s="4" t="s">
         <v>56</v>
@@ -27782,45 +27933,45 @@
     </row>
     <row r="29" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B29" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="L29" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="M29" s="53" t="s">
+      <c r="M29" s="57" t="s">
         <v>67</v>
       </c>
-      <c r="N29" s="53"/>
-      <c r="O29" s="53" t="s">
+      <c r="N29" s="57"/>
+      <c r="O29" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="P29" s="53"/>
-      <c r="Q29" s="53" t="s">
+      <c r="P29" s="57"/>
+      <c r="Q29" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="R29" s="53"/>
-      <c r="S29" s="53" t="s">
+      <c r="R29" s="57"/>
+      <c r="S29" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="T29" s="53"/>
+      <c r="T29" s="57"/>
       <c r="U29" s="22"/>
       <c r="V29" s="22"/>
       <c r="W29" s="22"/>
       <c r="X29" s="22"/>
       <c r="Y29" s="23"/>
       <c r="AI29" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="30" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B30" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="L30" s="4" t="s">
         <v>54</v>
@@ -27857,12 +28008,12 @@
       <c r="X30" s="4"/>
       <c r="Y30" s="4"/>
       <c r="AI30" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="31" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L31" t="s">
         <v>55</v>
@@ -27894,12 +28045,12 @@
         <v>53</v>
       </c>
       <c r="AI31" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="32" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="L32" s="4" t="s">
         <v>56</v>
@@ -27938,27 +28089,27 @@
     </row>
     <row r="33" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="Y33" s="9"/>
     </row>
     <row r="34" spans="1:25" x14ac:dyDescent="0.45">
-      <c r="L34" s="54" t="s">
+      <c r="L34" s="58" t="s">
         <v>22</v>
       </c>
-      <c r="M34" s="54"/>
-      <c r="N34" s="54"/>
-      <c r="O34" s="54"/>
-      <c r="P34" s="54"/>
-      <c r="Q34" s="54"/>
-      <c r="R34" s="54"/>
-      <c r="S34" s="54"/>
-      <c r="T34" s="54"/>
-      <c r="U34" s="54"/>
-      <c r="V34" s="54"/>
-      <c r="W34" s="54"/>
-      <c r="X34" s="54"/>
-      <c r="Y34" s="54"/>
+      <c r="M34" s="58"/>
+      <c r="N34" s="58"/>
+      <c r="O34" s="58"/>
+      <c r="P34" s="58"/>
+      <c r="Q34" s="58"/>
+      <c r="R34" s="58"/>
+      <c r="S34" s="58"/>
+      <c r="T34" s="58"/>
+      <c r="U34" s="58"/>
+      <c r="V34" s="58"/>
+      <c r="W34" s="58"/>
+      <c r="X34" s="58"/>
+      <c r="Y34" s="58"/>
     </row>
     <row r="35" spans="1:25" x14ac:dyDescent="0.45">
       <c r="L35" s="22"/>
@@ -28103,11 +28254,13 @@
       <c r="O38" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="P38" s="53" t="s">
+      <c r="P38" s="57" t="s">
         <v>57</v>
       </c>
-      <c r="Q38" s="53"/>
-      <c r="R38" s="22"/>
+      <c r="Q38" s="57"/>
+      <c r="R38" s="22" t="s">
+        <v>130</v>
+      </c>
       <c r="S38" s="22"/>
       <c r="T38" s="22"/>
       <c r="U38" s="22"/>
@@ -28200,22 +28353,22 @@
       <c r="L42" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="M42" s="53" t="s">
+      <c r="M42" s="57" t="s">
         <v>67</v>
       </c>
-      <c r="N42" s="53"/>
-      <c r="O42" s="53" t="s">
+      <c r="N42" s="57"/>
+      <c r="O42" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="P42" s="53"/>
-      <c r="Q42" s="53" t="s">
+      <c r="P42" s="57"/>
+      <c r="Q42" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="R42" s="53"/>
-      <c r="S42" s="53" t="s">
+      <c r="R42" s="57"/>
+      <c r="S42" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="T42" s="53"/>
+      <c r="T42" s="57"/>
       <c r="U42" s="22"/>
       <c r="V42" s="22"/>
       <c r="W42" s="22"/>
@@ -28329,10 +28482,10 @@
       <c r="L46" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="M46" s="53" t="s">
+      <c r="M46" s="57" t="s">
         <v>67</v>
       </c>
-      <c r="N46" s="53"/>
+      <c r="N46" s="57"/>
       <c r="O46" s="22"/>
       <c r="P46" s="22"/>
       <c r="Q46" s="22"/>
@@ -28405,22 +28558,22 @@
       <c r="Y50" s="9"/>
     </row>
     <row r="51" spans="12:25" x14ac:dyDescent="0.45">
-      <c r="L51" s="54" t="s">
+      <c r="L51" s="58" t="s">
         <v>24</v>
       </c>
-      <c r="M51" s="54"/>
-      <c r="N51" s="54"/>
-      <c r="O51" s="54"/>
-      <c r="P51" s="54"/>
-      <c r="Q51" s="54"/>
-      <c r="R51" s="54"/>
-      <c r="S51" s="54"/>
-      <c r="T51" s="54"/>
-      <c r="U51" s="54"/>
-      <c r="V51" s="54"/>
-      <c r="W51" s="54"/>
-      <c r="X51" s="54"/>
-      <c r="Y51" s="54"/>
+      <c r="M51" s="58"/>
+      <c r="N51" s="58"/>
+      <c r="O51" s="58"/>
+      <c r="P51" s="58"/>
+      <c r="Q51" s="58"/>
+      <c r="R51" s="58"/>
+      <c r="S51" s="58"/>
+      <c r="T51" s="58"/>
+      <c r="U51" s="58"/>
+      <c r="V51" s="58"/>
+      <c r="W51" s="58"/>
+      <c r="X51" s="58"/>
+      <c r="Y51" s="58"/>
     </row>
     <row r="52" spans="12:25" x14ac:dyDescent="0.45">
       <c r="L52" s="22"/>
@@ -28521,11 +28674,13 @@
       <c r="O54" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="P54" s="53" t="s">
+      <c r="P54" s="57" t="s">
         <v>57</v>
       </c>
-      <c r="Q54" s="53"/>
-      <c r="R54" s="22"/>
+      <c r="Q54" s="57"/>
+      <c r="R54" s="22" t="s">
+        <v>130</v>
+      </c>
       <c r="S54" s="22"/>
       <c r="T54" s="22"/>
       <c r="U54" s="22"/>
@@ -28554,7 +28709,9 @@
       <c r="Q55" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="R55" s="4"/>
+      <c r="R55" s="4">
+        <v>120</v>
+      </c>
       <c r="S55" s="4"/>
       <c r="T55" s="4"/>
       <c r="U55" s="4"/>
@@ -28618,22 +28775,22 @@
       <c r="L58" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="M58" s="53" t="s">
+      <c r="M58" s="57" t="s">
         <v>67</v>
       </c>
-      <c r="N58" s="53"/>
-      <c r="O58" s="53" t="s">
+      <c r="N58" s="57"/>
+      <c r="O58" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="P58" s="53"/>
-      <c r="Q58" s="53" t="s">
+      <c r="P58" s="57"/>
+      <c r="Q58" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="R58" s="53"/>
-      <c r="S58" s="53" t="s">
+      <c r="R58" s="57"/>
+      <c r="S58" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="T58" s="53"/>
+      <c r="T58" s="57"/>
       <c r="U58" s="22"/>
       <c r="V58" s="22"/>
       <c r="W58" s="22"/>
@@ -28747,10 +28904,10 @@
       <c r="L62" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="M62" s="53" t="s">
+      <c r="M62" s="57" t="s">
         <v>67</v>
       </c>
-      <c r="N62" s="53"/>
+      <c r="N62" s="57"/>
       <c r="O62" s="22"/>
       <c r="P62" s="22"/>
       <c r="Q62" s="22"/>
@@ -28823,22 +28980,22 @@
       <c r="Y66" s="9"/>
     </row>
     <row r="67" spans="12:25" x14ac:dyDescent="0.45">
-      <c r="L67" s="54" t="s">
+      <c r="L67" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="M67" s="54"/>
-      <c r="N67" s="54"/>
-      <c r="O67" s="54"/>
-      <c r="P67" s="54"/>
-      <c r="Q67" s="54"/>
-      <c r="R67" s="54"/>
-      <c r="S67" s="54"/>
-      <c r="T67" s="54"/>
-      <c r="U67" s="54"/>
-      <c r="V67" s="54"/>
-      <c r="W67" s="54"/>
-      <c r="X67" s="54"/>
-      <c r="Y67" s="54"/>
+      <c r="M67" s="58"/>
+      <c r="N67" s="58"/>
+      <c r="O67" s="58"/>
+      <c r="P67" s="58"/>
+      <c r="Q67" s="58"/>
+      <c r="R67" s="58"/>
+      <c r="S67" s="58"/>
+      <c r="T67" s="58"/>
+      <c r="U67" s="58"/>
+      <c r="V67" s="58"/>
+      <c r="W67" s="58"/>
+      <c r="X67" s="58"/>
+      <c r="Y67" s="58"/>
     </row>
     <row r="68" spans="12:25" x14ac:dyDescent="0.45">
       <c r="L68" s="22"/>
@@ -28983,11 +29140,13 @@
       <c r="O71" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="P71" s="53" t="s">
+      <c r="P71" s="57" t="s">
         <v>57</v>
       </c>
-      <c r="Q71" s="53"/>
-      <c r="R71" s="22"/>
+      <c r="Q71" s="57"/>
+      <c r="R71" s="22" t="s">
+        <v>130</v>
+      </c>
       <c r="S71" s="22"/>
       <c r="T71" s="22"/>
       <c r="U71" s="22"/>
@@ -29016,8 +29175,12 @@
       <c r="Q72" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="R72" s="4"/>
-      <c r="S72" s="4"/>
+      <c r="R72" s="4">
+        <v>150</v>
+      </c>
+      <c r="S72" s="4" t="s">
+        <v>46</v>
+      </c>
       <c r="T72" s="4"/>
       <c r="U72" s="4"/>
       <c r="V72" s="4"/>
@@ -29080,22 +29243,22 @@
       <c r="L75" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="M75" s="53" t="s">
+      <c r="M75" s="57" t="s">
         <v>67</v>
       </c>
-      <c r="N75" s="53"/>
-      <c r="O75" s="53" t="s">
+      <c r="N75" s="57"/>
+      <c r="O75" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="P75" s="53"/>
-      <c r="Q75" s="53" t="s">
+      <c r="P75" s="57"/>
+      <c r="Q75" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="R75" s="53"/>
-      <c r="S75" s="53" t="s">
+      <c r="R75" s="57"/>
+      <c r="S75" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="T75" s="53"/>
+      <c r="T75" s="57"/>
       <c r="U75" s="22"/>
       <c r="V75" s="22"/>
       <c r="W75" s="22"/>
@@ -29209,10 +29372,10 @@
       <c r="L79" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="M79" s="53" t="s">
+      <c r="M79" s="57" t="s">
         <v>67</v>
       </c>
-      <c r="N79" s="53"/>
+      <c r="N79" s="57"/>
       <c r="O79" s="22"/>
       <c r="P79" s="22"/>
       <c r="Q79" s="22"/>
@@ -29282,22 +29445,22 @@
       <c r="Y82" s="10"/>
     </row>
     <row r="85" spans="12:25" x14ac:dyDescent="0.45">
-      <c r="L85" s="54" t="s">
+      <c r="L85" s="58" t="s">
         <v>28</v>
       </c>
-      <c r="M85" s="54"/>
-      <c r="N85" s="54"/>
-      <c r="O85" s="54"/>
-      <c r="P85" s="54"/>
-      <c r="Q85" s="54"/>
-      <c r="R85" s="54"/>
-      <c r="S85" s="54"/>
-      <c r="T85" s="54"/>
-      <c r="U85" s="54"/>
-      <c r="V85" s="54"/>
-      <c r="W85" s="54"/>
-      <c r="X85" s="54"/>
-      <c r="Y85" s="54"/>
+      <c r="M85" s="58"/>
+      <c r="N85" s="58"/>
+      <c r="O85" s="58"/>
+      <c r="P85" s="58"/>
+      <c r="Q85" s="58"/>
+      <c r="R85" s="58"/>
+      <c r="S85" s="58"/>
+      <c r="T85" s="58"/>
+      <c r="U85" s="58"/>
+      <c r="V85" s="58"/>
+      <c r="W85" s="58"/>
+      <c r="X85" s="58"/>
+      <c r="Y85" s="58"/>
     </row>
     <row r="86" spans="12:25" x14ac:dyDescent="0.45">
       <c r="L86" s="22"/>
@@ -29398,11 +29561,13 @@
       <c r="O88" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="P88" s="53" t="s">
+      <c r="P88" s="57" t="s">
         <v>57</v>
       </c>
-      <c r="Q88" s="53"/>
-      <c r="R88" s="22"/>
+      <c r="Q88" s="57"/>
+      <c r="R88" s="22" t="s">
+        <v>130</v>
+      </c>
       <c r="S88" s="22"/>
       <c r="T88" s="22"/>
       <c r="U88" s="22"/>
@@ -29431,7 +29596,9 @@
       <c r="Q89" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="R89" s="4"/>
+      <c r="R89" s="4">
+        <v>130</v>
+      </c>
       <c r="S89" s="4"/>
       <c r="T89" s="4"/>
       <c r="U89" s="4"/>
@@ -29495,22 +29662,22 @@
       <c r="L92" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="M92" s="53" t="s">
+      <c r="M92" s="57" t="s">
         <v>67</v>
       </c>
-      <c r="N92" s="53"/>
-      <c r="O92" s="53" t="s">
+      <c r="N92" s="57"/>
+      <c r="O92" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="P92" s="53"/>
-      <c r="Q92" s="53" t="s">
+      <c r="P92" s="57"/>
+      <c r="Q92" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="R92" s="53"/>
-      <c r="S92" s="53" t="s">
+      <c r="R92" s="57"/>
+      <c r="S92" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="T92" s="53"/>
+      <c r="T92" s="57"/>
       <c r="U92" s="22"/>
       <c r="V92" s="22"/>
       <c r="W92" s="22"/>
@@ -29624,10 +29791,10 @@
       <c r="L96" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="M96" s="53" t="s">
+      <c r="M96" s="57" t="s">
         <v>67</v>
       </c>
-      <c r="N96" s="53"/>
+      <c r="N96" s="57"/>
       <c r="O96" s="22"/>
       <c r="P96" s="22"/>
       <c r="Q96" s="22"/>
@@ -29697,22 +29864,22 @@
       <c r="Y99" s="10"/>
     </row>
     <row r="101" spans="12:30" x14ac:dyDescent="0.45">
-      <c r="L101" s="54" t="s">
+      <c r="L101" s="58" t="s">
         <v>31</v>
       </c>
-      <c r="M101" s="54"/>
-      <c r="N101" s="54"/>
-      <c r="O101" s="54"/>
-      <c r="P101" s="54"/>
-      <c r="Q101" s="54"/>
-      <c r="R101" s="54"/>
-      <c r="S101" s="54"/>
-      <c r="T101" s="54"/>
-      <c r="U101" s="54"/>
-      <c r="V101" s="54"/>
-      <c r="W101" s="54"/>
-      <c r="X101" s="54"/>
-      <c r="Y101" s="54"/>
+      <c r="M101" s="58"/>
+      <c r="N101" s="58"/>
+      <c r="O101" s="58"/>
+      <c r="P101" s="58"/>
+      <c r="Q101" s="58"/>
+      <c r="R101" s="58"/>
+      <c r="S101" s="58"/>
+      <c r="T101" s="58"/>
+      <c r="U101" s="58"/>
+      <c r="V101" s="58"/>
+      <c r="W101" s="58"/>
+      <c r="X101" s="58"/>
+      <c r="Y101" s="58"/>
     </row>
     <row r="102" spans="12:30" x14ac:dyDescent="0.45">
       <c r="L102" s="22"/>
@@ -29756,7 +29923,7 @@
         <v>46</v>
       </c>
       <c r="AD102" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="103" spans="12:30" x14ac:dyDescent="0.45">
@@ -29803,10 +29970,10 @@
         <v>8</v>
       </c>
       <c r="AB103" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AD103" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="104" spans="12:30" x14ac:dyDescent="0.45">
@@ -29853,10 +30020,10 @@
         <v>8</v>
       </c>
       <c r="AB104" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AD104" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="105" spans="12:30" x14ac:dyDescent="0.45">
@@ -29872,11 +30039,13 @@
       <c r="O105" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="P105" s="53" t="s">
+      <c r="P105" s="57" t="s">
         <v>57</v>
       </c>
-      <c r="Q105" s="53"/>
-      <c r="R105" s="22"/>
+      <c r="Q105" s="57"/>
+      <c r="R105" s="22" t="s">
+        <v>130</v>
+      </c>
       <c r="S105" s="22"/>
       <c r="T105" s="22"/>
       <c r="U105" s="22"/>
@@ -29885,7 +30054,7 @@
       <c r="X105" s="22"/>
       <c r="Y105" s="22"/>
       <c r="AB105" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="106" spans="12:30" x14ac:dyDescent="0.45">
@@ -29908,8 +30077,12 @@
       <c r="Q106" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="R106" s="4"/>
-      <c r="S106" s="4"/>
+      <c r="R106" s="4">
+        <v>150</v>
+      </c>
+      <c r="S106" s="4" t="s">
+        <v>46</v>
+      </c>
       <c r="T106" s="4"/>
       <c r="U106" s="4"/>
       <c r="V106" s="4"/>
@@ -29917,7 +30090,7 @@
       <c r="X106" s="4"/>
       <c r="Y106" s="10"/>
       <c r="AD106" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="107" spans="12:30" x14ac:dyDescent="0.45">
@@ -29942,7 +30115,7 @@
       </c>
       <c r="Y107" s="9"/>
       <c r="AD107" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="108" spans="12:30" x14ac:dyDescent="0.45">
@@ -29974,29 +30147,29 @@
       <c r="X108" s="4"/>
       <c r="Y108" s="10"/>
       <c r="AD108" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="109" spans="12:30" x14ac:dyDescent="0.45">
       <c r="L109" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="M109" s="53" t="s">
+      <c r="M109" s="57" t="s">
         <v>67</v>
       </c>
-      <c r="N109" s="53"/>
-      <c r="O109" s="53" t="s">
+      <c r="N109" s="57"/>
+      <c r="O109" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="P109" s="53"/>
-      <c r="Q109" s="53" t="s">
+      <c r="P109" s="57"/>
+      <c r="Q109" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="R109" s="53"/>
-      <c r="S109" s="53" t="s">
+      <c r="R109" s="57"/>
+      <c r="S109" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="T109" s="53"/>
+      <c r="T109" s="57"/>
       <c r="U109" s="22"/>
       <c r="V109" s="22"/>
       <c r="W109" s="22"/>
@@ -30110,10 +30283,10 @@
       <c r="L113" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="M113" s="53" t="s">
+      <c r="M113" s="57" t="s">
         <v>67</v>
       </c>
-      <c r="N113" s="53"/>
+      <c r="N113" s="57"/>
       <c r="O113" s="22"/>
       <c r="P113" s="22"/>
       <c r="Q113" s="22"/>
@@ -30183,22 +30356,22 @@
       <c r="Y116" s="10"/>
     </row>
     <row r="118" spans="12:25" x14ac:dyDescent="0.45">
-      <c r="L118" s="54" t="s">
+      <c r="L118" s="58" t="s">
         <v>34</v>
       </c>
-      <c r="M118" s="54"/>
-      <c r="N118" s="54"/>
-      <c r="O118" s="54"/>
-      <c r="P118" s="54"/>
-      <c r="Q118" s="54"/>
-      <c r="R118" s="54"/>
-      <c r="S118" s="54"/>
-      <c r="T118" s="54"/>
-      <c r="U118" s="54"/>
-      <c r="V118" s="54"/>
-      <c r="W118" s="54"/>
-      <c r="X118" s="54"/>
-      <c r="Y118" s="54"/>
+      <c r="M118" s="58"/>
+      <c r="N118" s="58"/>
+      <c r="O118" s="58"/>
+      <c r="P118" s="58"/>
+      <c r="Q118" s="58"/>
+      <c r="R118" s="58"/>
+      <c r="S118" s="58"/>
+      <c r="T118" s="58"/>
+      <c r="U118" s="58"/>
+      <c r="V118" s="58"/>
+      <c r="W118" s="58"/>
+      <c r="X118" s="58"/>
+      <c r="Y118" s="58"/>
     </row>
     <row r="119" spans="12:25" x14ac:dyDescent="0.45">
       <c r="L119" s="22"/>
@@ -30299,11 +30472,13 @@
       <c r="O121" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="P121" s="53" t="s">
+      <c r="P121" s="57" t="s">
         <v>57</v>
       </c>
-      <c r="Q121" s="53"/>
-      <c r="R121" s="22"/>
+      <c r="Q121" s="57"/>
+      <c r="R121" s="22" t="s">
+        <v>130</v>
+      </c>
       <c r="S121" s="22"/>
       <c r="T121" s="22"/>
       <c r="U121" s="22"/>
@@ -30332,8 +30507,12 @@
       <c r="Q122" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="R122" s="4"/>
-      <c r="S122" s="4"/>
+      <c r="R122" s="4">
+        <v>130</v>
+      </c>
+      <c r="S122" s="4" t="s">
+        <v>46</v>
+      </c>
       <c r="T122" s="4"/>
       <c r="U122" s="4"/>
       <c r="V122" s="4"/>
@@ -30396,22 +30575,22 @@
       <c r="L125" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="M125" s="53" t="s">
+      <c r="M125" s="57" t="s">
         <v>67</v>
       </c>
-      <c r="N125" s="53"/>
-      <c r="O125" s="53" t="s">
+      <c r="N125" s="57"/>
+      <c r="O125" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="P125" s="53"/>
-      <c r="Q125" s="53" t="s">
+      <c r="P125" s="57"/>
+      <c r="Q125" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="R125" s="53"/>
-      <c r="S125" s="53" t="s">
+      <c r="R125" s="57"/>
+      <c r="S125" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="T125" s="53"/>
+      <c r="T125" s="57"/>
       <c r="U125" s="22"/>
       <c r="V125" s="22"/>
       <c r="W125" s="22"/>
@@ -30525,10 +30704,10 @@
       <c r="L129" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="M129" s="53" t="s">
+      <c r="M129" s="57" t="s">
         <v>67</v>
       </c>
-      <c r="N129" s="53"/>
+      <c r="N129" s="57"/>
       <c r="O129" s="22"/>
       <c r="P129" s="22"/>
       <c r="Q129" s="22"/>
@@ -30598,22 +30777,22 @@
       <c r="Y132" s="10"/>
     </row>
     <row r="134" spans="12:25" x14ac:dyDescent="0.45">
-      <c r="L134" s="54" t="s">
+      <c r="L134" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="M134" s="54"/>
-      <c r="N134" s="54"/>
-      <c r="O134" s="54"/>
-      <c r="P134" s="54"/>
-      <c r="Q134" s="54"/>
-      <c r="R134" s="54"/>
-      <c r="S134" s="54"/>
-      <c r="T134" s="54"/>
-      <c r="U134" s="54"/>
-      <c r="V134" s="54"/>
-      <c r="W134" s="54"/>
-      <c r="X134" s="54"/>
-      <c r="Y134" s="54"/>
+      <c r="M134" s="58"/>
+      <c r="N134" s="58"/>
+      <c r="O134" s="58"/>
+      <c r="P134" s="58"/>
+      <c r="Q134" s="58"/>
+      <c r="R134" s="58"/>
+      <c r="S134" s="58"/>
+      <c r="T134" s="58"/>
+      <c r="U134" s="58"/>
+      <c r="V134" s="58"/>
+      <c r="W134" s="58"/>
+      <c r="X134" s="58"/>
+      <c r="Y134" s="58"/>
     </row>
     <row r="135" spans="12:25" x14ac:dyDescent="0.45">
       <c r="L135" s="22"/>
@@ -30758,11 +30937,13 @@
       <c r="O138" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="P138" s="53" t="s">
+      <c r="P138" s="57" t="s">
         <v>57</v>
       </c>
-      <c r="Q138" s="53"/>
-      <c r="R138" s="22"/>
+      <c r="Q138" s="57"/>
+      <c r="R138" s="22" t="s">
+        <v>130</v>
+      </c>
       <c r="S138" s="22"/>
       <c r="T138" s="22"/>
       <c r="U138" s="22"/>
@@ -30791,7 +30972,9 @@
       <c r="Q139" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="R139" s="4"/>
+      <c r="R139" s="4">
+        <v>130</v>
+      </c>
       <c r="S139" s="4"/>
       <c r="T139" s="4"/>
       <c r="U139" s="4"/>
@@ -30855,22 +31038,22 @@
       <c r="L142" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="M142" s="53" t="s">
+      <c r="M142" s="57" t="s">
         <v>67</v>
       </c>
-      <c r="N142" s="53"/>
-      <c r="O142" s="53" t="s">
+      <c r="N142" s="57"/>
+      <c r="O142" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="P142" s="53"/>
-      <c r="Q142" s="53" t="s">
+      <c r="P142" s="57"/>
+      <c r="Q142" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="R142" s="53"/>
-      <c r="S142" s="53" t="s">
+      <c r="R142" s="57"/>
+      <c r="S142" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="T142" s="53"/>
+      <c r="T142" s="57"/>
       <c r="U142" s="22"/>
       <c r="V142" s="22"/>
       <c r="W142" s="22"/>
@@ -30984,10 +31167,10 @@
       <c r="L146" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="M146" s="53" t="s">
+      <c r="M146" s="57" t="s">
         <v>67</v>
       </c>
-      <c r="N146" s="53"/>
+      <c r="N146" s="57"/>
       <c r="O146" s="22"/>
       <c r="P146" s="22"/>
       <c r="Q146" s="22"/>
@@ -31057,22 +31240,22 @@
       <c r="Y149" s="10"/>
     </row>
     <row r="151" spans="12:25" x14ac:dyDescent="0.45">
-      <c r="L151" s="54" t="s">
+      <c r="L151" s="58" t="s">
         <v>29</v>
       </c>
-      <c r="M151" s="54"/>
-      <c r="N151" s="54"/>
-      <c r="O151" s="54"/>
-      <c r="P151" s="54"/>
-      <c r="Q151" s="54"/>
-      <c r="R151" s="54"/>
-      <c r="S151" s="54"/>
-      <c r="T151" s="54"/>
-      <c r="U151" s="54"/>
-      <c r="V151" s="54"/>
-      <c r="W151" s="54"/>
-      <c r="X151" s="54"/>
-      <c r="Y151" s="54"/>
+      <c r="M151" s="58"/>
+      <c r="N151" s="58"/>
+      <c r="O151" s="58"/>
+      <c r="P151" s="58"/>
+      <c r="Q151" s="58"/>
+      <c r="R151" s="58"/>
+      <c r="S151" s="58"/>
+      <c r="T151" s="58"/>
+      <c r="U151" s="58"/>
+      <c r="V151" s="58"/>
+      <c r="W151" s="58"/>
+      <c r="X151" s="58"/>
+      <c r="Y151" s="58"/>
     </row>
     <row r="152" spans="12:25" x14ac:dyDescent="0.45">
       <c r="L152" s="22"/>
@@ -31173,11 +31356,13 @@
       <c r="O154" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="P154" s="53" t="s">
+      <c r="P154" s="57" t="s">
         <v>57</v>
       </c>
-      <c r="Q154" s="53"/>
-      <c r="R154" s="22"/>
+      <c r="Q154" s="57"/>
+      <c r="R154" s="22" t="s">
+        <v>130</v>
+      </c>
       <c r="S154" s="22"/>
       <c r="T154" s="22"/>
       <c r="U154" s="22"/>
@@ -31206,7 +31391,9 @@
       <c r="Q155" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="R155" s="4"/>
+      <c r="R155" s="4">
+        <v>120</v>
+      </c>
       <c r="S155" s="4"/>
       <c r="T155" s="4"/>
       <c r="U155" s="4"/>
@@ -31270,22 +31457,22 @@
       <c r="L158" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="M158" s="53" t="s">
+      <c r="M158" s="57" t="s">
         <v>67</v>
       </c>
-      <c r="N158" s="53"/>
-      <c r="O158" s="53" t="s">
+      <c r="N158" s="57"/>
+      <c r="O158" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="P158" s="53"/>
-      <c r="Q158" s="53" t="s">
+      <c r="P158" s="57"/>
+      <c r="Q158" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="R158" s="53"/>
-      <c r="S158" s="53" t="s">
+      <c r="R158" s="57"/>
+      <c r="S158" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="T158" s="53"/>
+      <c r="T158" s="57"/>
       <c r="U158" s="22"/>
       <c r="V158" s="22"/>
       <c r="W158" s="22"/>
@@ -31399,10 +31586,10 @@
       <c r="L162" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="M162" s="53" t="s">
+      <c r="M162" s="57" t="s">
         <v>67</v>
       </c>
-      <c r="N162" s="53"/>
+      <c r="N162" s="57"/>
       <c r="O162" s="22"/>
       <c r="P162" s="22"/>
       <c r="Q162" s="22"/>
@@ -31472,22 +31659,22 @@
       <c r="Y165" s="10"/>
     </row>
     <row r="167" spans="12:25" x14ac:dyDescent="0.45">
-      <c r="L167" s="54" t="s">
+      <c r="L167" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="M167" s="54"/>
-      <c r="N167" s="54"/>
-      <c r="O167" s="54"/>
-      <c r="P167" s="54"/>
-      <c r="Q167" s="54"/>
-      <c r="R167" s="54"/>
-      <c r="S167" s="54"/>
-      <c r="T167" s="54"/>
-      <c r="U167" s="54"/>
-      <c r="V167" s="54"/>
-      <c r="W167" s="54"/>
-      <c r="X167" s="54"/>
-      <c r="Y167" s="54"/>
+      <c r="M167" s="58"/>
+      <c r="N167" s="58"/>
+      <c r="O167" s="58"/>
+      <c r="P167" s="58"/>
+      <c r="Q167" s="58"/>
+      <c r="R167" s="58"/>
+      <c r="S167" s="58"/>
+      <c r="T167" s="58"/>
+      <c r="U167" s="58"/>
+      <c r="V167" s="58"/>
+      <c r="W167" s="58"/>
+      <c r="X167" s="58"/>
+      <c r="Y167" s="58"/>
     </row>
     <row r="168" spans="12:25" x14ac:dyDescent="0.45">
       <c r="L168" s="22"/>
@@ -31632,11 +31819,13 @@
       <c r="O171" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="P171" s="53" t="s">
+      <c r="P171" s="57" t="s">
         <v>57</v>
       </c>
-      <c r="Q171" s="53"/>
-      <c r="R171" s="22"/>
+      <c r="Q171" s="57"/>
+      <c r="R171" s="22" t="s">
+        <v>130</v>
+      </c>
       <c r="S171" s="22"/>
       <c r="T171" s="22"/>
       <c r="U171" s="22"/>
@@ -31665,7 +31854,9 @@
       <c r="Q172" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="R172" s="4"/>
+      <c r="R172" s="4">
+        <v>130</v>
+      </c>
       <c r="S172" s="4"/>
       <c r="T172" s="4"/>
       <c r="U172" s="4"/>
@@ -31729,22 +31920,22 @@
       <c r="L175" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="M175" s="53" t="s">
+      <c r="M175" s="57" t="s">
         <v>67</v>
       </c>
-      <c r="N175" s="53"/>
-      <c r="O175" s="53" t="s">
+      <c r="N175" s="57"/>
+      <c r="O175" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="P175" s="53"/>
-      <c r="Q175" s="53" t="s">
+      <c r="P175" s="57"/>
+      <c r="Q175" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="R175" s="53"/>
-      <c r="S175" s="53" t="s">
+      <c r="R175" s="57"/>
+      <c r="S175" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="T175" s="53"/>
+      <c r="T175" s="57"/>
       <c r="U175" s="22"/>
       <c r="V175" s="22"/>
       <c r="W175" s="22"/>
@@ -31858,10 +32049,10 @@
       <c r="L179" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="M179" s="53" t="s">
+      <c r="M179" s="57" t="s">
         <v>67</v>
       </c>
-      <c r="N179" s="53"/>
+      <c r="N179" s="57"/>
       <c r="O179" s="22"/>
       <c r="P179" s="22"/>
       <c r="Q179" s="22"/>
@@ -31931,22 +32122,22 @@
       <c r="Y182" s="10"/>
     </row>
     <row r="184" spans="12:25" x14ac:dyDescent="0.45">
-      <c r="L184" s="54" t="s">
+      <c r="L184" s="58" t="s">
         <v>35</v>
       </c>
-      <c r="M184" s="54"/>
-      <c r="N184" s="54"/>
-      <c r="O184" s="54"/>
-      <c r="P184" s="54"/>
-      <c r="Q184" s="54"/>
-      <c r="R184" s="54"/>
-      <c r="S184" s="54"/>
-      <c r="T184" s="54"/>
-      <c r="U184" s="54"/>
-      <c r="V184" s="54"/>
-      <c r="W184" s="54"/>
-      <c r="X184" s="54"/>
-      <c r="Y184" s="54"/>
+      <c r="M184" s="58"/>
+      <c r="N184" s="58"/>
+      <c r="O184" s="58"/>
+      <c r="P184" s="58"/>
+      <c r="Q184" s="58"/>
+      <c r="R184" s="58"/>
+      <c r="S184" s="58"/>
+      <c r="T184" s="58"/>
+      <c r="U184" s="58"/>
+      <c r="V184" s="58"/>
+      <c r="W184" s="58"/>
+      <c r="X184" s="58"/>
+      <c r="Y184" s="58"/>
     </row>
     <row r="185" spans="12:25" x14ac:dyDescent="0.45">
       <c r="L185" s="22"/>
@@ -32047,11 +32238,13 @@
       <c r="O187" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="P187" s="53" t="s">
+      <c r="P187" s="57" t="s">
         <v>57</v>
       </c>
-      <c r="Q187" s="53"/>
-      <c r="R187" s="22"/>
+      <c r="Q187" s="57"/>
+      <c r="R187" s="22" t="s">
+        <v>130</v>
+      </c>
       <c r="S187" s="22"/>
       <c r="T187" s="22"/>
       <c r="U187" s="22"/>
@@ -32080,7 +32273,9 @@
       <c r="Q188" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="R188" s="4"/>
+      <c r="R188" s="4">
+        <v>130</v>
+      </c>
       <c r="S188" s="4"/>
       <c r="T188" s="4"/>
       <c r="U188" s="4"/>
@@ -32144,22 +32339,22 @@
       <c r="L191" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="M191" s="53" t="s">
+      <c r="M191" s="57" t="s">
         <v>67</v>
       </c>
-      <c r="N191" s="53"/>
-      <c r="O191" s="53" t="s">
+      <c r="N191" s="57"/>
+      <c r="O191" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="P191" s="53"/>
-      <c r="Q191" s="53" t="s">
+      <c r="P191" s="57"/>
+      <c r="Q191" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="R191" s="53"/>
-      <c r="S191" s="53" t="s">
+      <c r="R191" s="57"/>
+      <c r="S191" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="T191" s="53"/>
+      <c r="T191" s="57"/>
       <c r="U191" s="22"/>
       <c r="V191" s="22"/>
       <c r="W191" s="22"/>
@@ -32273,10 +32468,10 @@
       <c r="L195" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="M195" s="53" t="s">
+      <c r="M195" s="57" t="s">
         <v>67</v>
       </c>
-      <c r="N195" s="53"/>
+      <c r="N195" s="57"/>
       <c r="O195" s="22"/>
       <c r="P195" s="22"/>
       <c r="Q195" s="22"/>
@@ -32346,22 +32541,22 @@
       <c r="Y198" s="10"/>
     </row>
     <row r="200" spans="12:25" x14ac:dyDescent="0.45">
-      <c r="L200" s="54" t="s">
+      <c r="L200" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="M200" s="54"/>
-      <c r="N200" s="54"/>
-      <c r="O200" s="54"/>
-      <c r="P200" s="54"/>
-      <c r="Q200" s="54"/>
-      <c r="R200" s="54"/>
-      <c r="S200" s="54"/>
-      <c r="T200" s="54"/>
-      <c r="U200" s="54"/>
-      <c r="V200" s="54"/>
-      <c r="W200" s="54"/>
-      <c r="X200" s="54"/>
-      <c r="Y200" s="54"/>
+      <c r="M200" s="58"/>
+      <c r="N200" s="58"/>
+      <c r="O200" s="58"/>
+      <c r="P200" s="58"/>
+      <c r="Q200" s="58"/>
+      <c r="R200" s="58"/>
+      <c r="S200" s="58"/>
+      <c r="T200" s="58"/>
+      <c r="U200" s="58"/>
+      <c r="V200" s="58"/>
+      <c r="W200" s="58"/>
+      <c r="X200" s="58"/>
+      <c r="Y200" s="58"/>
     </row>
     <row r="201" spans="12:25" x14ac:dyDescent="0.45">
       <c r="L201" s="22"/>
@@ -32506,11 +32701,13 @@
       <c r="O204" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="P204" s="53" t="s">
+      <c r="P204" s="57" t="s">
         <v>57</v>
       </c>
-      <c r="Q204" s="53"/>
-      <c r="R204" s="22"/>
+      <c r="Q204" s="57"/>
+      <c r="R204" s="22" t="s">
+        <v>130</v>
+      </c>
       <c r="S204" s="22"/>
       <c r="T204" s="22"/>
       <c r="U204" s="22"/>
@@ -32539,7 +32736,9 @@
       <c r="Q205" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="R205" s="4"/>
+      <c r="R205" s="4">
+        <v>130</v>
+      </c>
       <c r="S205" s="4"/>
       <c r="T205" s="4"/>
       <c r="U205" s="4"/>
@@ -32603,22 +32802,22 @@
       <c r="L208" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="M208" s="53" t="s">
+      <c r="M208" s="57" t="s">
         <v>67</v>
       </c>
-      <c r="N208" s="53"/>
-      <c r="O208" s="53" t="s">
+      <c r="N208" s="57"/>
+      <c r="O208" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="P208" s="53"/>
-      <c r="Q208" s="53" t="s">
+      <c r="P208" s="57"/>
+      <c r="Q208" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="R208" s="53"/>
-      <c r="S208" s="53" t="s">
+      <c r="R208" s="57"/>
+      <c r="S208" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="T208" s="53"/>
+      <c r="T208" s="57"/>
       <c r="U208" s="22"/>
       <c r="V208" s="22"/>
       <c r="W208" s="22"/>
@@ -32732,10 +32931,10 @@
       <c r="L212" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="M212" s="53" t="s">
+      <c r="M212" s="57" t="s">
         <v>67</v>
       </c>
-      <c r="N212" s="53"/>
+      <c r="N212" s="57"/>
       <c r="O212" s="22"/>
       <c r="P212" s="22"/>
       <c r="Q212" s="22"/>
@@ -32805,22 +33004,22 @@
       <c r="Y215" s="10"/>
     </row>
     <row r="217" spans="12:25" x14ac:dyDescent="0.45">
-      <c r="L217" s="54" t="s">
+      <c r="L217" s="58" t="s">
         <v>30</v>
       </c>
-      <c r="M217" s="54"/>
-      <c r="N217" s="54"/>
-      <c r="O217" s="54"/>
-      <c r="P217" s="54"/>
-      <c r="Q217" s="54"/>
-      <c r="R217" s="54"/>
-      <c r="S217" s="54"/>
-      <c r="T217" s="54"/>
-      <c r="U217" s="54"/>
-      <c r="V217" s="54"/>
-      <c r="W217" s="54"/>
-      <c r="X217" s="54"/>
-      <c r="Y217" s="54"/>
+      <c r="M217" s="58"/>
+      <c r="N217" s="58"/>
+      <c r="O217" s="58"/>
+      <c r="P217" s="58"/>
+      <c r="Q217" s="58"/>
+      <c r="R217" s="58"/>
+      <c r="S217" s="58"/>
+      <c r="T217" s="58"/>
+      <c r="U217" s="58"/>
+      <c r="V217" s="58"/>
+      <c r="W217" s="58"/>
+      <c r="X217" s="58"/>
+      <c r="Y217" s="58"/>
     </row>
     <row r="218" spans="12:25" x14ac:dyDescent="0.45">
       <c r="L218" s="22"/>
@@ -32921,11 +33120,13 @@
       <c r="O220" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="P220" s="53" t="s">
+      <c r="P220" s="57" t="s">
         <v>57</v>
       </c>
-      <c r="Q220" s="53"/>
-      <c r="R220" s="22"/>
+      <c r="Q220" s="57"/>
+      <c r="R220" s="22" t="s">
+        <v>130</v>
+      </c>
       <c r="S220" s="22"/>
       <c r="T220" s="22"/>
       <c r="U220" s="22"/>
@@ -33018,22 +33219,22 @@
       <c r="L224" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="M224" s="53" t="s">
+      <c r="M224" s="57" t="s">
         <v>67</v>
       </c>
-      <c r="N224" s="53"/>
-      <c r="O224" s="53" t="s">
+      <c r="N224" s="57"/>
+      <c r="O224" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="P224" s="53"/>
-      <c r="Q224" s="53" t="s">
+      <c r="P224" s="57"/>
+      <c r="Q224" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="R224" s="53"/>
-      <c r="S224" s="53" t="s">
+      <c r="R224" s="57"/>
+      <c r="S224" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="T224" s="53"/>
+      <c r="T224" s="57"/>
       <c r="U224" s="22"/>
       <c r="V224" s="22"/>
       <c r="W224" s="22"/>
@@ -33147,10 +33348,10 @@
       <c r="L228" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="M228" s="53" t="s">
+      <c r="M228" s="57" t="s">
         <v>67</v>
       </c>
-      <c r="N228" s="53"/>
+      <c r="N228" s="57"/>
       <c r="O228" s="22"/>
       <c r="P228" s="22"/>
       <c r="Q228" s="22"/>
@@ -33220,22 +33421,22 @@
       <c r="Y231" s="10"/>
     </row>
     <row r="233" spans="12:25" x14ac:dyDescent="0.45">
-      <c r="L233" s="54" t="s">
+      <c r="L233" s="58" t="s">
         <v>33</v>
       </c>
-      <c r="M233" s="54"/>
-      <c r="N233" s="54"/>
-      <c r="O233" s="54"/>
-      <c r="P233" s="54"/>
-      <c r="Q233" s="54"/>
-      <c r="R233" s="54"/>
-      <c r="S233" s="54"/>
-      <c r="T233" s="54"/>
-      <c r="U233" s="54"/>
-      <c r="V233" s="54"/>
-      <c r="W233" s="54"/>
-      <c r="X233" s="54"/>
-      <c r="Y233" s="54"/>
+      <c r="M233" s="58"/>
+      <c r="N233" s="58"/>
+      <c r="O233" s="58"/>
+      <c r="P233" s="58"/>
+      <c r="Q233" s="58"/>
+      <c r="R233" s="58"/>
+      <c r="S233" s="58"/>
+      <c r="T233" s="58"/>
+      <c r="U233" s="58"/>
+      <c r="V233" s="58"/>
+      <c r="W233" s="58"/>
+      <c r="X233" s="58"/>
+      <c r="Y233" s="58"/>
     </row>
     <row r="234" spans="12:25" x14ac:dyDescent="0.45">
       <c r="L234" s="22"/>
@@ -33380,11 +33581,13 @@
       <c r="O237" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="P237" s="53" t="s">
+      <c r="P237" s="57" t="s">
         <v>57</v>
       </c>
-      <c r="Q237" s="53"/>
-      <c r="R237" s="22"/>
+      <c r="Q237" s="57"/>
+      <c r="R237" s="22" t="s">
+        <v>130</v>
+      </c>
       <c r="S237" s="22"/>
       <c r="T237" s="22"/>
       <c r="U237" s="22"/>
@@ -33413,7 +33616,9 @@
       <c r="Q238" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="R238" s="4"/>
+      <c r="R238" s="4">
+        <v>140</v>
+      </c>
       <c r="S238" s="4"/>
       <c r="T238" s="4"/>
       <c r="U238" s="4"/>
@@ -33477,22 +33682,22 @@
       <c r="L241" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="M241" s="53" t="s">
+      <c r="M241" s="57" t="s">
         <v>67</v>
       </c>
-      <c r="N241" s="53"/>
-      <c r="O241" s="53" t="s">
+      <c r="N241" s="57"/>
+      <c r="O241" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="P241" s="53"/>
-      <c r="Q241" s="53" t="s">
+      <c r="P241" s="57"/>
+      <c r="Q241" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="R241" s="53"/>
-      <c r="S241" s="53" t="s">
+      <c r="R241" s="57"/>
+      <c r="S241" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="T241" s="53"/>
+      <c r="T241" s="57"/>
       <c r="U241" s="22"/>
       <c r="V241" s="22"/>
       <c r="W241" s="22"/>
@@ -33606,10 +33811,10 @@
       <c r="L245" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="M245" s="53" t="s">
+      <c r="M245" s="57" t="s">
         <v>67</v>
       </c>
-      <c r="N245" s="53"/>
+      <c r="N245" s="57"/>
       <c r="O245" s="22"/>
       <c r="P245" s="22"/>
       <c r="Q245" s="22"/>
@@ -33679,22 +33884,22 @@
       <c r="Y248" s="10"/>
     </row>
     <row r="250" spans="12:25" x14ac:dyDescent="0.45">
-      <c r="L250" s="54" t="s">
+      <c r="L250" s="58" t="s">
         <v>36</v>
       </c>
-      <c r="M250" s="54"/>
-      <c r="N250" s="54"/>
-      <c r="O250" s="54"/>
-      <c r="P250" s="54"/>
-      <c r="Q250" s="54"/>
-      <c r="R250" s="54"/>
-      <c r="S250" s="54"/>
-      <c r="T250" s="54"/>
-      <c r="U250" s="54"/>
-      <c r="V250" s="54"/>
-      <c r="W250" s="54"/>
-      <c r="X250" s="54"/>
-      <c r="Y250" s="54"/>
+      <c r="M250" s="58"/>
+      <c r="N250" s="58"/>
+      <c r="O250" s="58"/>
+      <c r="P250" s="58"/>
+      <c r="Q250" s="58"/>
+      <c r="R250" s="58"/>
+      <c r="S250" s="58"/>
+      <c r="T250" s="58"/>
+      <c r="U250" s="58"/>
+      <c r="V250" s="58"/>
+      <c r="W250" s="58"/>
+      <c r="X250" s="58"/>
+      <c r="Y250" s="58"/>
     </row>
     <row r="251" spans="12:25" x14ac:dyDescent="0.45">
       <c r="L251" s="22"/>
@@ -33795,11 +34000,13 @@
       <c r="O253" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="P253" s="53" t="s">
+      <c r="P253" s="57" t="s">
         <v>57</v>
       </c>
-      <c r="Q253" s="53"/>
-      <c r="R253" s="22"/>
+      <c r="Q253" s="57"/>
+      <c r="R253" s="22" t="s">
+        <v>130</v>
+      </c>
       <c r="S253" s="22"/>
       <c r="T253" s="22"/>
       <c r="U253" s="22"/>
@@ -33828,7 +34035,9 @@
       <c r="Q254" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="R254" s="4"/>
+      <c r="R254" s="4">
+        <v>130</v>
+      </c>
       <c r="S254" s="4"/>
       <c r="T254" s="4"/>
       <c r="U254" s="4"/>
@@ -33892,22 +34101,22 @@
       <c r="L257" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="M257" s="53" t="s">
+      <c r="M257" s="57" t="s">
         <v>67</v>
       </c>
-      <c r="N257" s="53"/>
-      <c r="O257" s="53" t="s">
+      <c r="N257" s="57"/>
+      <c r="O257" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="P257" s="53"/>
-      <c r="Q257" s="53" t="s">
+      <c r="P257" s="57"/>
+      <c r="Q257" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="R257" s="53"/>
-      <c r="S257" s="53" t="s">
+      <c r="R257" s="57"/>
+      <c r="S257" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="T257" s="53"/>
+      <c r="T257" s="57"/>
       <c r="U257" s="22"/>
       <c r="V257" s="22"/>
       <c r="W257" s="22"/>
@@ -34021,10 +34230,10 @@
       <c r="L261" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="M261" s="53" t="s">
+      <c r="M261" s="57" t="s">
         <v>67</v>
       </c>
-      <c r="N261" s="53"/>
+      <c r="N261" s="57"/>
       <c r="O261" s="22"/>
       <c r="P261" s="22"/>
       <c r="Q261" s="22"/>
@@ -34231,4 +34440,91 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA82025F-0C95-4FD3-BAA1-7BAF44117A32}">
+  <dimension ref="A2:C9"/>
+  <sheetViews>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="20.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B2" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A4" s="52" t="s">
+        <v>119</v>
+      </c>
+      <c r="B4" s="53" t="s">
+        <v>125</v>
+      </c>
+      <c r="C4" s="53" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>121</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>122</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A7" s="52" t="s">
+        <v>65</v>
+      </c>
+      <c r="B7" s="53" t="s">
+        <v>129</v>
+      </c>
+      <c r="C7" s="53" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A8" s="54" t="s">
+        <v>126</v>
+      </c>
+      <c r="B8" s="55" t="s">
+        <v>127</v>
+      </c>
+      <c r="C8" s="55" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>123</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>